--- a/DOC/基本設計/基本設計_emsm_自動請求.xlsx
+++ b/DOC/基本設計/基本設計_emsm_自動請求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBEDC5-F164-40C7-9346-956B4975901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64AEBA-7304-40F7-A80D-8EB64EA0D791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -413,10 +413,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自動請求するため、画面の請求項目に設定する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>請求書生成を押す処理</t>
     <rPh sb="0" eb="5">
       <t>セイキュウショセイセイ</t>
@@ -425,22 +421,6 @@
   </si>
   <si>
     <t>請求月に空として検索するとエラーメッセージ表示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>請求月ボックスの年月を検索して、表示して、請求書を生成する</t>
-    <rPh sb="0" eb="3">
-      <t>セイキュウゲツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -577,6 +557,29 @@
   </si>
   <si>
     <t>ClaimMonth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動請求するため、請求リストデータを取得し、画面の請求項目に設定する。</t>
+    <rPh sb="9" eb="11">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求月ボックスの年月を検索して、請求書を生成する</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2810,6 +2813,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2825,288 +2924,258 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3144,71 +3213,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3222,32 +3234,221 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="118" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3255,203 +3456,122 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="118" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3500,123 +3620,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5685,34 +5688,34 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -5739,32 +5742,32 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -5791,166 +5794,166 @@
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="197" t="s">
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="200" t="s">
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="201"/>
-      <c r="W4" s="201"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="201"/>
-      <c r="Z4" s="201"/>
-      <c r="AA4" s="201"/>
-      <c r="AB4" s="201"/>
-      <c r="AC4" s="201"/>
-      <c r="AD4" s="201"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="201"/>
-      <c r="AG4" s="201"/>
-      <c r="AH4" s="201"/>
-      <c r="AI4" s="201"/>
-      <c r="AJ4" s="201"/>
-      <c r="AK4" s="201"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="201"/>
-      <c r="AN4" s="201"/>
-      <c r="AO4" s="201"/>
-      <c r="AP4" s="201"/>
-      <c r="AQ4" s="201"/>
-      <c r="AR4" s="201"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="201"/>
-      <c r="AU4" s="201"/>
-      <c r="AV4" s="202"/>
-      <c r="AW4" s="176" t="s">
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="162"/>
+      <c r="AA4" s="162"/>
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="162"/>
+      <c r="AD4" s="162"/>
+      <c r="AE4" s="162"/>
+      <c r="AF4" s="162"/>
+      <c r="AG4" s="162"/>
+      <c r="AH4" s="162"/>
+      <c r="AI4" s="162"/>
+      <c r="AJ4" s="162"/>
+      <c r="AK4" s="162"/>
+      <c r="AL4" s="162"/>
+      <c r="AM4" s="162"/>
+      <c r="AN4" s="162"/>
+      <c r="AO4" s="162"/>
+      <c r="AP4" s="162"/>
+      <c r="AQ4" s="162"/>
+      <c r="AR4" s="162"/>
+      <c r="AS4" s="162"/>
+      <c r="AT4" s="162"/>
+      <c r="AU4" s="162"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="177"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="174">
+      <c r="AX4" s="170"/>
+      <c r="AY4" s="171"/>
+      <c r="AZ4" s="167">
         <v>45447</v>
       </c>
-      <c r="BA4" s="175"/>
-      <c r="BB4" s="175"/>
-      <c r="BC4" s="175"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="175"/>
-      <c r="BF4" s="176" t="s">
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="168"/>
+      <c r="BD4" s="168"/>
+      <c r="BE4" s="168"/>
+      <c r="BF4" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="177"/>
-      <c r="BH4" s="178"/>
-      <c r="BI4" s="179" t="s">
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="171"/>
+      <c r="BI4" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="175"/>
-      <c r="BK4" s="175"/>
-      <c r="BL4" s="175"/>
-      <c r="BM4" s="175"/>
-      <c r="BN4" s="180"/>
+      <c r="BJ4" s="168"/>
+      <c r="BK4" s="168"/>
+      <c r="BL4" s="168"/>
+      <c r="BM4" s="168"/>
+      <c r="BN4" s="173"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="181" t="s">
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="172"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="172"/>
-      <c r="AG5" s="172"/>
-      <c r="AH5" s="172"/>
-      <c r="AI5" s="172"/>
-      <c r="AJ5" s="172"/>
-      <c r="AK5" s="172"/>
-      <c r="AL5" s="172"/>
-      <c r="AM5" s="172"/>
-      <c r="AN5" s="172"/>
-      <c r="AO5" s="172"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="172"/>
-      <c r="AR5" s="172"/>
-      <c r="AS5" s="172"/>
-      <c r="AT5" s="172"/>
-      <c r="AU5" s="172"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="187" t="s">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="165"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="171"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="171"/>
-      <c r="BA5" s="171"/>
-      <c r="BB5" s="171"/>
-      <c r="BC5" s="171"/>
-      <c r="BD5" s="171"/>
-      <c r="BE5" s="171"/>
-      <c r="BF5" s="187" t="s">
+      <c r="AX5" s="164"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="164"/>
+      <c r="BA5" s="164"/>
+      <c r="BB5" s="164"/>
+      <c r="BC5" s="164"/>
+      <c r="BD5" s="164"/>
+      <c r="BE5" s="164"/>
+      <c r="BF5" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="171"/>
-      <c r="BH5" s="188"/>
-      <c r="BI5" s="171"/>
-      <c r="BJ5" s="172"/>
-      <c r="BK5" s="172"/>
-      <c r="BL5" s="172"/>
-      <c r="BM5" s="172"/>
-      <c r="BN5" s="173"/>
+      <c r="BG5" s="164"/>
+      <c r="BH5" s="181"/>
+      <c r="BI5" s="164"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="165"/>
+      <c r="BL5" s="165"/>
+      <c r="BM5" s="165"/>
+      <c r="BN5" s="166"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="55"/>
@@ -6001,25 +6004,25 @@
       <c r="AT6" s="58"/>
       <c r="AU6" s="58"/>
       <c r="AV6" s="58"/>
-      <c r="AW6" s="158" t="s">
+      <c r="AW6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="AX6" s="159"/>
-      <c r="AY6" s="159"/>
-      <c r="AZ6" s="159"/>
-      <c r="BA6" s="159"/>
-      <c r="BB6" s="159"/>
-      <c r="BC6" s="159"/>
-      <c r="BD6" s="159"/>
-      <c r="BE6" s="159"/>
-      <c r="BF6" s="159"/>
-      <c r="BG6" s="159"/>
-      <c r="BH6" s="159"/>
-      <c r="BI6" s="159"/>
-      <c r="BJ6" s="159"/>
-      <c r="BK6" s="159"/>
-      <c r="BL6" s="159"/>
-      <c r="BM6" s="160"/>
+      <c r="AX6" s="196"/>
+      <c r="AY6" s="196"/>
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="196"/>
+      <c r="BB6" s="196"/>
+      <c r="BC6" s="196"/>
+      <c r="BD6" s="196"/>
+      <c r="BE6" s="196"/>
+      <c r="BF6" s="196"/>
+      <c r="BG6" s="196"/>
+      <c r="BH6" s="196"/>
+      <c r="BI6" s="196"/>
+      <c r="BJ6" s="196"/>
+      <c r="BK6" s="196"/>
+      <c r="BL6" s="196"/>
+      <c r="BM6" s="197"/>
       <c r="BN6" s="57"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6071,23 +6074,23 @@
       <c r="AT7" s="58"/>
       <c r="AU7" s="58"/>
       <c r="AV7" s="58"/>
-      <c r="AW7" s="161"/>
-      <c r="AX7" s="162"/>
-      <c r="AY7" s="162"/>
-      <c r="AZ7" s="162"/>
-      <c r="BA7" s="162"/>
-      <c r="BB7" s="162"/>
-      <c r="BC7" s="162"/>
-      <c r="BD7" s="162"/>
-      <c r="BE7" s="162"/>
-      <c r="BF7" s="162"/>
-      <c r="BG7" s="162"/>
-      <c r="BH7" s="162"/>
-      <c r="BI7" s="162"/>
-      <c r="BJ7" s="162"/>
-      <c r="BK7" s="162"/>
-      <c r="BL7" s="162"/>
-      <c r="BM7" s="163"/>
+      <c r="AW7" s="198"/>
+      <c r="AX7" s="199"/>
+      <c r="AY7" s="199"/>
+      <c r="AZ7" s="199"/>
+      <c r="BA7" s="199"/>
+      <c r="BB7" s="199"/>
+      <c r="BC7" s="199"/>
+      <c r="BD7" s="199"/>
+      <c r="BE7" s="199"/>
+      <c r="BF7" s="199"/>
+      <c r="BG7" s="199"/>
+      <c r="BH7" s="199"/>
+      <c r="BI7" s="199"/>
+      <c r="BJ7" s="199"/>
+      <c r="BK7" s="199"/>
+      <c r="BL7" s="199"/>
+      <c r="BM7" s="200"/>
       <c r="BN7" s="57"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6147,15 +6150,15 @@
       <c r="BB8" s="58"/>
       <c r="BC8" s="58"/>
       <c r="BD8" s="58"/>
-      <c r="BE8" s="164"/>
-      <c r="BF8" s="150"/>
-      <c r="BG8" s="150"/>
-      <c r="BH8" s="150"/>
-      <c r="BI8" s="150"/>
-      <c r="BJ8" s="150"/>
-      <c r="BK8" s="150"/>
-      <c r="BL8" s="150"/>
-      <c r="BM8" s="151"/>
+      <c r="BE8" s="187"/>
+      <c r="BF8" s="182"/>
+      <c r="BG8" s="182"/>
+      <c r="BH8" s="182"/>
+      <c r="BI8" s="182"/>
+      <c r="BJ8" s="182"/>
+      <c r="BK8" s="182"/>
+      <c r="BL8" s="182"/>
+      <c r="BM8" s="183"/>
       <c r="BN8" s="57"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7358,15 +7361,15 @@
       <c r="BB26" s="58"/>
       <c r="BC26" s="58"/>
       <c r="BD26" s="58"/>
-      <c r="BE26" s="164"/>
-      <c r="BF26" s="150"/>
-      <c r="BG26" s="150"/>
-      <c r="BH26" s="150"/>
-      <c r="BI26" s="150"/>
-      <c r="BJ26" s="150"/>
-      <c r="BK26" s="150"/>
-      <c r="BL26" s="150"/>
-      <c r="BM26" s="151"/>
+      <c r="BE26" s="187"/>
+      <c r="BF26" s="182"/>
+      <c r="BG26" s="182"/>
+      <c r="BH26" s="182"/>
+      <c r="BI26" s="182"/>
+      <c r="BJ26" s="182"/>
+      <c r="BK26" s="182"/>
+      <c r="BL26" s="182"/>
+      <c r="BM26" s="183"/>
       <c r="BN26" s="57"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7426,15 +7429,15 @@
       <c r="BB27" s="58"/>
       <c r="BC27" s="58"/>
       <c r="BD27" s="58"/>
-      <c r="BE27" s="164"/>
-      <c r="BF27" s="150"/>
-      <c r="BG27" s="150"/>
-      <c r="BH27" s="150"/>
-      <c r="BI27" s="150"/>
-      <c r="BJ27" s="150"/>
-      <c r="BK27" s="150"/>
-      <c r="BL27" s="150"/>
-      <c r="BM27" s="151"/>
+      <c r="BE27" s="187"/>
+      <c r="BF27" s="182"/>
+      <c r="BG27" s="182"/>
+      <c r="BH27" s="182"/>
+      <c r="BI27" s="182"/>
+      <c r="BJ27" s="182"/>
+      <c r="BK27" s="182"/>
+      <c r="BL27" s="182"/>
+      <c r="BM27" s="183"/>
       <c r="BN27" s="57"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7494,15 +7497,15 @@
       <c r="BB28" s="58"/>
       <c r="BC28" s="58"/>
       <c r="BD28" s="58"/>
-      <c r="BE28" s="164"/>
-      <c r="BF28" s="150"/>
-      <c r="BG28" s="150"/>
-      <c r="BH28" s="150"/>
-      <c r="BI28" s="150"/>
-      <c r="BJ28" s="150"/>
-      <c r="BK28" s="150"/>
-      <c r="BL28" s="150"/>
-      <c r="BM28" s="151"/>
+      <c r="BE28" s="187"/>
+      <c r="BF28" s="182"/>
+      <c r="BG28" s="182"/>
+      <c r="BH28" s="182"/>
+      <c r="BI28" s="182"/>
+      <c r="BJ28" s="182"/>
+      <c r="BK28" s="182"/>
+      <c r="BL28" s="182"/>
+      <c r="BM28" s="183"/>
       <c r="BN28" s="57"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7562,15 +7565,15 @@
       <c r="BB29" s="58"/>
       <c r="BC29" s="58"/>
       <c r="BD29" s="58"/>
-      <c r="BE29" s="164"/>
-      <c r="BF29" s="150"/>
-      <c r="BG29" s="150"/>
-      <c r="BH29" s="150"/>
-      <c r="BI29" s="150"/>
-      <c r="BJ29" s="150"/>
-      <c r="BK29" s="150"/>
-      <c r="BL29" s="150"/>
-      <c r="BM29" s="151"/>
+      <c r="BE29" s="187"/>
+      <c r="BF29" s="182"/>
+      <c r="BG29" s="182"/>
+      <c r="BH29" s="182"/>
+      <c r="BI29" s="182"/>
+      <c r="BJ29" s="182"/>
+      <c r="BK29" s="182"/>
+      <c r="BL29" s="182"/>
+      <c r="BM29" s="183"/>
       <c r="BN29" s="57"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7630,15 +7633,15 @@
       <c r="BB30" s="58"/>
       <c r="BC30" s="58"/>
       <c r="BD30" s="58"/>
-      <c r="BE30" s="155"/>
-      <c r="BF30" s="150"/>
-      <c r="BG30" s="150"/>
-      <c r="BH30" s="150"/>
-      <c r="BI30" s="150"/>
-      <c r="BJ30" s="150"/>
-      <c r="BK30" s="150"/>
-      <c r="BL30" s="150"/>
-      <c r="BM30" s="151"/>
+      <c r="BE30" s="188"/>
+      <c r="BF30" s="182"/>
+      <c r="BG30" s="182"/>
+      <c r="BH30" s="182"/>
+      <c r="BI30" s="182"/>
+      <c r="BJ30" s="182"/>
+      <c r="BK30" s="182"/>
+      <c r="BL30" s="182"/>
+      <c r="BM30" s="183"/>
       <c r="BN30" s="57"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7698,15 +7701,15 @@
       <c r="BB31" s="58"/>
       <c r="BC31" s="58"/>
       <c r="BD31" s="58"/>
-      <c r="BE31" s="165"/>
-      <c r="BF31" s="166"/>
-      <c r="BG31" s="166"/>
-      <c r="BH31" s="166"/>
-      <c r="BI31" s="166"/>
-      <c r="BJ31" s="166"/>
-      <c r="BK31" s="166"/>
-      <c r="BL31" s="166"/>
-      <c r="BM31" s="167"/>
+      <c r="BE31" s="189"/>
+      <c r="BF31" s="190"/>
+      <c r="BG31" s="190"/>
+      <c r="BH31" s="190"/>
+      <c r="BI31" s="190"/>
+      <c r="BJ31" s="190"/>
+      <c r="BK31" s="190"/>
+      <c r="BL31" s="190"/>
+      <c r="BM31" s="191"/>
       <c r="BN31" s="57"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7766,15 +7769,15 @@
       <c r="BB32" s="58"/>
       <c r="BC32" s="58"/>
       <c r="BD32" s="58"/>
-      <c r="BE32" s="168"/>
-      <c r="BF32" s="169"/>
-      <c r="BG32" s="169"/>
-      <c r="BH32" s="169"/>
-      <c r="BI32" s="169"/>
-      <c r="BJ32" s="169"/>
-      <c r="BK32" s="169"/>
-      <c r="BL32" s="169"/>
-      <c r="BM32" s="170"/>
+      <c r="BE32" s="192"/>
+      <c r="BF32" s="193"/>
+      <c r="BG32" s="193"/>
+      <c r="BH32" s="193"/>
+      <c r="BI32" s="193"/>
+      <c r="BJ32" s="193"/>
+      <c r="BK32" s="193"/>
+      <c r="BL32" s="193"/>
+      <c r="BM32" s="194"/>
       <c r="BN32" s="57"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7834,15 +7837,15 @@
       <c r="BB33" s="58"/>
       <c r="BC33" s="58"/>
       <c r="BD33" s="58"/>
-      <c r="BE33" s="164"/>
-      <c r="BF33" s="150"/>
-      <c r="BG33" s="150"/>
-      <c r="BH33" s="150"/>
-      <c r="BI33" s="150"/>
-      <c r="BJ33" s="150"/>
-      <c r="BK33" s="150"/>
-      <c r="BL33" s="150"/>
-      <c r="BM33" s="151"/>
+      <c r="BE33" s="187"/>
+      <c r="BF33" s="182"/>
+      <c r="BG33" s="182"/>
+      <c r="BH33" s="182"/>
+      <c r="BI33" s="182"/>
+      <c r="BJ33" s="182"/>
+      <c r="BK33" s="182"/>
+      <c r="BL33" s="182"/>
+      <c r="BM33" s="183"/>
       <c r="BN33" s="57"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7902,15 +7905,15 @@
       <c r="BB34" s="58"/>
       <c r="BC34" s="58"/>
       <c r="BD34" s="58"/>
-      <c r="BE34" s="152"/>
-      <c r="BF34" s="153"/>
-      <c r="BG34" s="153"/>
-      <c r="BH34" s="153"/>
-      <c r="BI34" s="153"/>
-      <c r="BJ34" s="153"/>
-      <c r="BK34" s="153"/>
-      <c r="BL34" s="153"/>
-      <c r="BM34" s="154"/>
+      <c r="BE34" s="184"/>
+      <c r="BF34" s="185"/>
+      <c r="BG34" s="185"/>
+      <c r="BH34" s="185"/>
+      <c r="BI34" s="185"/>
+      <c r="BJ34" s="185"/>
+      <c r="BK34" s="185"/>
+      <c r="BL34" s="185"/>
+      <c r="BM34" s="186"/>
       <c r="BN34" s="57"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7970,15 +7973,15 @@
       <c r="BB35" s="58"/>
       <c r="BC35" s="58"/>
       <c r="BD35" s="63"/>
-      <c r="BE35" s="150"/>
-      <c r="BF35" s="150"/>
-      <c r="BG35" s="150"/>
-      <c r="BH35" s="150"/>
-      <c r="BI35" s="150"/>
-      <c r="BJ35" s="150"/>
-      <c r="BK35" s="150"/>
-      <c r="BL35" s="150"/>
-      <c r="BM35" s="151"/>
+      <c r="BE35" s="182"/>
+      <c r="BF35" s="182"/>
+      <c r="BG35" s="182"/>
+      <c r="BH35" s="182"/>
+      <c r="BI35" s="182"/>
+      <c r="BJ35" s="182"/>
+      <c r="BK35" s="182"/>
+      <c r="BL35" s="182"/>
+      <c r="BM35" s="183"/>
       <c r="BN35" s="57"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8038,15 +8041,15 @@
       <c r="BB36" s="58"/>
       <c r="BC36" s="58"/>
       <c r="BD36" s="58"/>
-      <c r="BE36" s="152"/>
-      <c r="BF36" s="153"/>
-      <c r="BG36" s="153"/>
-      <c r="BH36" s="153"/>
-      <c r="BI36" s="153"/>
-      <c r="BJ36" s="153"/>
-      <c r="BK36" s="153"/>
-      <c r="BL36" s="153"/>
-      <c r="BM36" s="154"/>
+      <c r="BE36" s="184"/>
+      <c r="BF36" s="185"/>
+      <c r="BG36" s="185"/>
+      <c r="BH36" s="185"/>
+      <c r="BI36" s="185"/>
+      <c r="BJ36" s="185"/>
+      <c r="BK36" s="185"/>
+      <c r="BL36" s="185"/>
+      <c r="BM36" s="186"/>
       <c r="BN36" s="57"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8106,15 +8109,15 @@
       <c r="BB37" s="58"/>
       <c r="BC37" s="58"/>
       <c r="BD37" s="63"/>
-      <c r="BE37" s="150"/>
-      <c r="BF37" s="150"/>
-      <c r="BG37" s="150"/>
-      <c r="BH37" s="150"/>
-      <c r="BI37" s="150"/>
-      <c r="BJ37" s="150"/>
-      <c r="BK37" s="150"/>
-      <c r="BL37" s="150"/>
-      <c r="BM37" s="151"/>
+      <c r="BE37" s="182"/>
+      <c r="BF37" s="182"/>
+      <c r="BG37" s="182"/>
+      <c r="BH37" s="182"/>
+      <c r="BI37" s="182"/>
+      <c r="BJ37" s="182"/>
+      <c r="BK37" s="182"/>
+      <c r="BL37" s="182"/>
+      <c r="BM37" s="183"/>
       <c r="BN37" s="57"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8174,15 +8177,15 @@
       <c r="BB38" s="58"/>
       <c r="BC38" s="58"/>
       <c r="BD38" s="58"/>
-      <c r="BE38" s="152"/>
-      <c r="BF38" s="153"/>
-      <c r="BG38" s="153"/>
-      <c r="BH38" s="153"/>
-      <c r="BI38" s="153"/>
-      <c r="BJ38" s="153"/>
-      <c r="BK38" s="153"/>
-      <c r="BL38" s="153"/>
-      <c r="BM38" s="154"/>
+      <c r="BE38" s="184"/>
+      <c r="BF38" s="185"/>
+      <c r="BG38" s="185"/>
+      <c r="BH38" s="185"/>
+      <c r="BI38" s="185"/>
+      <c r="BJ38" s="185"/>
+      <c r="BK38" s="185"/>
+      <c r="BL38" s="185"/>
+      <c r="BM38" s="186"/>
       <c r="BN38" s="57"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8242,15 +8245,15 @@
       <c r="BB39" s="58"/>
       <c r="BC39" s="58"/>
       <c r="BD39" s="63"/>
-      <c r="BE39" s="150"/>
-      <c r="BF39" s="150"/>
-      <c r="BG39" s="150"/>
-      <c r="BH39" s="150"/>
-      <c r="BI39" s="150"/>
-      <c r="BJ39" s="150"/>
-      <c r="BK39" s="150"/>
-      <c r="BL39" s="150"/>
-      <c r="BM39" s="151"/>
+      <c r="BE39" s="182"/>
+      <c r="BF39" s="182"/>
+      <c r="BG39" s="182"/>
+      <c r="BH39" s="182"/>
+      <c r="BI39" s="182"/>
+      <c r="BJ39" s="182"/>
+      <c r="BK39" s="182"/>
+      <c r="BL39" s="182"/>
+      <c r="BM39" s="183"/>
       <c r="BN39" s="57"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8310,15 +8313,15 @@
       <c r="BB40" s="58"/>
       <c r="BC40" s="58"/>
       <c r="BD40" s="58"/>
-      <c r="BE40" s="152"/>
-      <c r="BF40" s="153"/>
-      <c r="BG40" s="153"/>
-      <c r="BH40" s="153"/>
-      <c r="BI40" s="153"/>
-      <c r="BJ40" s="153"/>
-      <c r="BK40" s="153"/>
-      <c r="BL40" s="153"/>
-      <c r="BM40" s="154"/>
+      <c r="BE40" s="184"/>
+      <c r="BF40" s="185"/>
+      <c r="BG40" s="185"/>
+      <c r="BH40" s="185"/>
+      <c r="BI40" s="185"/>
+      <c r="BJ40" s="185"/>
+      <c r="BK40" s="185"/>
+      <c r="BL40" s="185"/>
+      <c r="BM40" s="186"/>
       <c r="BN40" s="57"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8378,15 +8381,15 @@
       <c r="BB41" s="58"/>
       <c r="BC41" s="58"/>
       <c r="BD41" s="58"/>
-      <c r="BE41" s="155"/>
-      <c r="BF41" s="150"/>
-      <c r="BG41" s="150"/>
-      <c r="BH41" s="150"/>
-      <c r="BI41" s="150"/>
-      <c r="BJ41" s="150"/>
-      <c r="BK41" s="150"/>
-      <c r="BL41" s="150"/>
-      <c r="BM41" s="151"/>
+      <c r="BE41" s="188"/>
+      <c r="BF41" s="182"/>
+      <c r="BG41" s="182"/>
+      <c r="BH41" s="182"/>
+      <c r="BI41" s="182"/>
+      <c r="BJ41" s="182"/>
+      <c r="BK41" s="182"/>
+      <c r="BL41" s="182"/>
+      <c r="BM41" s="183"/>
       <c r="BN41" s="57"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8446,15 +8449,15 @@
       <c r="BB42" s="58"/>
       <c r="BC42" s="58"/>
       <c r="BD42" s="58"/>
-      <c r="BE42" s="155"/>
-      <c r="BF42" s="150"/>
-      <c r="BG42" s="150"/>
-      <c r="BH42" s="150"/>
-      <c r="BI42" s="150"/>
-      <c r="BJ42" s="150"/>
-      <c r="BK42" s="150"/>
-      <c r="BL42" s="150"/>
-      <c r="BM42" s="151"/>
+      <c r="BE42" s="188"/>
+      <c r="BF42" s="182"/>
+      <c r="BG42" s="182"/>
+      <c r="BH42" s="182"/>
+      <c r="BI42" s="182"/>
+      <c r="BJ42" s="182"/>
+      <c r="BK42" s="182"/>
+      <c r="BL42" s="182"/>
+      <c r="BM42" s="183"/>
       <c r="BN42" s="57"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8514,15 +8517,15 @@
       <c r="BB43" s="61"/>
       <c r="BC43" s="61"/>
       <c r="BD43" s="64"/>
-      <c r="BE43" s="156"/>
-      <c r="BF43" s="156"/>
-      <c r="BG43" s="156"/>
-      <c r="BH43" s="156"/>
-      <c r="BI43" s="156"/>
-      <c r="BJ43" s="156"/>
-      <c r="BK43" s="156"/>
-      <c r="BL43" s="156"/>
-      <c r="BM43" s="157"/>
+      <c r="BE43" s="201"/>
+      <c r="BF43" s="201"/>
+      <c r="BG43" s="201"/>
+      <c r="BH43" s="201"/>
+      <c r="BI43" s="201"/>
+      <c r="BJ43" s="201"/>
+      <c r="BK43" s="201"/>
+      <c r="BL43" s="201"/>
+      <c r="BM43" s="202"/>
       <c r="BN43" s="62"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8570,11 +8573,26 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
     <mergeCell ref="BI5:BN5"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -8587,26 +8605,11 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
-    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8888,34 +8891,34 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -8942,32 +8945,32 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -8994,166 +8997,166 @@
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="197" t="s">
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="200" t="s">
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="201"/>
-      <c r="W4" s="201"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="201"/>
-      <c r="Z4" s="201"/>
-      <c r="AA4" s="201"/>
-      <c r="AB4" s="201"/>
-      <c r="AC4" s="201"/>
-      <c r="AD4" s="201"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="201"/>
-      <c r="AG4" s="201"/>
-      <c r="AH4" s="201"/>
-      <c r="AI4" s="201"/>
-      <c r="AJ4" s="201"/>
-      <c r="AK4" s="201"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="201"/>
-      <c r="AN4" s="201"/>
-      <c r="AO4" s="201"/>
-      <c r="AP4" s="201"/>
-      <c r="AQ4" s="201"/>
-      <c r="AR4" s="201"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="201"/>
-      <c r="AU4" s="201"/>
-      <c r="AV4" s="202"/>
-      <c r="AW4" s="176" t="s">
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="162"/>
+      <c r="AA4" s="162"/>
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="162"/>
+      <c r="AD4" s="162"/>
+      <c r="AE4" s="162"/>
+      <c r="AF4" s="162"/>
+      <c r="AG4" s="162"/>
+      <c r="AH4" s="162"/>
+      <c r="AI4" s="162"/>
+      <c r="AJ4" s="162"/>
+      <c r="AK4" s="162"/>
+      <c r="AL4" s="162"/>
+      <c r="AM4" s="162"/>
+      <c r="AN4" s="162"/>
+      <c r="AO4" s="162"/>
+      <c r="AP4" s="162"/>
+      <c r="AQ4" s="162"/>
+      <c r="AR4" s="162"/>
+      <c r="AS4" s="162"/>
+      <c r="AT4" s="162"/>
+      <c r="AU4" s="162"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="177"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="174">
+      <c r="AX4" s="170"/>
+      <c r="AY4" s="171"/>
+      <c r="AZ4" s="167">
         <v>45447</v>
       </c>
-      <c r="BA4" s="175"/>
-      <c r="BB4" s="175"/>
-      <c r="BC4" s="175"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="175"/>
-      <c r="BF4" s="176" t="s">
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="168"/>
+      <c r="BD4" s="168"/>
+      <c r="BE4" s="168"/>
+      <c r="BF4" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="177"/>
-      <c r="BH4" s="178"/>
-      <c r="BI4" s="204" t="s">
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="171"/>
+      <c r="BI4" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="205"/>
-      <c r="BN4" s="206"/>
+      <c r="BJ4" s="247"/>
+      <c r="BK4" s="247"/>
+      <c r="BL4" s="247"/>
+      <c r="BM4" s="247"/>
+      <c r="BN4" s="248"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="181" t="s">
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="172"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="172"/>
-      <c r="AG5" s="172"/>
-      <c r="AH5" s="172"/>
-      <c r="AI5" s="172"/>
-      <c r="AJ5" s="172"/>
-      <c r="AK5" s="172"/>
-      <c r="AL5" s="172"/>
-      <c r="AM5" s="172"/>
-      <c r="AN5" s="172"/>
-      <c r="AO5" s="172"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="172"/>
-      <c r="AR5" s="172"/>
-      <c r="AS5" s="172"/>
-      <c r="AT5" s="172"/>
-      <c r="AU5" s="172"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="187" t="s">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="165"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="171"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="171"/>
-      <c r="BA5" s="171"/>
-      <c r="BB5" s="171"/>
-      <c r="BC5" s="171"/>
-      <c r="BD5" s="171"/>
-      <c r="BE5" s="171"/>
-      <c r="BF5" s="187" t="s">
+      <c r="AX5" s="164"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="164"/>
+      <c r="BA5" s="164"/>
+      <c r="BB5" s="164"/>
+      <c r="BC5" s="164"/>
+      <c r="BD5" s="164"/>
+      <c r="BE5" s="164"/>
+      <c r="BF5" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="171"/>
-      <c r="BH5" s="188"/>
-      <c r="BI5" s="171"/>
-      <c r="BJ5" s="172"/>
-      <c r="BK5" s="172"/>
-      <c r="BL5" s="172"/>
-      <c r="BM5" s="172"/>
-      <c r="BN5" s="173"/>
+      <c r="BG5" s="164"/>
+      <c r="BH5" s="181"/>
+      <c r="BI5" s="164"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="165"/>
+      <c r="BL5" s="165"/>
+      <c r="BM5" s="165"/>
+      <c r="BN5" s="166"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="55"/>
@@ -9197,36 +9200,36 @@
       <c r="AM6" s="56"/>
       <c r="AN6" s="56"/>
       <c r="AO6" s="56"/>
-      <c r="AP6" s="220" t="s">
+      <c r="AP6" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="AQ6" s="221"/>
-      <c r="AR6" s="221"/>
-      <c r="AS6" s="222" t="s">
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="AT6" s="223"/>
-      <c r="AU6" s="223"/>
-      <c r="AV6" s="223"/>
-      <c r="AW6" s="223"/>
-      <c r="AX6" s="223"/>
-      <c r="AY6" s="223"/>
-      <c r="AZ6" s="223"/>
-      <c r="BA6" s="223"/>
-      <c r="BB6" s="223"/>
-      <c r="BC6" s="223"/>
-      <c r="BD6" s="223"/>
-      <c r="BE6" s="222" t="s">
+      <c r="AT6" s="240"/>
+      <c r="AU6" s="240"/>
+      <c r="AV6" s="240"/>
+      <c r="AW6" s="240"/>
+      <c r="AX6" s="240"/>
+      <c r="AY6" s="240"/>
+      <c r="AZ6" s="240"/>
+      <c r="BA6" s="240"/>
+      <c r="BB6" s="240"/>
+      <c r="BC6" s="240"/>
+      <c r="BD6" s="240"/>
+      <c r="BE6" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="BF6" s="221"/>
-      <c r="BG6" s="221"/>
-      <c r="BH6" s="221"/>
-      <c r="BI6" s="221"/>
-      <c r="BJ6" s="221"/>
-      <c r="BK6" s="221"/>
-      <c r="BL6" s="221"/>
-      <c r="BM6" s="224"/>
+      <c r="BF6" s="238"/>
+      <c r="BG6" s="238"/>
+      <c r="BH6" s="238"/>
+      <c r="BI6" s="238"/>
+      <c r="BJ6" s="238"/>
+      <c r="BK6" s="238"/>
+      <c r="BL6" s="238"/>
+      <c r="BM6" s="241"/>
       <c r="BN6" s="57"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9276,31 +9279,31 @@
       </c>
       <c r="AQ7" s="208"/>
       <c r="AR7" s="209"/>
-      <c r="AS7" s="225" t="s">
+      <c r="AS7" s="242" t="s">
         <v>61</v>
       </c>
-      <c r="AT7" s="226"/>
-      <c r="AU7" s="226"/>
-      <c r="AV7" s="226"/>
-      <c r="AW7" s="226"/>
-      <c r="AX7" s="226"/>
-      <c r="AY7" s="226"/>
-      <c r="AZ7" s="226"/>
-      <c r="BA7" s="226"/>
-      <c r="BB7" s="226"/>
-      <c r="BC7" s="226"/>
-      <c r="BD7" s="227"/>
-      <c r="BE7" s="225" t="s">
+      <c r="AT7" s="243"/>
+      <c r="AU7" s="243"/>
+      <c r="AV7" s="243"/>
+      <c r="AW7" s="243"/>
+      <c r="AX7" s="243"/>
+      <c r="AY7" s="243"/>
+      <c r="AZ7" s="243"/>
+      <c r="BA7" s="243"/>
+      <c r="BB7" s="243"/>
+      <c r="BC7" s="243"/>
+      <c r="BD7" s="244"/>
+      <c r="BE7" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="BF7" s="226"/>
-      <c r="BG7" s="226"/>
-      <c r="BH7" s="226"/>
-      <c r="BI7" s="226"/>
-      <c r="BJ7" s="226"/>
-      <c r="BK7" s="226"/>
-      <c r="BL7" s="226"/>
-      <c r="BM7" s="226"/>
+      <c r="BF7" s="243"/>
+      <c r="BG7" s="243"/>
+      <c r="BH7" s="243"/>
+      <c r="BI7" s="243"/>
+      <c r="BJ7" s="243"/>
+      <c r="BK7" s="243"/>
+      <c r="BL7" s="243"/>
+      <c r="BM7" s="243"/>
       <c r="BN7" s="57"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9364,17 +9367,17 @@
       <c r="BB8" s="211"/>
       <c r="BC8" s="211"/>
       <c r="BD8" s="212"/>
-      <c r="BE8" s="213" t="s">
+      <c r="BE8" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="BF8" s="214"/>
-      <c r="BG8" s="214"/>
-      <c r="BH8" s="214"/>
-      <c r="BI8" s="214"/>
-      <c r="BJ8" s="214"/>
-      <c r="BK8" s="214"/>
-      <c r="BL8" s="214"/>
-      <c r="BM8" s="214"/>
+      <c r="BF8" s="213"/>
+      <c r="BG8" s="213"/>
+      <c r="BH8" s="213"/>
+      <c r="BI8" s="213"/>
+      <c r="BJ8" s="213"/>
+      <c r="BK8" s="213"/>
+      <c r="BL8" s="213"/>
+      <c r="BM8" s="213"/>
       <c r="BN8" s="57"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9424,31 +9427,31 @@
       </c>
       <c r="AQ9" s="208"/>
       <c r="AR9" s="209"/>
-      <c r="AS9" s="215" t="s">
+      <c r="AS9" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="AT9" s="216"/>
-      <c r="AU9" s="216"/>
-      <c r="AV9" s="216"/>
-      <c r="AW9" s="216"/>
-      <c r="AX9" s="216"/>
-      <c r="AY9" s="216"/>
-      <c r="AZ9" s="216"/>
-      <c r="BA9" s="216"/>
-      <c r="BB9" s="216"/>
-      <c r="BC9" s="216"/>
-      <c r="BD9" s="217"/>
-      <c r="BE9" s="218" t="s">
+      <c r="AT9" s="233"/>
+      <c r="AU9" s="233"/>
+      <c r="AV9" s="233"/>
+      <c r="AW9" s="233"/>
+      <c r="AX9" s="233"/>
+      <c r="AY9" s="233"/>
+      <c r="AZ9" s="233"/>
+      <c r="BA9" s="233"/>
+      <c r="BB9" s="233"/>
+      <c r="BC9" s="233"/>
+      <c r="BD9" s="234"/>
+      <c r="BE9" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="BF9" s="219"/>
-      <c r="BG9" s="219"/>
-      <c r="BH9" s="219"/>
-      <c r="BI9" s="219"/>
-      <c r="BJ9" s="219"/>
-      <c r="BK9" s="219"/>
-      <c r="BL9" s="219"/>
-      <c r="BM9" s="219"/>
+      <c r="BF9" s="236"/>
+      <c r="BG9" s="236"/>
+      <c r="BH9" s="236"/>
+      <c r="BI9" s="236"/>
+      <c r="BJ9" s="236"/>
+      <c r="BK9" s="236"/>
+      <c r="BL9" s="236"/>
+      <c r="BM9" s="236"/>
       <c r="BN9" s="57"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9498,31 +9501,31 @@
       </c>
       <c r="AQ10" s="208"/>
       <c r="AR10" s="209"/>
-      <c r="AS10" s="235" t="s">
+      <c r="AS10" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="AT10" s="236"/>
-      <c r="AU10" s="236"/>
-      <c r="AV10" s="236"/>
-      <c r="AW10" s="236"/>
-      <c r="AX10" s="236"/>
-      <c r="AY10" s="236"/>
-      <c r="AZ10" s="236"/>
-      <c r="BA10" s="236"/>
-      <c r="BB10" s="236"/>
-      <c r="BC10" s="236"/>
-      <c r="BD10" s="237"/>
+      <c r="AT10" s="221"/>
+      <c r="AU10" s="221"/>
+      <c r="AV10" s="221"/>
+      <c r="AW10" s="221"/>
+      <c r="AX10" s="221"/>
+      <c r="AY10" s="221"/>
+      <c r="AZ10" s="221"/>
+      <c r="BA10" s="221"/>
+      <c r="BB10" s="221"/>
+      <c r="BC10" s="221"/>
+      <c r="BD10" s="222"/>
       <c r="BE10" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF10" s="214"/>
-      <c r="BG10" s="214"/>
-      <c r="BH10" s="214"/>
-      <c r="BI10" s="214"/>
-      <c r="BJ10" s="214"/>
-      <c r="BK10" s="214"/>
-      <c r="BL10" s="214"/>
-      <c r="BM10" s="214"/>
+      <c r="BF10" s="213"/>
+      <c r="BG10" s="213"/>
+      <c r="BH10" s="213"/>
+      <c r="BI10" s="213"/>
+      <c r="BJ10" s="213"/>
+      <c r="BK10" s="213"/>
+      <c r="BL10" s="213"/>
+      <c r="BM10" s="213"/>
       <c r="BN10" s="57"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9541,10 +9544,10 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="80"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="203"/>
+      <c r="P11" s="249"/>
+      <c r="Q11" s="249"/>
+      <c r="R11" s="249"/>
+      <c r="S11" s="249"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
       <c r="V11" s="80"/>
@@ -9586,17 +9589,17 @@
       <c r="BB11" s="211"/>
       <c r="BC11" s="211"/>
       <c r="BD11" s="212"/>
-      <c r="BE11" s="234" t="s">
+      <c r="BE11" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="BF11" s="214"/>
-      <c r="BG11" s="214"/>
-      <c r="BH11" s="214"/>
-      <c r="BI11" s="214"/>
-      <c r="BJ11" s="214"/>
-      <c r="BK11" s="214"/>
-      <c r="BL11" s="214"/>
-      <c r="BM11" s="214"/>
+      <c r="BF11" s="213"/>
+      <c r="BG11" s="213"/>
+      <c r="BH11" s="213"/>
+      <c r="BI11" s="213"/>
+      <c r="BJ11" s="213"/>
+      <c r="BK11" s="213"/>
+      <c r="BL11" s="213"/>
+      <c r="BM11" s="213"/>
       <c r="BN11" s="57"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9646,54 +9649,54 @@
       </c>
       <c r="AQ12" s="208"/>
       <c r="AR12" s="209"/>
-      <c r="AS12" s="228" t="s">
+      <c r="AS12" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="AT12" s="229"/>
-      <c r="AU12" s="229"/>
-      <c r="AV12" s="229"/>
-      <c r="AW12" s="229"/>
-      <c r="AX12" s="229"/>
-      <c r="AY12" s="229"/>
-      <c r="AZ12" s="229"/>
-      <c r="BA12" s="229"/>
-      <c r="BB12" s="229"/>
-      <c r="BC12" s="229"/>
-      <c r="BD12" s="230"/>
+      <c r="AT12" s="225"/>
+      <c r="AU12" s="225"/>
+      <c r="AV12" s="225"/>
+      <c r="AW12" s="225"/>
+      <c r="AX12" s="225"/>
+      <c r="AY12" s="225"/>
+      <c r="AZ12" s="225"/>
+      <c r="BA12" s="225"/>
+      <c r="BB12" s="225"/>
+      <c r="BC12" s="225"/>
+      <c r="BD12" s="226"/>
       <c r="BE12" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF12" s="214"/>
-      <c r="BG12" s="214"/>
-      <c r="BH12" s="214"/>
-      <c r="BI12" s="214"/>
-      <c r="BJ12" s="214"/>
-      <c r="BK12" s="214"/>
-      <c r="BL12" s="214"/>
-      <c r="BM12" s="214"/>
+      <c r="BF12" s="213"/>
+      <c r="BG12" s="213"/>
+      <c r="BH12" s="213"/>
+      <c r="BI12" s="213"/>
+      <c r="BJ12" s="213"/>
+      <c r="BK12" s="213"/>
+      <c r="BL12" s="213"/>
+      <c r="BM12" s="213"/>
       <c r="BN12" s="57"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="89"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="203"/>
-      <c r="S13" s="203"/>
-      <c r="T13" s="203"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="249"/>
+      <c r="Q13" s="249"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="249"/>
+      <c r="T13" s="249"/>
       <c r="U13" s="80"/>
       <c r="V13" s="80"/>
       <c r="W13" s="80"/>
@@ -9720,31 +9723,31 @@
       </c>
       <c r="AQ13" s="208"/>
       <c r="AR13" s="209"/>
-      <c r="AS13" s="231" t="s">
+      <c r="AS13" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="AT13" s="232"/>
-      <c r="AU13" s="232"/>
-      <c r="AV13" s="232"/>
-      <c r="AW13" s="232"/>
-      <c r="AX13" s="232"/>
-      <c r="AY13" s="232"/>
-      <c r="AZ13" s="232"/>
-      <c r="BA13" s="232"/>
-      <c r="BB13" s="232"/>
-      <c r="BC13" s="232"/>
-      <c r="BD13" s="233"/>
-      <c r="BE13" s="234" t="s">
+      <c r="AT13" s="230"/>
+      <c r="AU13" s="230"/>
+      <c r="AV13" s="230"/>
+      <c r="AW13" s="230"/>
+      <c r="AX13" s="230"/>
+      <c r="AY13" s="230"/>
+      <c r="AZ13" s="230"/>
+      <c r="BA13" s="230"/>
+      <c r="BB13" s="230"/>
+      <c r="BC13" s="230"/>
+      <c r="BD13" s="231"/>
+      <c r="BE13" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="BF13" s="214"/>
-      <c r="BG13" s="214"/>
-      <c r="BH13" s="214"/>
-      <c r="BI13" s="214"/>
-      <c r="BJ13" s="214"/>
-      <c r="BK13" s="214"/>
-      <c r="BL13" s="214"/>
-      <c r="BM13" s="214"/>
+      <c r="BF13" s="213"/>
+      <c r="BG13" s="213"/>
+      <c r="BH13" s="213"/>
+      <c r="BI13" s="213"/>
+      <c r="BJ13" s="213"/>
+      <c r="BK13" s="213"/>
+      <c r="BL13" s="213"/>
+      <c r="BM13" s="213"/>
       <c r="BN13" s="57"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9794,31 +9797,31 @@
       </c>
       <c r="AQ14" s="208"/>
       <c r="AR14" s="209"/>
-      <c r="AS14" s="228" t="s">
+      <c r="AS14" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="AT14" s="229"/>
-      <c r="AU14" s="229"/>
-      <c r="AV14" s="229"/>
-      <c r="AW14" s="229"/>
-      <c r="AX14" s="229"/>
-      <c r="AY14" s="229"/>
-      <c r="AZ14" s="229"/>
-      <c r="BA14" s="229"/>
-      <c r="BB14" s="229"/>
-      <c r="BC14" s="229"/>
-      <c r="BD14" s="230"/>
+      <c r="AT14" s="225"/>
+      <c r="AU14" s="225"/>
+      <c r="AV14" s="225"/>
+      <c r="AW14" s="225"/>
+      <c r="AX14" s="225"/>
+      <c r="AY14" s="225"/>
+      <c r="AZ14" s="225"/>
+      <c r="BA14" s="225"/>
+      <c r="BB14" s="225"/>
+      <c r="BC14" s="225"/>
+      <c r="BD14" s="226"/>
       <c r="BE14" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF14" s="214"/>
-      <c r="BG14" s="214"/>
-      <c r="BH14" s="214"/>
-      <c r="BI14" s="214"/>
-      <c r="BJ14" s="214"/>
-      <c r="BK14" s="214"/>
-      <c r="BL14" s="214"/>
-      <c r="BM14" s="214"/>
+      <c r="BF14" s="213"/>
+      <c r="BG14" s="213"/>
+      <c r="BH14" s="213"/>
+      <c r="BI14" s="213"/>
+      <c r="BJ14" s="213"/>
+      <c r="BK14" s="213"/>
+      <c r="BL14" s="213"/>
+      <c r="BM14" s="213"/>
       <c r="BN14" s="57"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9868,31 +9871,31 @@
       </c>
       <c r="AQ15" s="208"/>
       <c r="AR15" s="209"/>
-      <c r="AS15" s="238" t="s">
+      <c r="AS15" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="AT15" s="239"/>
-      <c r="AU15" s="239"/>
-      <c r="AV15" s="239"/>
-      <c r="AW15" s="239"/>
-      <c r="AX15" s="239"/>
-      <c r="AY15" s="239"/>
-      <c r="AZ15" s="239"/>
-      <c r="BA15" s="239"/>
-      <c r="BB15" s="239"/>
-      <c r="BC15" s="239"/>
-      <c r="BD15" s="239"/>
+      <c r="AT15" s="228"/>
+      <c r="AU15" s="228"/>
+      <c r="AV15" s="228"/>
+      <c r="AW15" s="228"/>
+      <c r="AX15" s="228"/>
+      <c r="AY15" s="228"/>
+      <c r="AZ15" s="228"/>
+      <c r="BA15" s="228"/>
+      <c r="BB15" s="228"/>
+      <c r="BC15" s="228"/>
+      <c r="BD15" s="228"/>
       <c r="BE15" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF15" s="214"/>
-      <c r="BG15" s="214"/>
-      <c r="BH15" s="214"/>
-      <c r="BI15" s="214"/>
-      <c r="BJ15" s="214"/>
-      <c r="BK15" s="214"/>
-      <c r="BL15" s="214"/>
-      <c r="BM15" s="214"/>
+      <c r="BF15" s="213"/>
+      <c r="BG15" s="213"/>
+      <c r="BH15" s="213"/>
+      <c r="BI15" s="213"/>
+      <c r="BJ15" s="213"/>
+      <c r="BK15" s="213"/>
+      <c r="BL15" s="213"/>
+      <c r="BM15" s="213"/>
       <c r="BN15" s="57"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9942,54 +9945,54 @@
       </c>
       <c r="AQ16" s="208"/>
       <c r="AR16" s="209"/>
-      <c r="AS16" s="235" t="s">
+      <c r="AS16" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="AT16" s="236"/>
-      <c r="AU16" s="236"/>
-      <c r="AV16" s="236"/>
-      <c r="AW16" s="236"/>
-      <c r="AX16" s="236"/>
-      <c r="AY16" s="236"/>
-      <c r="AZ16" s="236"/>
-      <c r="BA16" s="236"/>
-      <c r="BB16" s="236"/>
-      <c r="BC16" s="236"/>
-      <c r="BD16" s="237"/>
-      <c r="BE16" s="234" t="s">
+      <c r="AT16" s="221"/>
+      <c r="AU16" s="221"/>
+      <c r="AV16" s="221"/>
+      <c r="AW16" s="221"/>
+      <c r="AX16" s="221"/>
+      <c r="AY16" s="221"/>
+      <c r="AZ16" s="221"/>
+      <c r="BA16" s="221"/>
+      <c r="BB16" s="221"/>
+      <c r="BC16" s="221"/>
+      <c r="BD16" s="222"/>
+      <c r="BE16" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="BF16" s="214"/>
-      <c r="BG16" s="214"/>
-      <c r="BH16" s="214"/>
-      <c r="BI16" s="214"/>
-      <c r="BJ16" s="214"/>
-      <c r="BK16" s="214"/>
-      <c r="BL16" s="214"/>
-      <c r="BM16" s="214"/>
+      <c r="BF16" s="213"/>
+      <c r="BG16" s="213"/>
+      <c r="BH16" s="213"/>
+      <c r="BI16" s="213"/>
+      <c r="BJ16" s="213"/>
+      <c r="BK16" s="213"/>
+      <c r="BL16" s="213"/>
+      <c r="BM16" s="213"/>
       <c r="BN16" s="57"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="80"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="203"/>
-      <c r="T17" s="203"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
+      <c r="K17" s="249"/>
+      <c r="L17" s="249"/>
+      <c r="M17" s="249"/>
+      <c r="N17" s="249"/>
+      <c r="O17" s="249"/>
+      <c r="P17" s="249"/>
+      <c r="Q17" s="249"/>
+      <c r="R17" s="249"/>
+      <c r="S17" s="249"/>
+      <c r="T17" s="249"/>
       <c r="U17" s="80"/>
       <c r="V17" s="80"/>
       <c r="W17" s="80"/>
@@ -10033,14 +10036,14 @@
       <c r="BE17" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF17" s="214"/>
-      <c r="BG17" s="214"/>
-      <c r="BH17" s="214"/>
-      <c r="BI17" s="214"/>
-      <c r="BJ17" s="214"/>
-      <c r="BK17" s="214"/>
-      <c r="BL17" s="214"/>
-      <c r="BM17" s="214"/>
+      <c r="BF17" s="213"/>
+      <c r="BG17" s="213"/>
+      <c r="BH17" s="213"/>
+      <c r="BI17" s="213"/>
+      <c r="BJ17" s="213"/>
+      <c r="BK17" s="213"/>
+      <c r="BL17" s="213"/>
+      <c r="BM17" s="213"/>
       <c r="BN17" s="57"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10107,14 +10110,14 @@
       <c r="BE18" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF18" s="214"/>
-      <c r="BG18" s="214"/>
-      <c r="BH18" s="214"/>
-      <c r="BI18" s="214"/>
-      <c r="BJ18" s="214"/>
-      <c r="BK18" s="214"/>
-      <c r="BL18" s="214"/>
-      <c r="BM18" s="214"/>
+      <c r="BF18" s="213"/>
+      <c r="BG18" s="213"/>
+      <c r="BH18" s="213"/>
+      <c r="BI18" s="213"/>
+      <c r="BJ18" s="213"/>
+      <c r="BK18" s="213"/>
+      <c r="BL18" s="213"/>
+      <c r="BM18" s="213"/>
       <c r="BN18" s="81"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10181,14 +10184,14 @@
       <c r="BE19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF19" s="214"/>
-      <c r="BG19" s="214"/>
-      <c r="BH19" s="214"/>
-      <c r="BI19" s="214"/>
-      <c r="BJ19" s="214"/>
-      <c r="BK19" s="214"/>
-      <c r="BL19" s="214"/>
-      <c r="BM19" s="214"/>
+      <c r="BF19" s="213"/>
+      <c r="BG19" s="213"/>
+      <c r="BH19" s="213"/>
+      <c r="BI19" s="213"/>
+      <c r="BJ19" s="213"/>
+      <c r="BK19" s="213"/>
+      <c r="BL19" s="213"/>
+      <c r="BM19" s="213"/>
       <c r="BN19" s="57"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10255,14 +10258,14 @@
       <c r="BE20" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF20" s="214"/>
-      <c r="BG20" s="214"/>
-      <c r="BH20" s="214"/>
-      <c r="BI20" s="214"/>
-      <c r="BJ20" s="214"/>
-      <c r="BK20" s="214"/>
-      <c r="BL20" s="214"/>
-      <c r="BM20" s="214"/>
+      <c r="BF20" s="213"/>
+      <c r="BG20" s="213"/>
+      <c r="BH20" s="213"/>
+      <c r="BI20" s="213"/>
+      <c r="BJ20" s="213"/>
+      <c r="BK20" s="213"/>
+      <c r="BL20" s="213"/>
+      <c r="BM20" s="213"/>
       <c r="BN20" s="57"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10312,31 +10315,31 @@
       </c>
       <c r="AQ21" s="208"/>
       <c r="AR21" s="209"/>
-      <c r="AS21" s="240" t="s">
+      <c r="AS21" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="AT21" s="241"/>
-      <c r="AU21" s="241"/>
-      <c r="AV21" s="241"/>
-      <c r="AW21" s="241"/>
-      <c r="AX21" s="241"/>
-      <c r="AY21" s="241"/>
-      <c r="AZ21" s="241"/>
-      <c r="BA21" s="241"/>
-      <c r="BB21" s="241"/>
-      <c r="BC21" s="241"/>
-      <c r="BD21" s="242"/>
-      <c r="BE21" s="240" t="s">
+      <c r="AT21" s="218"/>
+      <c r="AU21" s="218"/>
+      <c r="AV21" s="218"/>
+      <c r="AW21" s="218"/>
+      <c r="AX21" s="218"/>
+      <c r="AY21" s="218"/>
+      <c r="AZ21" s="218"/>
+      <c r="BA21" s="218"/>
+      <c r="BB21" s="218"/>
+      <c r="BC21" s="218"/>
+      <c r="BD21" s="219"/>
+      <c r="BE21" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="BF21" s="241"/>
-      <c r="BG21" s="241"/>
-      <c r="BH21" s="241"/>
-      <c r="BI21" s="241"/>
-      <c r="BJ21" s="241"/>
-      <c r="BK21" s="241"/>
-      <c r="BL21" s="241"/>
-      <c r="BM21" s="241"/>
+      <c r="BF21" s="218"/>
+      <c r="BG21" s="218"/>
+      <c r="BH21" s="218"/>
+      <c r="BI21" s="218"/>
+      <c r="BJ21" s="218"/>
+      <c r="BK21" s="218"/>
+      <c r="BL21" s="218"/>
+      <c r="BM21" s="218"/>
       <c r="BN21" s="57"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10381,30 +10384,30 @@
       <c r="AM22" s="56"/>
       <c r="AN22" s="56"/>
       <c r="AO22" s="56"/>
-      <c r="AP22" s="248"/>
-      <c r="AQ22" s="249"/>
-      <c r="AR22" s="249"/>
-      <c r="AS22" s="243"/>
-      <c r="AT22" s="244"/>
-      <c r="AU22" s="244"/>
-      <c r="AV22" s="244"/>
-      <c r="AW22" s="244"/>
-      <c r="AX22" s="244"/>
-      <c r="AY22" s="244"/>
-      <c r="AZ22" s="244"/>
-      <c r="BA22" s="244"/>
-      <c r="BB22" s="244"/>
-      <c r="BC22" s="244"/>
-      <c r="BD22" s="244"/>
-      <c r="BE22" s="243"/>
-      <c r="BF22" s="244"/>
-      <c r="BG22" s="244"/>
-      <c r="BH22" s="244"/>
-      <c r="BI22" s="244"/>
-      <c r="BJ22" s="244"/>
-      <c r="BK22" s="244"/>
-      <c r="BL22" s="244"/>
-      <c r="BM22" s="244"/>
+      <c r="AP22" s="215"/>
+      <c r="AQ22" s="216"/>
+      <c r="AR22" s="216"/>
+      <c r="AS22" s="205"/>
+      <c r="AT22" s="206"/>
+      <c r="AU22" s="206"/>
+      <c r="AV22" s="206"/>
+      <c r="AW22" s="206"/>
+      <c r="AX22" s="206"/>
+      <c r="AY22" s="206"/>
+      <c r="AZ22" s="206"/>
+      <c r="BA22" s="206"/>
+      <c r="BB22" s="206"/>
+      <c r="BC22" s="206"/>
+      <c r="BD22" s="206"/>
+      <c r="BE22" s="205"/>
+      <c r="BF22" s="206"/>
+      <c r="BG22" s="206"/>
+      <c r="BH22" s="206"/>
+      <c r="BI22" s="206"/>
+      <c r="BJ22" s="206"/>
+      <c r="BK22" s="206"/>
+      <c r="BL22" s="206"/>
+      <c r="BM22" s="206"/>
       <c r="BN22" s="57"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10449,30 +10452,30 @@
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
       <c r="AO23" s="56"/>
-      <c r="AP23" s="245"/>
-      <c r="AQ23" s="246"/>
-      <c r="AR23" s="246"/>
-      <c r="AS23" s="243"/>
-      <c r="AT23" s="244"/>
-      <c r="AU23" s="244"/>
-      <c r="AV23" s="244"/>
-      <c r="AW23" s="244"/>
-      <c r="AX23" s="244"/>
-      <c r="AY23" s="244"/>
-      <c r="AZ23" s="244"/>
-      <c r="BA23" s="244"/>
-      <c r="BB23" s="244"/>
-      <c r="BC23" s="244"/>
-      <c r="BD23" s="244"/>
-      <c r="BE23" s="243"/>
-      <c r="BF23" s="244"/>
-      <c r="BG23" s="244"/>
-      <c r="BH23" s="244"/>
-      <c r="BI23" s="244"/>
-      <c r="BJ23" s="244"/>
-      <c r="BK23" s="244"/>
-      <c r="BL23" s="244"/>
-      <c r="BM23" s="244"/>
+      <c r="AP23" s="203"/>
+      <c r="AQ23" s="204"/>
+      <c r="AR23" s="204"/>
+      <c r="AS23" s="205"/>
+      <c r="AT23" s="206"/>
+      <c r="AU23" s="206"/>
+      <c r="AV23" s="206"/>
+      <c r="AW23" s="206"/>
+      <c r="AX23" s="206"/>
+      <c r="AY23" s="206"/>
+      <c r="AZ23" s="206"/>
+      <c r="BA23" s="206"/>
+      <c r="BB23" s="206"/>
+      <c r="BC23" s="206"/>
+      <c r="BD23" s="206"/>
+      <c r="BE23" s="205"/>
+      <c r="BF23" s="206"/>
+      <c r="BG23" s="206"/>
+      <c r="BH23" s="206"/>
+      <c r="BI23" s="206"/>
+      <c r="BJ23" s="206"/>
+      <c r="BK23" s="206"/>
+      <c r="BL23" s="206"/>
+      <c r="BM23" s="206"/>
       <c r="BN23" s="57"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10517,30 +10520,30 @@
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
-      <c r="AP24" s="245"/>
-      <c r="AQ24" s="246"/>
-      <c r="AR24" s="246"/>
-      <c r="AS24" s="243"/>
-      <c r="AT24" s="244"/>
-      <c r="AU24" s="244"/>
-      <c r="AV24" s="244"/>
-      <c r="AW24" s="244"/>
-      <c r="AX24" s="244"/>
-      <c r="AY24" s="244"/>
-      <c r="AZ24" s="244"/>
-      <c r="BA24" s="244"/>
-      <c r="BB24" s="244"/>
-      <c r="BC24" s="244"/>
-      <c r="BD24" s="244"/>
-      <c r="BE24" s="243"/>
-      <c r="BF24" s="244"/>
-      <c r="BG24" s="244"/>
-      <c r="BH24" s="244"/>
-      <c r="BI24" s="244"/>
-      <c r="BJ24" s="244"/>
-      <c r="BK24" s="244"/>
-      <c r="BL24" s="244"/>
-      <c r="BM24" s="244"/>
+      <c r="AP24" s="203"/>
+      <c r="AQ24" s="204"/>
+      <c r="AR24" s="204"/>
+      <c r="AS24" s="205"/>
+      <c r="AT24" s="206"/>
+      <c r="AU24" s="206"/>
+      <c r="AV24" s="206"/>
+      <c r="AW24" s="206"/>
+      <c r="AX24" s="206"/>
+      <c r="AY24" s="206"/>
+      <c r="AZ24" s="206"/>
+      <c r="BA24" s="206"/>
+      <c r="BB24" s="206"/>
+      <c r="BC24" s="206"/>
+      <c r="BD24" s="206"/>
+      <c r="BE24" s="205"/>
+      <c r="BF24" s="206"/>
+      <c r="BG24" s="206"/>
+      <c r="BH24" s="206"/>
+      <c r="BI24" s="206"/>
+      <c r="BJ24" s="206"/>
+      <c r="BK24" s="206"/>
+      <c r="BL24" s="206"/>
+      <c r="BM24" s="206"/>
       <c r="BN24" s="57"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10585,30 +10588,30 @@
       <c r="AM25" s="56"/>
       <c r="AN25" s="56"/>
       <c r="AO25" s="56"/>
-      <c r="AP25" s="245"/>
-      <c r="AQ25" s="246"/>
-      <c r="AR25" s="246"/>
-      <c r="AS25" s="247"/>
-      <c r="AT25" s="247"/>
-      <c r="AU25" s="247"/>
-      <c r="AV25" s="247"/>
-      <c r="AW25" s="247"/>
-      <c r="AX25" s="247"/>
-      <c r="AY25" s="247"/>
-      <c r="AZ25" s="247"/>
-      <c r="BA25" s="247"/>
-      <c r="BB25" s="247"/>
-      <c r="BC25" s="247"/>
-      <c r="BD25" s="247"/>
-      <c r="BE25" s="243"/>
-      <c r="BF25" s="244"/>
-      <c r="BG25" s="244"/>
-      <c r="BH25" s="244"/>
-      <c r="BI25" s="244"/>
-      <c r="BJ25" s="244"/>
-      <c r="BK25" s="244"/>
-      <c r="BL25" s="244"/>
-      <c r="BM25" s="244"/>
+      <c r="AP25" s="203"/>
+      <c r="AQ25" s="204"/>
+      <c r="AR25" s="204"/>
+      <c r="AS25" s="214"/>
+      <c r="AT25" s="214"/>
+      <c r="AU25" s="214"/>
+      <c r="AV25" s="214"/>
+      <c r="AW25" s="214"/>
+      <c r="AX25" s="214"/>
+      <c r="AY25" s="214"/>
+      <c r="AZ25" s="214"/>
+      <c r="BA25" s="214"/>
+      <c r="BB25" s="214"/>
+      <c r="BC25" s="214"/>
+      <c r="BD25" s="214"/>
+      <c r="BE25" s="205"/>
+      <c r="BF25" s="206"/>
+      <c r="BG25" s="206"/>
+      <c r="BH25" s="206"/>
+      <c r="BI25" s="206"/>
+      <c r="BJ25" s="206"/>
+      <c r="BK25" s="206"/>
+      <c r="BL25" s="206"/>
+      <c r="BM25" s="206"/>
       <c r="BN25" s="57"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10653,30 +10656,30 @@
       <c r="AM26" s="56"/>
       <c r="AN26" s="56"/>
       <c r="AO26" s="56"/>
-      <c r="AP26" s="245"/>
-      <c r="AQ26" s="246"/>
-      <c r="AR26" s="246"/>
-      <c r="AS26" s="247"/>
-      <c r="AT26" s="247"/>
-      <c r="AU26" s="247"/>
-      <c r="AV26" s="247"/>
-      <c r="AW26" s="247"/>
-      <c r="AX26" s="247"/>
-      <c r="AY26" s="247"/>
-      <c r="AZ26" s="247"/>
-      <c r="BA26" s="247"/>
-      <c r="BB26" s="247"/>
-      <c r="BC26" s="247"/>
-      <c r="BD26" s="247"/>
-      <c r="BE26" s="243"/>
-      <c r="BF26" s="244"/>
-      <c r="BG26" s="244"/>
-      <c r="BH26" s="244"/>
-      <c r="BI26" s="244"/>
-      <c r="BJ26" s="244"/>
-      <c r="BK26" s="244"/>
-      <c r="BL26" s="244"/>
-      <c r="BM26" s="244"/>
+      <c r="AP26" s="203"/>
+      <c r="AQ26" s="204"/>
+      <c r="AR26" s="204"/>
+      <c r="AS26" s="214"/>
+      <c r="AT26" s="214"/>
+      <c r="AU26" s="214"/>
+      <c r="AV26" s="214"/>
+      <c r="AW26" s="214"/>
+      <c r="AX26" s="214"/>
+      <c r="AY26" s="214"/>
+      <c r="AZ26" s="214"/>
+      <c r="BA26" s="214"/>
+      <c r="BB26" s="214"/>
+      <c r="BC26" s="214"/>
+      <c r="BD26" s="214"/>
+      <c r="BE26" s="205"/>
+      <c r="BF26" s="206"/>
+      <c r="BG26" s="206"/>
+      <c r="BH26" s="206"/>
+      <c r="BI26" s="206"/>
+      <c r="BJ26" s="206"/>
+      <c r="BK26" s="206"/>
+      <c r="BL26" s="206"/>
+      <c r="BM26" s="206"/>
       <c r="BN26" s="57"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10721,30 +10724,30 @@
       <c r="AM27" s="56"/>
       <c r="AN27" s="56"/>
       <c r="AO27" s="56"/>
-      <c r="AP27" s="245"/>
-      <c r="AQ27" s="246"/>
-      <c r="AR27" s="246"/>
-      <c r="AS27" s="243"/>
-      <c r="AT27" s="244"/>
-      <c r="AU27" s="244"/>
-      <c r="AV27" s="244"/>
-      <c r="AW27" s="244"/>
-      <c r="AX27" s="244"/>
-      <c r="AY27" s="244"/>
-      <c r="AZ27" s="244"/>
-      <c r="BA27" s="244"/>
-      <c r="BB27" s="244"/>
-      <c r="BC27" s="244"/>
-      <c r="BD27" s="244"/>
-      <c r="BE27" s="243"/>
-      <c r="BF27" s="244"/>
-      <c r="BG27" s="244"/>
-      <c r="BH27" s="244"/>
-      <c r="BI27" s="244"/>
-      <c r="BJ27" s="244"/>
-      <c r="BK27" s="244"/>
-      <c r="BL27" s="244"/>
-      <c r="BM27" s="244"/>
+      <c r="AP27" s="203"/>
+      <c r="AQ27" s="204"/>
+      <c r="AR27" s="204"/>
+      <c r="AS27" s="205"/>
+      <c r="AT27" s="206"/>
+      <c r="AU27" s="206"/>
+      <c r="AV27" s="206"/>
+      <c r="AW27" s="206"/>
+      <c r="AX27" s="206"/>
+      <c r="AY27" s="206"/>
+      <c r="AZ27" s="206"/>
+      <c r="BA27" s="206"/>
+      <c r="BB27" s="206"/>
+      <c r="BC27" s="206"/>
+      <c r="BD27" s="206"/>
+      <c r="BE27" s="205"/>
+      <c r="BF27" s="206"/>
+      <c r="BG27" s="206"/>
+      <c r="BH27" s="206"/>
+      <c r="BI27" s="206"/>
+      <c r="BJ27" s="206"/>
+      <c r="BK27" s="206"/>
+      <c r="BL27" s="206"/>
+      <c r="BM27" s="206"/>
       <c r="BN27" s="57"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10789,30 +10792,30 @@
       <c r="AM28" s="56"/>
       <c r="AN28" s="56"/>
       <c r="AO28" s="56"/>
-      <c r="AP28" s="245"/>
-      <c r="AQ28" s="246"/>
-      <c r="AR28" s="246"/>
-      <c r="AS28" s="243"/>
-      <c r="AT28" s="244"/>
-      <c r="AU28" s="244"/>
-      <c r="AV28" s="244"/>
-      <c r="AW28" s="244"/>
-      <c r="AX28" s="244"/>
-      <c r="AY28" s="244"/>
-      <c r="AZ28" s="244"/>
-      <c r="BA28" s="244"/>
-      <c r="BB28" s="244"/>
-      <c r="BC28" s="244"/>
-      <c r="BD28" s="244"/>
-      <c r="BE28" s="243"/>
-      <c r="BF28" s="244"/>
-      <c r="BG28" s="244"/>
-      <c r="BH28" s="244"/>
-      <c r="BI28" s="244"/>
-      <c r="BJ28" s="244"/>
-      <c r="BK28" s="244"/>
-      <c r="BL28" s="244"/>
-      <c r="BM28" s="244"/>
+      <c r="AP28" s="203"/>
+      <c r="AQ28" s="204"/>
+      <c r="AR28" s="204"/>
+      <c r="AS28" s="205"/>
+      <c r="AT28" s="206"/>
+      <c r="AU28" s="206"/>
+      <c r="AV28" s="206"/>
+      <c r="AW28" s="206"/>
+      <c r="AX28" s="206"/>
+      <c r="AY28" s="206"/>
+      <c r="AZ28" s="206"/>
+      <c r="BA28" s="206"/>
+      <c r="BB28" s="206"/>
+      <c r="BC28" s="206"/>
+      <c r="BD28" s="206"/>
+      <c r="BE28" s="205"/>
+      <c r="BF28" s="206"/>
+      <c r="BG28" s="206"/>
+      <c r="BH28" s="206"/>
+      <c r="BI28" s="206"/>
+      <c r="BJ28" s="206"/>
+      <c r="BK28" s="206"/>
+      <c r="BL28" s="206"/>
+      <c r="BM28" s="206"/>
       <c r="BN28" s="57"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10857,30 +10860,30 @@
       <c r="AM29" s="56"/>
       <c r="AN29" s="56"/>
       <c r="AO29" s="56"/>
-      <c r="AP29" s="245"/>
-      <c r="AQ29" s="246"/>
-      <c r="AR29" s="246"/>
-      <c r="AS29" s="243"/>
-      <c r="AT29" s="244"/>
-      <c r="AU29" s="244"/>
-      <c r="AV29" s="244"/>
-      <c r="AW29" s="244"/>
-      <c r="AX29" s="244"/>
-      <c r="AY29" s="244"/>
-      <c r="AZ29" s="244"/>
-      <c r="BA29" s="244"/>
-      <c r="BB29" s="244"/>
-      <c r="BC29" s="244"/>
-      <c r="BD29" s="244"/>
-      <c r="BE29" s="243"/>
-      <c r="BF29" s="244"/>
-      <c r="BG29" s="244"/>
-      <c r="BH29" s="244"/>
-      <c r="BI29" s="244"/>
-      <c r="BJ29" s="244"/>
-      <c r="BK29" s="244"/>
-      <c r="BL29" s="244"/>
-      <c r="BM29" s="244"/>
+      <c r="AP29" s="203"/>
+      <c r="AQ29" s="204"/>
+      <c r="AR29" s="204"/>
+      <c r="AS29" s="205"/>
+      <c r="AT29" s="206"/>
+      <c r="AU29" s="206"/>
+      <c r="AV29" s="206"/>
+      <c r="AW29" s="206"/>
+      <c r="AX29" s="206"/>
+      <c r="AY29" s="206"/>
+      <c r="AZ29" s="206"/>
+      <c r="BA29" s="206"/>
+      <c r="BB29" s="206"/>
+      <c r="BC29" s="206"/>
+      <c r="BD29" s="206"/>
+      <c r="BE29" s="205"/>
+      <c r="BF29" s="206"/>
+      <c r="BG29" s="206"/>
+      <c r="BH29" s="206"/>
+      <c r="BI29" s="206"/>
+      <c r="BJ29" s="206"/>
+      <c r="BK29" s="206"/>
+      <c r="BL29" s="206"/>
+      <c r="BM29" s="206"/>
       <c r="BN29" s="57"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10925,30 +10928,30 @@
       <c r="AM30" s="56"/>
       <c r="AN30" s="56"/>
       <c r="AO30" s="56"/>
-      <c r="AP30" s="245"/>
-      <c r="AQ30" s="246"/>
-      <c r="AR30" s="246"/>
-      <c r="AS30" s="243"/>
-      <c r="AT30" s="150"/>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="150"/>
-      <c r="AW30" s="150"/>
-      <c r="AX30" s="150"/>
-      <c r="AY30" s="150"/>
-      <c r="AZ30" s="150"/>
-      <c r="BA30" s="150"/>
-      <c r="BB30" s="150"/>
-      <c r="BC30" s="150"/>
-      <c r="BD30" s="150"/>
-      <c r="BE30" s="243"/>
-      <c r="BF30" s="244"/>
-      <c r="BG30" s="244"/>
-      <c r="BH30" s="244"/>
-      <c r="BI30" s="244"/>
-      <c r="BJ30" s="244"/>
-      <c r="BK30" s="244"/>
-      <c r="BL30" s="244"/>
-      <c r="BM30" s="244"/>
+      <c r="AP30" s="203"/>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="204"/>
+      <c r="AS30" s="205"/>
+      <c r="AT30" s="182"/>
+      <c r="AU30" s="182"/>
+      <c r="AV30" s="182"/>
+      <c r="AW30" s="182"/>
+      <c r="AX30" s="182"/>
+      <c r="AY30" s="182"/>
+      <c r="AZ30" s="182"/>
+      <c r="BA30" s="182"/>
+      <c r="BB30" s="182"/>
+      <c r="BC30" s="182"/>
+      <c r="BD30" s="182"/>
+      <c r="BE30" s="205"/>
+      <c r="BF30" s="206"/>
+      <c r="BG30" s="206"/>
+      <c r="BH30" s="206"/>
+      <c r="BI30" s="206"/>
+      <c r="BJ30" s="206"/>
+      <c r="BK30" s="206"/>
+      <c r="BL30" s="206"/>
+      <c r="BM30" s="206"/>
       <c r="BN30" s="57"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10993,267 +10996,267 @@
       <c r="AM31" s="56"/>
       <c r="AN31" s="56"/>
       <c r="AO31" s="56"/>
-      <c r="AP31" s="245"/>
-      <c r="AQ31" s="246"/>
-      <c r="AR31" s="246"/>
-      <c r="AS31" s="243"/>
-      <c r="AT31" s="244"/>
-      <c r="AU31" s="244"/>
-      <c r="AV31" s="244"/>
-      <c r="AW31" s="244"/>
-      <c r="AX31" s="244"/>
-      <c r="AY31" s="244"/>
-      <c r="AZ31" s="244"/>
-      <c r="BA31" s="244"/>
-      <c r="BB31" s="244"/>
-      <c r="BC31" s="244"/>
-      <c r="BD31" s="150"/>
-      <c r="BE31" s="243"/>
-      <c r="BF31" s="244"/>
-      <c r="BG31" s="244"/>
-      <c r="BH31" s="244"/>
-      <c r="BI31" s="244"/>
-      <c r="BJ31" s="244"/>
-      <c r="BK31" s="244"/>
-      <c r="BL31" s="244"/>
-      <c r="BM31" s="244"/>
+      <c r="AP31" s="203"/>
+      <c r="AQ31" s="204"/>
+      <c r="AR31" s="204"/>
+      <c r="AS31" s="205"/>
+      <c r="AT31" s="206"/>
+      <c r="AU31" s="206"/>
+      <c r="AV31" s="206"/>
+      <c r="AW31" s="206"/>
+      <c r="AX31" s="206"/>
+      <c r="AY31" s="206"/>
+      <c r="AZ31" s="206"/>
+      <c r="BA31" s="206"/>
+      <c r="BB31" s="206"/>
+      <c r="BC31" s="206"/>
+      <c r="BD31" s="182"/>
+      <c r="BE31" s="205"/>
+      <c r="BF31" s="206"/>
+      <c r="BG31" s="206"/>
+      <c r="BH31" s="206"/>
+      <c r="BI31" s="206"/>
+      <c r="BJ31" s="206"/>
+      <c r="BK31" s="206"/>
+      <c r="BL31" s="206"/>
+      <c r="BM31" s="206"/>
       <c r="BN31" s="57"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP32" s="245"/>
-      <c r="AQ32" s="246"/>
-      <c r="AR32" s="246"/>
-      <c r="AS32" s="243"/>
-      <c r="AT32" s="244"/>
-      <c r="AU32" s="244"/>
-      <c r="AV32" s="244"/>
-      <c r="AW32" s="244"/>
-      <c r="AX32" s="244"/>
-      <c r="AY32" s="244"/>
-      <c r="AZ32" s="244"/>
-      <c r="BA32" s="244"/>
-      <c r="BB32" s="244"/>
-      <c r="BC32" s="244"/>
-      <c r="BD32" s="244"/>
-      <c r="BE32" s="243"/>
-      <c r="BF32" s="244"/>
-      <c r="BG32" s="244"/>
-      <c r="BH32" s="244"/>
-      <c r="BI32" s="244"/>
-      <c r="BJ32" s="244"/>
-      <c r="BK32" s="244"/>
-      <c r="BL32" s="244"/>
-      <c r="BM32" s="244"/>
+      <c r="AP32" s="203"/>
+      <c r="AQ32" s="204"/>
+      <c r="AR32" s="204"/>
+      <c r="AS32" s="205"/>
+      <c r="AT32" s="206"/>
+      <c r="AU32" s="206"/>
+      <c r="AV32" s="206"/>
+      <c r="AW32" s="206"/>
+      <c r="AX32" s="206"/>
+      <c r="AY32" s="206"/>
+      <c r="AZ32" s="206"/>
+      <c r="BA32" s="206"/>
+      <c r="BB32" s="206"/>
+      <c r="BC32" s="206"/>
+      <c r="BD32" s="206"/>
+      <c r="BE32" s="205"/>
+      <c r="BF32" s="206"/>
+      <c r="BG32" s="206"/>
+      <c r="BH32" s="206"/>
+      <c r="BI32" s="206"/>
+      <c r="BJ32" s="206"/>
+      <c r="BK32" s="206"/>
+      <c r="BL32" s="206"/>
+      <c r="BM32" s="206"/>
       <c r="BN32" s="57"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP33" s="245"/>
-      <c r="AQ33" s="246"/>
-      <c r="AR33" s="246"/>
-      <c r="AS33" s="243"/>
-      <c r="AT33" s="244"/>
-      <c r="AU33" s="244"/>
-      <c r="AV33" s="244"/>
-      <c r="AW33" s="244"/>
-      <c r="AX33" s="244"/>
-      <c r="AY33" s="244"/>
-      <c r="AZ33" s="244"/>
-      <c r="BA33" s="244"/>
-      <c r="BB33" s="244"/>
-      <c r="BC33" s="244"/>
-      <c r="BD33" s="244"/>
-      <c r="BE33" s="243"/>
-      <c r="BF33" s="244"/>
-      <c r="BG33" s="244"/>
-      <c r="BH33" s="244"/>
-      <c r="BI33" s="244"/>
-      <c r="BJ33" s="244"/>
-      <c r="BK33" s="244"/>
-      <c r="BL33" s="244"/>
-      <c r="BM33" s="244"/>
+      <c r="AP33" s="203"/>
+      <c r="AQ33" s="204"/>
+      <c r="AR33" s="204"/>
+      <c r="AS33" s="205"/>
+      <c r="AT33" s="206"/>
+      <c r="AU33" s="206"/>
+      <c r="AV33" s="206"/>
+      <c r="AW33" s="206"/>
+      <c r="AX33" s="206"/>
+      <c r="AY33" s="206"/>
+      <c r="AZ33" s="206"/>
+      <c r="BA33" s="206"/>
+      <c r="BB33" s="206"/>
+      <c r="BC33" s="206"/>
+      <c r="BD33" s="206"/>
+      <c r="BE33" s="205"/>
+      <c r="BF33" s="206"/>
+      <c r="BG33" s="206"/>
+      <c r="BH33" s="206"/>
+      <c r="BI33" s="206"/>
+      <c r="BJ33" s="206"/>
+      <c r="BK33" s="206"/>
+      <c r="BL33" s="206"/>
+      <c r="BM33" s="206"/>
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP34" s="245"/>
-      <c r="AQ34" s="246"/>
-      <c r="AR34" s="246"/>
-      <c r="AS34" s="247"/>
-      <c r="AT34" s="247"/>
-      <c r="AU34" s="247"/>
-      <c r="AV34" s="247"/>
-      <c r="AW34" s="247"/>
-      <c r="AX34" s="247"/>
-      <c r="AY34" s="247"/>
-      <c r="AZ34" s="247"/>
-      <c r="BA34" s="247"/>
-      <c r="BB34" s="247"/>
-      <c r="BC34" s="247"/>
-      <c r="BD34" s="247"/>
-      <c r="BE34" s="243"/>
-      <c r="BF34" s="244"/>
-      <c r="BG34" s="244"/>
-      <c r="BH34" s="244"/>
-      <c r="BI34" s="244"/>
-      <c r="BJ34" s="244"/>
-      <c r="BK34" s="244"/>
-      <c r="BL34" s="244"/>
-      <c r="BM34" s="244"/>
+      <c r="AP34" s="203"/>
+      <c r="AQ34" s="204"/>
+      <c r="AR34" s="204"/>
+      <c r="AS34" s="214"/>
+      <c r="AT34" s="214"/>
+      <c r="AU34" s="214"/>
+      <c r="AV34" s="214"/>
+      <c r="AW34" s="214"/>
+      <c r="AX34" s="214"/>
+      <c r="AY34" s="214"/>
+      <c r="AZ34" s="214"/>
+      <c r="BA34" s="214"/>
+      <c r="BB34" s="214"/>
+      <c r="BC34" s="214"/>
+      <c r="BD34" s="214"/>
+      <c r="BE34" s="205"/>
+      <c r="BF34" s="206"/>
+      <c r="BG34" s="206"/>
+      <c r="BH34" s="206"/>
+      <c r="BI34" s="206"/>
+      <c r="BJ34" s="206"/>
+      <c r="BK34" s="206"/>
+      <c r="BL34" s="206"/>
+      <c r="BM34" s="206"/>
     </row>
     <row r="35" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP35" s="245"/>
-      <c r="AQ35" s="246"/>
-      <c r="AR35" s="246"/>
-      <c r="AS35" s="247"/>
-      <c r="AT35" s="247"/>
-      <c r="AU35" s="247"/>
-      <c r="AV35" s="247"/>
-      <c r="AW35" s="247"/>
-      <c r="AX35" s="247"/>
-      <c r="AY35" s="247"/>
-      <c r="AZ35" s="247"/>
-      <c r="BA35" s="247"/>
-      <c r="BB35" s="247"/>
-      <c r="BC35" s="247"/>
-      <c r="BD35" s="247"/>
-      <c r="BE35" s="243"/>
-      <c r="BF35" s="244"/>
-      <c r="BG35" s="244"/>
-      <c r="BH35" s="244"/>
-      <c r="BI35" s="244"/>
-      <c r="BJ35" s="244"/>
-      <c r="BK35" s="244"/>
-      <c r="BL35" s="244"/>
-      <c r="BM35" s="244"/>
+      <c r="AP35" s="203"/>
+      <c r="AQ35" s="204"/>
+      <c r="AR35" s="204"/>
+      <c r="AS35" s="214"/>
+      <c r="AT35" s="214"/>
+      <c r="AU35" s="214"/>
+      <c r="AV35" s="214"/>
+      <c r="AW35" s="214"/>
+      <c r="AX35" s="214"/>
+      <c r="AY35" s="214"/>
+      <c r="AZ35" s="214"/>
+      <c r="BA35" s="214"/>
+      <c r="BB35" s="214"/>
+      <c r="BC35" s="214"/>
+      <c r="BD35" s="214"/>
+      <c r="BE35" s="205"/>
+      <c r="BF35" s="206"/>
+      <c r="BG35" s="206"/>
+      <c r="BH35" s="206"/>
+      <c r="BI35" s="206"/>
+      <c r="BJ35" s="206"/>
+      <c r="BK35" s="206"/>
+      <c r="BL35" s="206"/>
+      <c r="BM35" s="206"/>
     </row>
     <row r="36" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP36" s="245"/>
-      <c r="AQ36" s="246"/>
-      <c r="AR36" s="246"/>
-      <c r="AS36" s="243"/>
-      <c r="AT36" s="244"/>
-      <c r="AU36" s="244"/>
-      <c r="AV36" s="244"/>
-      <c r="AW36" s="244"/>
-      <c r="AX36" s="244"/>
-      <c r="AY36" s="244"/>
-      <c r="AZ36" s="244"/>
-      <c r="BA36" s="244"/>
-      <c r="BB36" s="244"/>
-      <c r="BC36" s="244"/>
-      <c r="BD36" s="244"/>
-      <c r="BE36" s="243"/>
-      <c r="BF36" s="244"/>
-      <c r="BG36" s="244"/>
-      <c r="BH36" s="244"/>
-      <c r="BI36" s="244"/>
-      <c r="BJ36" s="244"/>
-      <c r="BK36" s="244"/>
-      <c r="BL36" s="244"/>
-      <c r="BM36" s="244"/>
+      <c r="AP36" s="203"/>
+      <c r="AQ36" s="204"/>
+      <c r="AR36" s="204"/>
+      <c r="AS36" s="205"/>
+      <c r="AT36" s="206"/>
+      <c r="AU36" s="206"/>
+      <c r="AV36" s="206"/>
+      <c r="AW36" s="206"/>
+      <c r="AX36" s="206"/>
+      <c r="AY36" s="206"/>
+      <c r="AZ36" s="206"/>
+      <c r="BA36" s="206"/>
+      <c r="BB36" s="206"/>
+      <c r="BC36" s="206"/>
+      <c r="BD36" s="206"/>
+      <c r="BE36" s="205"/>
+      <c r="BF36" s="206"/>
+      <c r="BG36" s="206"/>
+      <c r="BH36" s="206"/>
+      <c r="BI36" s="206"/>
+      <c r="BJ36" s="206"/>
+      <c r="BK36" s="206"/>
+      <c r="BL36" s="206"/>
+      <c r="BM36" s="206"/>
     </row>
     <row r="37" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP37" s="245"/>
-      <c r="AQ37" s="246"/>
-      <c r="AR37" s="246"/>
-      <c r="AS37" s="243"/>
-      <c r="AT37" s="244"/>
-      <c r="AU37" s="244"/>
-      <c r="AV37" s="244"/>
-      <c r="AW37" s="244"/>
-      <c r="AX37" s="244"/>
-      <c r="AY37" s="244"/>
-      <c r="AZ37" s="244"/>
-      <c r="BA37" s="244"/>
-      <c r="BB37" s="244"/>
-      <c r="BC37" s="244"/>
-      <c r="BD37" s="244"/>
-      <c r="BE37" s="243"/>
-      <c r="BF37" s="244"/>
-      <c r="BG37" s="244"/>
-      <c r="BH37" s="244"/>
-      <c r="BI37" s="244"/>
-      <c r="BJ37" s="244"/>
-      <c r="BK37" s="244"/>
-      <c r="BL37" s="244"/>
-      <c r="BM37" s="244"/>
+      <c r="AP37" s="203"/>
+      <c r="AQ37" s="204"/>
+      <c r="AR37" s="204"/>
+      <c r="AS37" s="205"/>
+      <c r="AT37" s="206"/>
+      <c r="AU37" s="206"/>
+      <c r="AV37" s="206"/>
+      <c r="AW37" s="206"/>
+      <c r="AX37" s="206"/>
+      <c r="AY37" s="206"/>
+      <c r="AZ37" s="206"/>
+      <c r="BA37" s="206"/>
+      <c r="BB37" s="206"/>
+      <c r="BC37" s="206"/>
+      <c r="BD37" s="206"/>
+      <c r="BE37" s="205"/>
+      <c r="BF37" s="206"/>
+      <c r="BG37" s="206"/>
+      <c r="BH37" s="206"/>
+      <c r="BI37" s="206"/>
+      <c r="BJ37" s="206"/>
+      <c r="BK37" s="206"/>
+      <c r="BL37" s="206"/>
+      <c r="BM37" s="206"/>
     </row>
     <row r="38" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP38" s="245"/>
-      <c r="AQ38" s="246"/>
-      <c r="AR38" s="246"/>
-      <c r="AS38" s="243"/>
-      <c r="AT38" s="244"/>
-      <c r="AU38" s="244"/>
-      <c r="AV38" s="244"/>
-      <c r="AW38" s="244"/>
-      <c r="AX38" s="244"/>
-      <c r="AY38" s="244"/>
-      <c r="AZ38" s="244"/>
-      <c r="BA38" s="244"/>
-      <c r="BB38" s="244"/>
-      <c r="BC38" s="244"/>
-      <c r="BD38" s="244"/>
-      <c r="BE38" s="243"/>
-      <c r="BF38" s="244"/>
-      <c r="BG38" s="244"/>
-      <c r="BH38" s="244"/>
-      <c r="BI38" s="244"/>
-      <c r="BJ38" s="244"/>
-      <c r="BK38" s="244"/>
-      <c r="BL38" s="244"/>
-      <c r="BM38" s="244"/>
+      <c r="AP38" s="203"/>
+      <c r="AQ38" s="204"/>
+      <c r="AR38" s="204"/>
+      <c r="AS38" s="205"/>
+      <c r="AT38" s="206"/>
+      <c r="AU38" s="206"/>
+      <c r="AV38" s="206"/>
+      <c r="AW38" s="206"/>
+      <c r="AX38" s="206"/>
+      <c r="AY38" s="206"/>
+      <c r="AZ38" s="206"/>
+      <c r="BA38" s="206"/>
+      <c r="BB38" s="206"/>
+      <c r="BC38" s="206"/>
+      <c r="BD38" s="206"/>
+      <c r="BE38" s="205"/>
+      <c r="BF38" s="206"/>
+      <c r="BG38" s="206"/>
+      <c r="BH38" s="206"/>
+      <c r="BI38" s="206"/>
+      <c r="BJ38" s="206"/>
+      <c r="BK38" s="206"/>
+      <c r="BL38" s="206"/>
+      <c r="BM38" s="206"/>
     </row>
     <row r="39" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP39" s="245"/>
-      <c r="AQ39" s="246"/>
-      <c r="AR39" s="246"/>
-      <c r="AS39" s="243"/>
-      <c r="AT39" s="150"/>
-      <c r="AU39" s="150"/>
-      <c r="AV39" s="150"/>
-      <c r="AW39" s="150"/>
-      <c r="AX39" s="150"/>
-      <c r="AY39" s="150"/>
-      <c r="AZ39" s="150"/>
-      <c r="BA39" s="150"/>
-      <c r="BB39" s="150"/>
-      <c r="BC39" s="150"/>
-      <c r="BD39" s="150"/>
-      <c r="BE39" s="243"/>
-      <c r="BF39" s="244"/>
-      <c r="BG39" s="244"/>
-      <c r="BH39" s="244"/>
-      <c r="BI39" s="244"/>
-      <c r="BJ39" s="244"/>
-      <c r="BK39" s="244"/>
-      <c r="BL39" s="244"/>
-      <c r="BM39" s="244"/>
+      <c r="AP39" s="203"/>
+      <c r="AQ39" s="204"/>
+      <c r="AR39" s="204"/>
+      <c r="AS39" s="205"/>
+      <c r="AT39" s="182"/>
+      <c r="AU39" s="182"/>
+      <c r="AV39" s="182"/>
+      <c r="AW39" s="182"/>
+      <c r="AX39" s="182"/>
+      <c r="AY39" s="182"/>
+      <c r="AZ39" s="182"/>
+      <c r="BA39" s="182"/>
+      <c r="BB39" s="182"/>
+      <c r="BC39" s="182"/>
+      <c r="BD39" s="182"/>
+      <c r="BE39" s="205"/>
+      <c r="BF39" s="206"/>
+      <c r="BG39" s="206"/>
+      <c r="BH39" s="206"/>
+      <c r="BI39" s="206"/>
+      <c r="BJ39" s="206"/>
+      <c r="BK39" s="206"/>
+      <c r="BL39" s="206"/>
+      <c r="BM39" s="206"/>
     </row>
     <row r="40" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP40" s="245"/>
-      <c r="AQ40" s="246"/>
-      <c r="AR40" s="246"/>
-      <c r="AS40" s="243"/>
-      <c r="AT40" s="244"/>
-      <c r="AU40" s="244"/>
-      <c r="AV40" s="244"/>
-      <c r="AW40" s="244"/>
-      <c r="AX40" s="244"/>
-      <c r="AY40" s="244"/>
-      <c r="AZ40" s="244"/>
-      <c r="BA40" s="244"/>
-      <c r="BB40" s="244"/>
-      <c r="BC40" s="244"/>
-      <c r="BD40" s="150"/>
-      <c r="BE40" s="243"/>
-      <c r="BF40" s="150"/>
-      <c r="BG40" s="150"/>
-      <c r="BH40" s="150"/>
-      <c r="BI40" s="150"/>
-      <c r="BJ40" s="150"/>
-      <c r="BK40" s="150"/>
-      <c r="BL40" s="150"/>
-      <c r="BM40" s="150"/>
+      <c r="AP40" s="203"/>
+      <c r="AQ40" s="204"/>
+      <c r="AR40" s="204"/>
+      <c r="AS40" s="205"/>
+      <c r="AT40" s="206"/>
+      <c r="AU40" s="206"/>
+      <c r="AV40" s="206"/>
+      <c r="AW40" s="206"/>
+      <c r="AX40" s="206"/>
+      <c r="AY40" s="206"/>
+      <c r="AZ40" s="206"/>
+      <c r="BA40" s="206"/>
+      <c r="BB40" s="206"/>
+      <c r="BC40" s="206"/>
+      <c r="BD40" s="182"/>
+      <c r="BE40" s="205"/>
+      <c r="BF40" s="182"/>
+      <c r="BG40" s="182"/>
+      <c r="BH40" s="182"/>
+      <c r="BI40" s="182"/>
+      <c r="BJ40" s="182"/>
+      <c r="BK40" s="182"/>
+      <c r="BL40" s="182"/>
+      <c r="BM40" s="182"/>
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="AP41" s="89"/>
@@ -11396,6 +11399,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:BD12"/>
+    <mergeCell ref="BE12:BM12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS13:BD13"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AS19:BD19"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="AP20:AR20"/>
+    <mergeCell ref="AS20:BD20"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AS21:BD21"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BE24:BM24"/>
+    <mergeCell ref="BE25:BM25"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="AP25:AR25"/>
+    <mergeCell ref="AS25:BD25"/>
+    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="AS26:BD26"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AS27:BD27"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="AS22:BD22"/>
+    <mergeCell ref="AP23:AR23"/>
+    <mergeCell ref="AS23:BD23"/>
+    <mergeCell ref="AP24:AR24"/>
+    <mergeCell ref="AS24:BD24"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AS31:BD31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AS32:BD32"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AS33:BD33"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AS28:BD28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AS29:BD29"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AS30:BD30"/>
     <mergeCell ref="AP40:AR40"/>
     <mergeCell ref="AS40:BD40"/>
     <mergeCell ref="BE40:BM40"/>
@@ -11420,113 +11530,6 @@
     <mergeCell ref="AP35:AR35"/>
     <mergeCell ref="AS35:BD35"/>
     <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AS31:BD31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AS32:BD32"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AS33:BD33"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AS28:BD28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AS29:BD29"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AS30:BD30"/>
-    <mergeCell ref="AP25:AR25"/>
-    <mergeCell ref="AS25:BD25"/>
-    <mergeCell ref="AP26:AR26"/>
-    <mergeCell ref="AS26:BD26"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AS27:BD27"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AS22:BD22"/>
-    <mergeCell ref="AP23:AR23"/>
-    <mergeCell ref="AS23:BD23"/>
-    <mergeCell ref="AP24:AR24"/>
-    <mergeCell ref="AS24:BD24"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BE24:BM24"/>
-    <mergeCell ref="BE25:BM25"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="AP19:AR19"/>
-    <mergeCell ref="AS19:BD19"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="AP20:AR20"/>
-    <mergeCell ref="AS20:BD20"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AS21:BD21"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:BD17"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:BD12"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11539,7 +11542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -11874,34 +11877,34 @@
       <c r="BN1" s="90"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -11928,32 +11931,32 @@
       <c r="BN2" s="90"/>
     </row>
     <row r="3" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -11980,164 +11983,164 @@
       <c r="BN3" s="90"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="253" t="s">
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="275" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="256" t="s">
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="257"/>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="257"/>
-      <c r="S4" s="257"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="259" t="s">
+      <c r="P4" s="279"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="279"/>
+      <c r="S4" s="279"/>
+      <c r="T4" s="280"/>
+      <c r="U4" s="281" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="260"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="260"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="260"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="260"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="260"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="275" t="s">
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="282"/>
+      <c r="AA4" s="282"/>
+      <c r="AB4" s="282"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="282"/>
+      <c r="AE4" s="282"/>
+      <c r="AF4" s="282"/>
+      <c r="AG4" s="282"/>
+      <c r="AH4" s="282"/>
+      <c r="AI4" s="282"/>
+      <c r="AJ4" s="282"/>
+      <c r="AK4" s="282"/>
+      <c r="AL4" s="282"/>
+      <c r="AM4" s="282"/>
+      <c r="AN4" s="282"/>
+      <c r="AO4" s="282"/>
+      <c r="AP4" s="282"/>
+      <c r="AQ4" s="282"/>
+      <c r="AR4" s="282"/>
+      <c r="AS4" s="282"/>
+      <c r="AT4" s="282"/>
+      <c r="AU4" s="282"/>
+      <c r="AV4" s="283"/>
+      <c r="AW4" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="276"/>
-      <c r="AY4" s="277"/>
-      <c r="AZ4" s="179">
+      <c r="AX4" s="253"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="172">
         <v>45447</v>
       </c>
-      <c r="BA4" s="278"/>
-      <c r="BB4" s="278"/>
-      <c r="BC4" s="278"/>
-      <c r="BD4" s="278"/>
-      <c r="BE4" s="278"/>
-      <c r="BF4" s="275" t="s">
+      <c r="BA4" s="255"/>
+      <c r="BB4" s="255"/>
+      <c r="BC4" s="255"/>
+      <c r="BD4" s="255"/>
+      <c r="BE4" s="255"/>
+      <c r="BF4" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="276"/>
-      <c r="BH4" s="277"/>
-      <c r="BI4" s="281" t="s">
+      <c r="BG4" s="253"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="261" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="282"/>
-      <c r="BK4" s="282"/>
-      <c r="BL4" s="282"/>
-      <c r="BM4" s="283"/>
+      <c r="BJ4" s="262"/>
+      <c r="BK4" s="262"/>
+      <c r="BL4" s="262"/>
+      <c r="BM4" s="263"/>
       <c r="BN4" s="90"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265" t="s">
+      <c r="B5" s="265"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="262" t="s">
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="268"/>
+      <c r="O5" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="264"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
-      <c r="AB5" s="268"/>
-      <c r="AC5" s="268"/>
-      <c r="AD5" s="268"/>
-      <c r="AE5" s="268"/>
-      <c r="AF5" s="268"/>
-      <c r="AG5" s="268"/>
-      <c r="AH5" s="268"/>
-      <c r="AI5" s="268"/>
-      <c r="AJ5" s="268"/>
-      <c r="AK5" s="268"/>
-      <c r="AL5" s="268"/>
-      <c r="AM5" s="268"/>
-      <c r="AN5" s="268"/>
-      <c r="AO5" s="268"/>
-      <c r="AP5" s="268"/>
-      <c r="AQ5" s="268"/>
-      <c r="AR5" s="268"/>
-      <c r="AS5" s="268"/>
-      <c r="AT5" s="268"/>
-      <c r="AU5" s="268"/>
-      <c r="AV5" s="269"/>
-      <c r="AW5" s="270" t="s">
+      <c r="P5" s="265"/>
+      <c r="Q5" s="265"/>
+      <c r="R5" s="265"/>
+      <c r="S5" s="265"/>
+      <c r="T5" s="266"/>
+      <c r="U5" s="269"/>
+      <c r="V5" s="270"/>
+      <c r="W5" s="270"/>
+      <c r="X5" s="270"/>
+      <c r="Y5" s="270"/>
+      <c r="Z5" s="270"/>
+      <c r="AA5" s="270"/>
+      <c r="AB5" s="270"/>
+      <c r="AC5" s="270"/>
+      <c r="AD5" s="270"/>
+      <c r="AE5" s="270"/>
+      <c r="AF5" s="270"/>
+      <c r="AG5" s="270"/>
+      <c r="AH5" s="270"/>
+      <c r="AI5" s="270"/>
+      <c r="AJ5" s="270"/>
+      <c r="AK5" s="270"/>
+      <c r="AL5" s="270"/>
+      <c r="AM5" s="270"/>
+      <c r="AN5" s="270"/>
+      <c r="AO5" s="270"/>
+      <c r="AP5" s="270"/>
+      <c r="AQ5" s="270"/>
+      <c r="AR5" s="270"/>
+      <c r="AS5" s="270"/>
+      <c r="AT5" s="270"/>
+      <c r="AU5" s="270"/>
+      <c r="AV5" s="271"/>
+      <c r="AW5" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="271"/>
-      <c r="AY5" s="272"/>
-      <c r="AZ5" s="271"/>
-      <c r="BA5" s="271"/>
-      <c r="BB5" s="271"/>
-      <c r="BC5" s="271"/>
-      <c r="BD5" s="271"/>
-      <c r="BE5" s="271"/>
-      <c r="BF5" s="270" t="s">
+      <c r="AX5" s="256"/>
+      <c r="AY5" s="258"/>
+      <c r="AZ5" s="256"/>
+      <c r="BA5" s="256"/>
+      <c r="BB5" s="256"/>
+      <c r="BC5" s="256"/>
+      <c r="BD5" s="256"/>
+      <c r="BE5" s="256"/>
+      <c r="BF5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="271"/>
-      <c r="BH5" s="272"/>
-      <c r="BI5" s="279"/>
-      <c r="BJ5" s="280"/>
-      <c r="BK5" s="280"/>
-      <c r="BL5" s="280"/>
+      <c r="BG5" s="256"/>
+      <c r="BH5" s="258"/>
+      <c r="BI5" s="259"/>
+      <c r="BJ5" s="260"/>
+      <c r="BK5" s="260"/>
+      <c r="BL5" s="260"/>
       <c r="BM5" s="91"/>
       <c r="BN5" s="90"/>
     </row>
@@ -12182,30 +12185,30 @@
       <c r="AL6" s="34"/>
       <c r="AM6" s="34"/>
       <c r="AN6" s="34"/>
-      <c r="AO6" s="273"/>
-      <c r="AP6" s="274"/>
-      <c r="AQ6" s="274"/>
-      <c r="AR6" s="273"/>
-      <c r="AS6" s="273"/>
-      <c r="AT6" s="273"/>
-      <c r="AU6" s="273"/>
-      <c r="AV6" s="273"/>
-      <c r="AW6" s="273"/>
-      <c r="AX6" s="273"/>
-      <c r="AY6" s="273"/>
-      <c r="AZ6" s="273"/>
-      <c r="BA6" s="273"/>
-      <c r="BB6" s="273"/>
-      <c r="BC6" s="273"/>
-      <c r="BD6" s="273"/>
-      <c r="BE6" s="274"/>
-      <c r="BF6" s="274"/>
-      <c r="BG6" s="274"/>
-      <c r="BH6" s="274"/>
-      <c r="BI6" s="274"/>
-      <c r="BJ6" s="274"/>
-      <c r="BK6" s="274"/>
-      <c r="BL6" s="274"/>
+      <c r="AO6" s="250"/>
+      <c r="AP6" s="251"/>
+      <c r="AQ6" s="251"/>
+      <c r="AR6" s="250"/>
+      <c r="AS6" s="250"/>
+      <c r="AT6" s="250"/>
+      <c r="AU6" s="250"/>
+      <c r="AV6" s="250"/>
+      <c r="AW6" s="250"/>
+      <c r="AX6" s="250"/>
+      <c r="AY6" s="250"/>
+      <c r="AZ6" s="250"/>
+      <c r="BA6" s="250"/>
+      <c r="BB6" s="250"/>
+      <c r="BC6" s="250"/>
+      <c r="BD6" s="250"/>
+      <c r="BE6" s="251"/>
+      <c r="BF6" s="251"/>
+      <c r="BG6" s="251"/>
+      <c r="BH6" s="251"/>
+      <c r="BI6" s="251"/>
+      <c r="BJ6" s="251"/>
+      <c r="BK6" s="251"/>
+      <c r="BL6" s="251"/>
       <c r="BM6" s="31"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12347,7 +12350,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E9" s="92"/>
       <c r="F9" s="39"/>
@@ -12613,7 +12616,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -12683,7 +12686,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -12752,7 +12755,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -13536,6 +13539,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AO6:AQ6"/>
     <mergeCell ref="AR6:BC6"/>
     <mergeCell ref="BD6:BL6"/>
@@ -13546,16 +13559,6 @@
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13566,8 +13569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ10" sqref="AQ10"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13779,35 +13782,35 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="190"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -13835,33 +13838,33 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="303"/>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="304"/>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="304"/>
-      <c r="W3" s="304"/>
-      <c r="X3" s="304"/>
-      <c r="Y3" s="304"/>
-      <c r="Z3" s="304"/>
-      <c r="AA3" s="304"/>
+      <c r="A3" s="327"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="328"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
+      <c r="T3" s="328"/>
+      <c r="U3" s="328"/>
+      <c r="V3" s="328"/>
+      <c r="W3" s="328"/>
+      <c r="X3" s="328"/>
+      <c r="Y3" s="328"/>
+      <c r="Z3" s="328"/>
+      <c r="AA3" s="328"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
       <c r="AD3" s="50"/>
@@ -13903,164 +13906,164 @@
       <c r="BN3" s="52"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="332" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="309"/>
-      <c r="I4" s="309"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="309"/>
-      <c r="N4" s="309"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="311" t="s">
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="333"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="335" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="312"/>
-      <c r="S4" s="312"/>
-      <c r="T4" s="312"/>
-      <c r="U4" s="313"/>
-      <c r="V4" s="314" t="s">
+      <c r="Q4" s="336"/>
+      <c r="R4" s="336"/>
+      <c r="S4" s="336"/>
+      <c r="T4" s="336"/>
+      <c r="U4" s="337"/>
+      <c r="V4" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="315"/>
-      <c r="X4" s="315"/>
-      <c r="Y4" s="315"/>
-      <c r="Z4" s="315"/>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315"/>
-      <c r="AC4" s="315"/>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="315"/>
-      <c r="AF4" s="315"/>
-      <c r="AG4" s="315"/>
-      <c r="AH4" s="315"/>
-      <c r="AI4" s="315"/>
-      <c r="AJ4" s="315"/>
-      <c r="AK4" s="315"/>
-      <c r="AL4" s="315"/>
-      <c r="AM4" s="315"/>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="315"/>
-      <c r="AP4" s="315"/>
-      <c r="AQ4" s="315"/>
-      <c r="AR4" s="315"/>
-      <c r="AS4" s="315"/>
-      <c r="AT4" s="315"/>
-      <c r="AU4" s="315"/>
-      <c r="AV4" s="316"/>
-      <c r="AW4" s="317" t="s">
+      <c r="W4" s="339"/>
+      <c r="X4" s="339"/>
+      <c r="Y4" s="339"/>
+      <c r="Z4" s="339"/>
+      <c r="AA4" s="339"/>
+      <c r="AB4" s="339"/>
+      <c r="AC4" s="339"/>
+      <c r="AD4" s="339"/>
+      <c r="AE4" s="339"/>
+      <c r="AF4" s="339"/>
+      <c r="AG4" s="339"/>
+      <c r="AH4" s="339"/>
+      <c r="AI4" s="339"/>
+      <c r="AJ4" s="339"/>
+      <c r="AK4" s="339"/>
+      <c r="AL4" s="339"/>
+      <c r="AM4" s="339"/>
+      <c r="AN4" s="339"/>
+      <c r="AO4" s="339"/>
+      <c r="AP4" s="339"/>
+      <c r="AQ4" s="339"/>
+      <c r="AR4" s="339"/>
+      <c r="AS4" s="339"/>
+      <c r="AT4" s="339"/>
+      <c r="AU4" s="339"/>
+      <c r="AV4" s="340"/>
+      <c r="AW4" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="318"/>
-      <c r="AY4" s="319"/>
-      <c r="AZ4" s="174">
+      <c r="AX4" s="323"/>
+      <c r="AY4" s="324"/>
+      <c r="AZ4" s="167">
         <v>45447</v>
       </c>
-      <c r="BA4" s="175"/>
-      <c r="BB4" s="175"/>
-      <c r="BC4" s="175"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="175"/>
-      <c r="BF4" s="317" t="s">
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="168"/>
+      <c r="BD4" s="168"/>
+      <c r="BE4" s="168"/>
+      <c r="BF4" s="322" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="318"/>
-      <c r="BH4" s="319"/>
-      <c r="BI4" s="204" t="s">
+      <c r="BG4" s="323"/>
+      <c r="BH4" s="324"/>
+      <c r="BI4" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="205"/>
-      <c r="BN4" s="206"/>
+      <c r="BJ4" s="247"/>
+      <c r="BK4" s="247"/>
+      <c r="BL4" s="247"/>
+      <c r="BM4" s="247"/>
+      <c r="BN4" s="248"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="262" t="s">
+      <c r="B5" s="265"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="268"/>
+      <c r="P5" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="264"/>
-      <c r="V5" s="267"/>
-      <c r="W5" s="320"/>
-      <c r="X5" s="320"/>
-      <c r="Y5" s="320"/>
-      <c r="Z5" s="320"/>
-      <c r="AA5" s="320"/>
-      <c r="AB5" s="320"/>
-      <c r="AC5" s="320"/>
-      <c r="AD5" s="320"/>
-      <c r="AE5" s="320"/>
-      <c r="AF5" s="320"/>
-      <c r="AG5" s="320"/>
-      <c r="AH5" s="320"/>
-      <c r="AI5" s="320"/>
-      <c r="AJ5" s="320"/>
-      <c r="AK5" s="320"/>
-      <c r="AL5" s="320"/>
-      <c r="AM5" s="320"/>
-      <c r="AN5" s="320"/>
-      <c r="AO5" s="320"/>
-      <c r="AP5" s="320"/>
-      <c r="AQ5" s="320"/>
-      <c r="AR5" s="320"/>
-      <c r="AS5" s="320"/>
-      <c r="AT5" s="320"/>
-      <c r="AU5" s="320"/>
-      <c r="AV5" s="321"/>
-      <c r="AW5" s="270" t="s">
+      <c r="Q5" s="265"/>
+      <c r="R5" s="265"/>
+      <c r="S5" s="265"/>
+      <c r="T5" s="265"/>
+      <c r="U5" s="266"/>
+      <c r="V5" s="269"/>
+      <c r="W5" s="325"/>
+      <c r="X5" s="325"/>
+      <c r="Y5" s="325"/>
+      <c r="Z5" s="325"/>
+      <c r="AA5" s="325"/>
+      <c r="AB5" s="325"/>
+      <c r="AC5" s="325"/>
+      <c r="AD5" s="325"/>
+      <c r="AE5" s="325"/>
+      <c r="AF5" s="325"/>
+      <c r="AG5" s="325"/>
+      <c r="AH5" s="325"/>
+      <c r="AI5" s="325"/>
+      <c r="AJ5" s="325"/>
+      <c r="AK5" s="325"/>
+      <c r="AL5" s="325"/>
+      <c r="AM5" s="325"/>
+      <c r="AN5" s="325"/>
+      <c r="AO5" s="325"/>
+      <c r="AP5" s="325"/>
+      <c r="AQ5" s="325"/>
+      <c r="AR5" s="325"/>
+      <c r="AS5" s="325"/>
+      <c r="AT5" s="325"/>
+      <c r="AU5" s="325"/>
+      <c r="AV5" s="326"/>
+      <c r="AW5" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="271"/>
-      <c r="AY5" s="272"/>
-      <c r="AZ5" s="271"/>
-      <c r="BA5" s="271"/>
-      <c r="BB5" s="271"/>
-      <c r="BC5" s="271"/>
-      <c r="BD5" s="271"/>
-      <c r="BE5" s="271"/>
-      <c r="BF5" s="270" t="s">
+      <c r="AX5" s="256"/>
+      <c r="AY5" s="258"/>
+      <c r="AZ5" s="256"/>
+      <c r="BA5" s="256"/>
+      <c r="BB5" s="256"/>
+      <c r="BC5" s="256"/>
+      <c r="BD5" s="256"/>
+      <c r="BE5" s="256"/>
+      <c r="BF5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="271"/>
-      <c r="BH5" s="272"/>
-      <c r="BI5" s="267"/>
-      <c r="BJ5" s="320"/>
-      <c r="BK5" s="320"/>
-      <c r="BL5" s="320"/>
-      <c r="BM5" s="320"/>
-      <c r="BN5" s="321"/>
+      <c r="BG5" s="256"/>
+      <c r="BH5" s="258"/>
+      <c r="BI5" s="269"/>
+      <c r="BJ5" s="325"/>
+      <c r="BK5" s="325"/>
+      <c r="BL5" s="325"/>
+      <c r="BM5" s="325"/>
+      <c r="BN5" s="326"/>
     </row>
     <row r="6" spans="1:66" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="53"/>
@@ -14131,166 +14134,166 @@
       <c r="BN6" s="65"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="341" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="323"/>
-      <c r="L7" s="323"/>
-      <c r="M7" s="323"/>
-      <c r="N7" s="323"/>
-      <c r="O7" s="323"/>
-      <c r="P7" s="323"/>
-      <c r="Q7" s="323"/>
-      <c r="R7" s="323"/>
-      <c r="S7" s="323"/>
-      <c r="T7" s="323"/>
-      <c r="U7" s="323"/>
-      <c r="V7" s="323"/>
-      <c r="W7" s="323"/>
-      <c r="X7" s="323"/>
-      <c r="Y7" s="323"/>
-      <c r="Z7" s="323"/>
-      <c r="AA7" s="323"/>
-      <c r="AB7" s="324"/>
-      <c r="AC7" s="322" t="s">
+      <c r="B7" s="342"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="342"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
+      <c r="M7" s="342"/>
+      <c r="N7" s="342"/>
+      <c r="O7" s="342"/>
+      <c r="P7" s="342"/>
+      <c r="Q7" s="342"/>
+      <c r="R7" s="342"/>
+      <c r="S7" s="342"/>
+      <c r="T7" s="342"/>
+      <c r="U7" s="342"/>
+      <c r="V7" s="342"/>
+      <c r="W7" s="342"/>
+      <c r="X7" s="342"/>
+      <c r="Y7" s="342"/>
+      <c r="Z7" s="342"/>
+      <c r="AA7" s="342"/>
+      <c r="AB7" s="343"/>
+      <c r="AC7" s="341" t="s">
         <v>25</v>
       </c>
-      <c r="AD7" s="323"/>
-      <c r="AE7" s="323"/>
-      <c r="AF7" s="323"/>
-      <c r="AG7" s="323"/>
-      <c r="AH7" s="323"/>
-      <c r="AI7" s="323"/>
-      <c r="AJ7" s="323"/>
-      <c r="AK7" s="323"/>
-      <c r="AL7" s="323"/>
-      <c r="AM7" s="323"/>
-      <c r="AN7" s="325"/>
-      <c r="AO7" s="326" t="s">
+      <c r="AD7" s="342"/>
+      <c r="AE7" s="342"/>
+      <c r="AF7" s="342"/>
+      <c r="AG7" s="342"/>
+      <c r="AH7" s="342"/>
+      <c r="AI7" s="342"/>
+      <c r="AJ7" s="342"/>
+      <c r="AK7" s="342"/>
+      <c r="AL7" s="342"/>
+      <c r="AM7" s="342"/>
+      <c r="AN7" s="344"/>
+      <c r="AO7" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="AP7" s="327"/>
-      <c r="AQ7" s="327"/>
-      <c r="AR7" s="327"/>
-      <c r="AS7" s="327"/>
-      <c r="AT7" s="327"/>
-      <c r="AU7" s="327"/>
-      <c r="AV7" s="327"/>
-      <c r="AW7" s="327"/>
-      <c r="AX7" s="327"/>
-      <c r="AY7" s="327"/>
-      <c r="AZ7" s="327"/>
-      <c r="BA7" s="327"/>
-      <c r="BB7" s="327"/>
-      <c r="BC7" s="327"/>
-      <c r="BD7" s="327"/>
-      <c r="BE7" s="327"/>
-      <c r="BF7" s="327"/>
-      <c r="BG7" s="327"/>
-      <c r="BH7" s="327"/>
-      <c r="BI7" s="327"/>
-      <c r="BJ7" s="327"/>
-      <c r="BK7" s="327"/>
-      <c r="BL7" s="328"/>
-      <c r="BM7" s="326"/>
-      <c r="BN7" s="332"/>
+      <c r="AP7" s="345"/>
+      <c r="AQ7" s="345"/>
+      <c r="AR7" s="345"/>
+      <c r="AS7" s="345"/>
+      <c r="AT7" s="345"/>
+      <c r="AU7" s="345"/>
+      <c r="AV7" s="345"/>
+      <c r="AW7" s="345"/>
+      <c r="AX7" s="345"/>
+      <c r="AY7" s="345"/>
+      <c r="AZ7" s="345"/>
+      <c r="BA7" s="345"/>
+      <c r="BB7" s="345"/>
+      <c r="BC7" s="345"/>
+      <c r="BD7" s="345"/>
+      <c r="BE7" s="345"/>
+      <c r="BF7" s="345"/>
+      <c r="BG7" s="345"/>
+      <c r="BH7" s="345"/>
+      <c r="BI7" s="345"/>
+      <c r="BJ7" s="345"/>
+      <c r="BK7" s="345"/>
+      <c r="BL7" s="346"/>
+      <c r="BM7" s="309"/>
+      <c r="BN7" s="310"/>
     </row>
     <row r="8" spans="1:66" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="335" t="s">
+      <c r="B8" s="313" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="336"/>
-      <c r="G8" s="336"/>
-      <c r="H8" s="336"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="336"/>
-      <c r="K8" s="336"/>
-      <c r="L8" s="337"/>
-      <c r="M8" s="338" t="s">
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="314"/>
+      <c r="H8" s="314"/>
+      <c r="I8" s="314"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="315"/>
+      <c r="M8" s="316" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="339"/>
-      <c r="O8" s="339"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="338" t="s">
+      <c r="N8" s="317"/>
+      <c r="O8" s="317"/>
+      <c r="P8" s="318"/>
+      <c r="Q8" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="340"/>
-      <c r="S8" s="338" t="s">
+      <c r="R8" s="318"/>
+      <c r="S8" s="316" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="340"/>
-      <c r="U8" s="338" t="s">
+      <c r="T8" s="318"/>
+      <c r="U8" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="340"/>
-      <c r="W8" s="338" t="s">
+      <c r="V8" s="318"/>
+      <c r="W8" s="316" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="340"/>
-      <c r="Y8" s="335" t="s">
+      <c r="X8" s="318"/>
+      <c r="Y8" s="313" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="341"/>
-      <c r="AC8" s="342" t="s">
+      <c r="Z8" s="314"/>
+      <c r="AA8" s="314"/>
+      <c r="AB8" s="319"/>
+      <c r="AC8" s="320" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="336"/>
-      <c r="AE8" s="336"/>
-      <c r="AF8" s="336"/>
-      <c r="AG8" s="337"/>
-      <c r="AH8" s="339" t="s">
+      <c r="AD8" s="314"/>
+      <c r="AE8" s="314"/>
+      <c r="AF8" s="314"/>
+      <c r="AG8" s="315"/>
+      <c r="AH8" s="317" t="s">
         <v>17</v>
       </c>
-      <c r="AI8" s="339"/>
-      <c r="AJ8" s="339"/>
-      <c r="AK8" s="339"/>
-      <c r="AL8" s="339"/>
-      <c r="AM8" s="339"/>
-      <c r="AN8" s="331"/>
-      <c r="AO8" s="329"/>
-      <c r="AP8" s="330"/>
-      <c r="AQ8" s="330"/>
-      <c r="AR8" s="330"/>
-      <c r="AS8" s="330"/>
-      <c r="AT8" s="330"/>
-      <c r="AU8" s="330"/>
-      <c r="AV8" s="330"/>
-      <c r="AW8" s="330"/>
-      <c r="AX8" s="330"/>
-      <c r="AY8" s="330"/>
-      <c r="AZ8" s="330"/>
-      <c r="BA8" s="330"/>
-      <c r="BB8" s="330"/>
-      <c r="BC8" s="330"/>
-      <c r="BD8" s="330"/>
-      <c r="BE8" s="330"/>
-      <c r="BF8" s="330"/>
-      <c r="BG8" s="330"/>
-      <c r="BH8" s="330"/>
-      <c r="BI8" s="330"/>
-      <c r="BJ8" s="330"/>
-      <c r="BK8" s="330"/>
-      <c r="BL8" s="331"/>
-      <c r="BM8" s="333"/>
-      <c r="BN8" s="334"/>
+      <c r="AI8" s="317"/>
+      <c r="AJ8" s="317"/>
+      <c r="AK8" s="317"/>
+      <c r="AL8" s="317"/>
+      <c r="AM8" s="317"/>
+      <c r="AN8" s="321"/>
+      <c r="AO8" s="347"/>
+      <c r="AP8" s="348"/>
+      <c r="AQ8" s="348"/>
+      <c r="AR8" s="348"/>
+      <c r="AS8" s="348"/>
+      <c r="AT8" s="348"/>
+      <c r="AU8" s="348"/>
+      <c r="AV8" s="348"/>
+      <c r="AW8" s="348"/>
+      <c r="AX8" s="348"/>
+      <c r="AY8" s="348"/>
+      <c r="AZ8" s="348"/>
+      <c r="BA8" s="348"/>
+      <c r="BB8" s="348"/>
+      <c r="BC8" s="348"/>
+      <c r="BD8" s="348"/>
+      <c r="BE8" s="348"/>
+      <c r="BF8" s="348"/>
+      <c r="BG8" s="348"/>
+      <c r="BH8" s="348"/>
+      <c r="BI8" s="348"/>
+      <c r="BJ8" s="348"/>
+      <c r="BK8" s="348"/>
+      <c r="BL8" s="321"/>
+      <c r="BM8" s="311"/>
+      <c r="BN8" s="312"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93">
@@ -14299,84 +14302,84 @@
       <c r="B9" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="299"/>
-      <c r="M9" s="292" t="s">
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="343" t="s">
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="349" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="344"/>
-      <c r="S9" s="345" t="s">
+      <c r="R9" s="350"/>
+      <c r="S9" s="351" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="346"/>
-      <c r="U9" s="347" t="s">
+      <c r="T9" s="352"/>
+      <c r="U9" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="348"/>
-      <c r="W9" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9" s="349"/>
-      <c r="Y9" s="292" t="s">
+      <c r="V9" s="354"/>
+      <c r="W9" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" s="355"/>
+      <c r="Y9" s="284" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="293"/>
-      <c r="AA9" s="293"/>
-      <c r="AB9" s="349"/>
-      <c r="AC9" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD9" s="285"/>
-      <c r="AE9" s="285"/>
-      <c r="AF9" s="285"/>
-      <c r="AG9" s="286"/>
-      <c r="AH9" s="287" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI9" s="288"/>
-      <c r="AJ9" s="288"/>
-      <c r="AK9" s="288"/>
-      <c r="AL9" s="288"/>
-      <c r="AM9" s="288"/>
-      <c r="AN9" s="289"/>
-      <c r="AO9" s="350"/>
-      <c r="AP9" s="351"/>
-      <c r="AQ9" s="351"/>
-      <c r="AR9" s="351"/>
-      <c r="AS9" s="351"/>
-      <c r="AT9" s="351"/>
-      <c r="AU9" s="351"/>
-      <c r="AV9" s="351"/>
-      <c r="AW9" s="351"/>
-      <c r="AX9" s="351"/>
-      <c r="AY9" s="351"/>
-      <c r="AZ9" s="351"/>
-      <c r="BA9" s="351"/>
-      <c r="BB9" s="351"/>
-      <c r="BC9" s="351"/>
-      <c r="BD9" s="351"/>
-      <c r="BE9" s="351"/>
-      <c r="BF9" s="351"/>
-      <c r="BG9" s="351"/>
-      <c r="BH9" s="351"/>
-      <c r="BI9" s="351"/>
-      <c r="BJ9" s="351"/>
-      <c r="BK9" s="351"/>
-      <c r="BL9" s="351"/>
+      <c r="Z9" s="285"/>
+      <c r="AA9" s="285"/>
+      <c r="AB9" s="355"/>
+      <c r="AC9" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD9" s="288"/>
+      <c r="AE9" s="288"/>
+      <c r="AF9" s="288"/>
+      <c r="AG9" s="289"/>
+      <c r="AH9" s="290" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI9" s="356"/>
+      <c r="AJ9" s="356"/>
+      <c r="AK9" s="356"/>
+      <c r="AL9" s="356"/>
+      <c r="AM9" s="356"/>
+      <c r="AN9" s="357"/>
+      <c r="AO9" s="358"/>
+      <c r="AP9" s="359"/>
+      <c r="AQ9" s="359"/>
+      <c r="AR9" s="359"/>
+      <c r="AS9" s="359"/>
+      <c r="AT9" s="359"/>
+      <c r="AU9" s="359"/>
+      <c r="AV9" s="359"/>
+      <c r="AW9" s="359"/>
+      <c r="AX9" s="359"/>
+      <c r="AY9" s="359"/>
+      <c r="AZ9" s="359"/>
+      <c r="BA9" s="359"/>
+      <c r="BB9" s="359"/>
+      <c r="BC9" s="359"/>
+      <c r="BD9" s="359"/>
+      <c r="BE9" s="359"/>
+      <c r="BF9" s="359"/>
+      <c r="BG9" s="359"/>
+      <c r="BH9" s="359"/>
+      <c r="BI9" s="359"/>
+      <c r="BJ9" s="359"/>
+      <c r="BK9" s="359"/>
+      <c r="BL9" s="359"/>
       <c r="BM9" s="66"/>
       <c r="BN9" s="67"/>
     </row>
@@ -14385,62 +14388,62 @@
         <v>2</v>
       </c>
       <c r="B10" s="210" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="299"/>
-      <c r="M10" s="292" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="284" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="285"/>
+      <c r="O10" s="285"/>
+      <c r="P10" s="286"/>
+      <c r="Q10" s="307" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="308"/>
+      <c r="S10" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="293"/>
-      <c r="O10" s="293"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="295" t="s">
+      <c r="T10" s="285"/>
+      <c r="U10" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V10" s="285"/>
+      <c r="W10" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" s="285"/>
+      <c r="Y10" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="296"/>
-      <c r="S10" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="293"/>
-      <c r="U10" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V10" s="293"/>
-      <c r="W10" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" s="293"/>
-      <c r="Y10" s="292" t="s">
+      <c r="Z10" s="285"/>
+      <c r="AA10" s="285"/>
+      <c r="AB10" s="286"/>
+      <c r="AC10" s="287" t="s">
         <v>64</v>
       </c>
-      <c r="Z10" s="293"/>
-      <c r="AA10" s="293"/>
-      <c r="AB10" s="294"/>
-      <c r="AC10" s="284" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD10" s="285"/>
-      <c r="AE10" s="285"/>
-      <c r="AF10" s="285"/>
-      <c r="AG10" s="286"/>
-      <c r="AH10" s="287" t="s">
+      <c r="AD10" s="288"/>
+      <c r="AE10" s="288"/>
+      <c r="AF10" s="288"/>
+      <c r="AG10" s="289"/>
+      <c r="AH10" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="AI10" s="288"/>
-      <c r="AJ10" s="288"/>
-      <c r="AK10" s="288"/>
-      <c r="AL10" s="288"/>
-      <c r="AM10" s="288"/>
-      <c r="AN10" s="289"/>
+      <c r="AI10" s="356"/>
+      <c r="AJ10" s="356"/>
+      <c r="AK10" s="356"/>
+      <c r="AL10" s="356"/>
+      <c r="AM10" s="356"/>
+      <c r="AN10" s="357"/>
       <c r="AO10" s="124"/>
       <c r="AP10" s="125"/>
       <c r="AQ10" s="125"/>
@@ -14473,62 +14476,62 @@
         <v>3</v>
       </c>
       <c r="B11" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="292" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="306"/>
+      <c r="M11" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="285"/>
+      <c r="O11" s="285"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="307">
+        <v>6</v>
+      </c>
+      <c r="R11" s="308"/>
+      <c r="S11" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="285"/>
+      <c r="U11" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V11" s="285"/>
+      <c r="W11" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" s="285"/>
+      <c r="Y11" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="285"/>
+      <c r="AA11" s="285"/>
+      <c r="AB11" s="286"/>
+      <c r="AC11" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD11" s="288"/>
+      <c r="AE11" s="288"/>
+      <c r="AF11" s="288"/>
+      <c r="AG11" s="289"/>
+      <c r="AH11" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="295">
-        <v>6</v>
-      </c>
-      <c r="R11" s="296"/>
-      <c r="S11" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="293"/>
-      <c r="U11" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V11" s="293"/>
-      <c r="W11" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X11" s="293"/>
-      <c r="Y11" s="292" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="293"/>
-      <c r="AA11" s="293"/>
-      <c r="AB11" s="294"/>
-      <c r="AC11" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="285"/>
-      <c r="AF11" s="285"/>
-      <c r="AG11" s="286"/>
-      <c r="AH11" s="287" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI11" s="290"/>
-      <c r="AJ11" s="290"/>
-      <c r="AK11" s="290"/>
-      <c r="AL11" s="290"/>
-      <c r="AM11" s="290"/>
-      <c r="AN11" s="291"/>
+      <c r="AI11" s="291"/>
+      <c r="AJ11" s="291"/>
+      <c r="AK11" s="291"/>
+      <c r="AL11" s="291"/>
+      <c r="AM11" s="291"/>
+      <c r="AN11" s="292"/>
       <c r="AO11" s="124"/>
       <c r="AP11" s="125"/>
       <c r="AQ11" s="125"/>
@@ -14561,62 +14564,62 @@
         <v>4</v>
       </c>
       <c r="B12" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="293"/>
-      <c r="O12" s="293"/>
-      <c r="P12" s="294"/>
-      <c r="Q12" s="295">
+        <v>89</v>
+      </c>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="285"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="286"/>
+      <c r="Q12" s="307">
         <v>15</v>
       </c>
-      <c r="R12" s="296"/>
-      <c r="S12" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="293"/>
-      <c r="U12" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V12" s="293"/>
-      <c r="W12" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X12" s="293"/>
-      <c r="Y12" s="292" t="s">
+      <c r="R12" s="308"/>
+      <c r="S12" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="285"/>
+      <c r="U12" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V12" s="285"/>
+      <c r="W12" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" s="285"/>
+      <c r="Y12" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="Z12" s="293"/>
-      <c r="AA12" s="293"/>
-      <c r="AB12" s="294"/>
-      <c r="AC12" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD12" s="285"/>
-      <c r="AE12" s="285"/>
-      <c r="AF12" s="285"/>
-      <c r="AG12" s="286"/>
-      <c r="AH12" s="287" t="s">
+      <c r="Z12" s="285"/>
+      <c r="AA12" s="285"/>
+      <c r="AB12" s="286"/>
+      <c r="AC12" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD12" s="288"/>
+      <c r="AE12" s="288"/>
+      <c r="AF12" s="288"/>
+      <c r="AG12" s="289"/>
+      <c r="AH12" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="AI12" s="290"/>
-      <c r="AJ12" s="290"/>
-      <c r="AK12" s="290"/>
-      <c r="AL12" s="290"/>
-      <c r="AM12" s="290"/>
-      <c r="AN12" s="291"/>
+      <c r="AI12" s="291"/>
+      <c r="AJ12" s="291"/>
+      <c r="AK12" s="291"/>
+      <c r="AL12" s="291"/>
+      <c r="AM12" s="291"/>
+      <c r="AN12" s="292"/>
       <c r="AO12" s="124"/>
       <c r="AP12" s="125"/>
       <c r="AQ12" s="125"/>
@@ -14649,62 +14652,62 @@
         <v>5</v>
       </c>
       <c r="B13" s="210" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="293"/>
-      <c r="O13" s="293"/>
-      <c r="P13" s="294"/>
-      <c r="Q13" s="295">
+        <v>90</v>
+      </c>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="306"/>
+      <c r="M13" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="285"/>
+      <c r="O13" s="285"/>
+      <c r="P13" s="286"/>
+      <c r="Q13" s="307">
         <v>3</v>
       </c>
-      <c r="R13" s="296"/>
-      <c r="S13" s="292" t="s">
+      <c r="R13" s="308"/>
+      <c r="S13" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="285"/>
+      <c r="U13" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="285"/>
+      <c r="W13" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" s="285"/>
+      <c r="Y13" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="285"/>
+      <c r="AA13" s="285"/>
+      <c r="AB13" s="286"/>
+      <c r="AC13" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD13" s="288"/>
+      <c r="AE13" s="288"/>
+      <c r="AF13" s="288"/>
+      <c r="AG13" s="289"/>
+      <c r="AH13" s="290" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="293"/>
-      <c r="U13" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V13" s="293"/>
-      <c r="W13" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X13" s="293"/>
-      <c r="Y13" s="292" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="293"/>
-      <c r="AA13" s="293"/>
-      <c r="AB13" s="294"/>
-      <c r="AC13" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD13" s="285"/>
-      <c r="AE13" s="285"/>
-      <c r="AF13" s="285"/>
-      <c r="AG13" s="286"/>
-      <c r="AH13" s="287" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI13" s="290"/>
-      <c r="AJ13" s="290"/>
-      <c r="AK13" s="290"/>
-      <c r="AL13" s="290"/>
-      <c r="AM13" s="290"/>
-      <c r="AN13" s="291"/>
+      <c r="AI13" s="291"/>
+      <c r="AJ13" s="291"/>
+      <c r="AK13" s="291"/>
+      <c r="AL13" s="291"/>
+      <c r="AM13" s="291"/>
+      <c r="AN13" s="292"/>
       <c r="AO13" s="124"/>
       <c r="AP13" s="125"/>
       <c r="AQ13" s="125"/>
@@ -14737,62 +14740,62 @@
         <v>6</v>
       </c>
       <c r="B14" s="210" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="293"/>
-      <c r="O14" s="293"/>
-      <c r="P14" s="294"/>
-      <c r="Q14" s="295">
+        <v>91</v>
+      </c>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="306"/>
+      <c r="M14" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="285"/>
+      <c r="O14" s="285"/>
+      <c r="P14" s="286"/>
+      <c r="Q14" s="307">
         <v>7</v>
       </c>
-      <c r="R14" s="296"/>
-      <c r="S14" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="293"/>
-      <c r="U14" s="292" t="s">
+      <c r="R14" s="308"/>
+      <c r="S14" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" s="285"/>
+      <c r="U14" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V14" s="285"/>
+      <c r="W14" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X14" s="285"/>
+      <c r="Y14" s="284" t="s">
         <v>115</v>
       </c>
-      <c r="V14" s="293"/>
-      <c r="W14" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X14" s="293"/>
-      <c r="Y14" s="292" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z14" s="293"/>
-      <c r="AA14" s="293"/>
-      <c r="AB14" s="294"/>
-      <c r="AC14" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD14" s="285"/>
-      <c r="AE14" s="285"/>
-      <c r="AF14" s="285"/>
-      <c r="AG14" s="286"/>
-      <c r="AH14" s="287" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI14" s="290"/>
-      <c r="AJ14" s="290"/>
-      <c r="AK14" s="290"/>
-      <c r="AL14" s="290"/>
-      <c r="AM14" s="290"/>
-      <c r="AN14" s="291"/>
+      <c r="Z14" s="285"/>
+      <c r="AA14" s="285"/>
+      <c r="AB14" s="286"/>
+      <c r="AC14" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD14" s="288"/>
+      <c r="AE14" s="288"/>
+      <c r="AF14" s="288"/>
+      <c r="AG14" s="289"/>
+      <c r="AH14" s="290" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI14" s="291"/>
+      <c r="AJ14" s="291"/>
+      <c r="AK14" s="291"/>
+      <c r="AL14" s="291"/>
+      <c r="AM14" s="291"/>
+      <c r="AN14" s="292"/>
       <c r="AO14" s="124"/>
       <c r="AP14" s="125"/>
       <c r="AQ14" s="125"/>
@@ -14825,62 +14828,62 @@
         <v>7</v>
       </c>
       <c r="B15" s="210" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="293"/>
-      <c r="O15" s="293"/>
-      <c r="P15" s="294"/>
-      <c r="Q15" s="295">
+        <v>92</v>
+      </c>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="306"/>
+      <c r="M15" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="285"/>
+      <c r="O15" s="285"/>
+      <c r="P15" s="286"/>
+      <c r="Q15" s="307">
         <v>4</v>
       </c>
-      <c r="R15" s="296"/>
-      <c r="S15" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" s="293"/>
-      <c r="U15" s="292" t="s">
+      <c r="R15" s="308"/>
+      <c r="S15" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="285"/>
+      <c r="U15" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" s="285"/>
+      <c r="W15" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" s="285"/>
+      <c r="Y15" s="284" t="s">
         <v>115</v>
       </c>
-      <c r="V15" s="293"/>
-      <c r="W15" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X15" s="293"/>
-      <c r="Y15" s="292" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z15" s="293"/>
-      <c r="AA15" s="293"/>
-      <c r="AB15" s="294"/>
-      <c r="AC15" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD15" s="285"/>
-      <c r="AE15" s="285"/>
-      <c r="AF15" s="285"/>
-      <c r="AG15" s="286"/>
-      <c r="AH15" s="287" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI15" s="290"/>
-      <c r="AJ15" s="290"/>
-      <c r="AK15" s="290"/>
-      <c r="AL15" s="290"/>
-      <c r="AM15" s="290"/>
-      <c r="AN15" s="291"/>
+      <c r="Z15" s="285"/>
+      <c r="AA15" s="285"/>
+      <c r="AB15" s="286"/>
+      <c r="AC15" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD15" s="288"/>
+      <c r="AE15" s="288"/>
+      <c r="AF15" s="288"/>
+      <c r="AG15" s="289"/>
+      <c r="AH15" s="290" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI15" s="291"/>
+      <c r="AJ15" s="291"/>
+      <c r="AK15" s="291"/>
+      <c r="AL15" s="291"/>
+      <c r="AM15" s="291"/>
+      <c r="AN15" s="292"/>
       <c r="AO15" s="124"/>
       <c r="AP15" s="125"/>
       <c r="AQ15" s="125"/>
@@ -14913,62 +14916,62 @@
         <v>8</v>
       </c>
       <c r="B16" s="210" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" s="293"/>
-      <c r="O16" s="293"/>
-      <c r="P16" s="294"/>
-      <c r="Q16" s="295">
+        <v>93</v>
+      </c>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="306"/>
+      <c r="M16" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="285"/>
+      <c r="O16" s="285"/>
+      <c r="P16" s="286"/>
+      <c r="Q16" s="307">
         <v>4</v>
       </c>
-      <c r="R16" s="296"/>
-      <c r="S16" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="293"/>
-      <c r="U16" s="292" t="s">
+      <c r="R16" s="308"/>
+      <c r="S16" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T16" s="285"/>
+      <c r="U16" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" s="285"/>
+      <c r="W16" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16" s="285"/>
+      <c r="Y16" s="284" t="s">
         <v>115</v>
       </c>
-      <c r="V16" s="293"/>
-      <c r="W16" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X16" s="293"/>
-      <c r="Y16" s="292" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z16" s="293"/>
-      <c r="AA16" s="293"/>
-      <c r="AB16" s="294"/>
-      <c r="AC16" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD16" s="285"/>
-      <c r="AE16" s="285"/>
-      <c r="AF16" s="285"/>
-      <c r="AG16" s="286"/>
-      <c r="AH16" s="287" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI16" s="290"/>
-      <c r="AJ16" s="290"/>
-      <c r="AK16" s="290"/>
-      <c r="AL16" s="290"/>
-      <c r="AM16" s="290"/>
-      <c r="AN16" s="291"/>
+      <c r="Z16" s="285"/>
+      <c r="AA16" s="285"/>
+      <c r="AB16" s="286"/>
+      <c r="AC16" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD16" s="288"/>
+      <c r="AE16" s="288"/>
+      <c r="AF16" s="288"/>
+      <c r="AG16" s="289"/>
+      <c r="AH16" s="290" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI16" s="291"/>
+      <c r="AJ16" s="291"/>
+      <c r="AK16" s="291"/>
+      <c r="AL16" s="291"/>
+      <c r="AM16" s="291"/>
+      <c r="AN16" s="292"/>
       <c r="AO16" s="124"/>
       <c r="AP16" s="125"/>
       <c r="AQ16" s="125"/>
@@ -15001,62 +15004,62 @@
         <v>9</v>
       </c>
       <c r="B17" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" s="293"/>
-      <c r="O17" s="293"/>
-      <c r="P17" s="294"/>
-      <c r="Q17" s="295">
+        <v>94</v>
+      </c>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="306"/>
+      <c r="M17" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="285"/>
+      <c r="O17" s="285"/>
+      <c r="P17" s="286"/>
+      <c r="Q17" s="307">
         <v>3</v>
       </c>
-      <c r="R17" s="296"/>
-      <c r="S17" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="293"/>
-      <c r="U17" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V17" s="293"/>
-      <c r="W17" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X17" s="293"/>
-      <c r="Y17" s="292" t="s">
+      <c r="R17" s="308"/>
+      <c r="S17" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T17" s="285"/>
+      <c r="U17" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" s="285"/>
+      <c r="W17" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" s="285"/>
+      <c r="Y17" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="Z17" s="293"/>
-      <c r="AA17" s="293"/>
-      <c r="AB17" s="294"/>
-      <c r="AC17" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD17" s="285"/>
-      <c r="AE17" s="285"/>
-      <c r="AF17" s="285"/>
-      <c r="AG17" s="286"/>
-      <c r="AH17" s="287" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI17" s="290"/>
-      <c r="AJ17" s="290"/>
-      <c r="AK17" s="290"/>
-      <c r="AL17" s="290"/>
-      <c r="AM17" s="290"/>
-      <c r="AN17" s="291"/>
+      <c r="Z17" s="285"/>
+      <c r="AA17" s="285"/>
+      <c r="AB17" s="286"/>
+      <c r="AC17" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD17" s="288"/>
+      <c r="AE17" s="288"/>
+      <c r="AF17" s="288"/>
+      <c r="AG17" s="289"/>
+      <c r="AH17" s="290" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI17" s="291"/>
+      <c r="AJ17" s="291"/>
+      <c r="AK17" s="291"/>
+      <c r="AL17" s="291"/>
+      <c r="AM17" s="291"/>
+      <c r="AN17" s="292"/>
       <c r="AO17" s="124"/>
       <c r="AP17" s="125"/>
       <c r="AQ17" s="125"/>
@@ -15089,62 +15092,62 @@
         <v>10</v>
       </c>
       <c r="B18" s="210" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="299"/>
-      <c r="M18" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" s="293"/>
-      <c r="O18" s="293"/>
-      <c r="P18" s="294"/>
-      <c r="Q18" s="295">
+        <v>95</v>
+      </c>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="306"/>
+      <c r="M18" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="285"/>
+      <c r="O18" s="285"/>
+      <c r="P18" s="286"/>
+      <c r="Q18" s="307">
         <v>2</v>
       </c>
-      <c r="R18" s="296"/>
-      <c r="S18" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T18" s="293"/>
-      <c r="U18" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V18" s="293"/>
-      <c r="W18" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X18" s="293"/>
-      <c r="Y18" s="292" t="s">
+      <c r="R18" s="308"/>
+      <c r="S18" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="285"/>
+      <c r="U18" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V18" s="285"/>
+      <c r="W18" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X18" s="285"/>
+      <c r="Y18" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="Z18" s="293"/>
-      <c r="AA18" s="293"/>
-      <c r="AB18" s="294"/>
-      <c r="AC18" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD18" s="285"/>
-      <c r="AE18" s="285"/>
-      <c r="AF18" s="285"/>
-      <c r="AG18" s="286"/>
-      <c r="AH18" s="287" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI18" s="290"/>
-      <c r="AJ18" s="290"/>
-      <c r="AK18" s="290"/>
-      <c r="AL18" s="290"/>
-      <c r="AM18" s="290"/>
-      <c r="AN18" s="291"/>
+      <c r="Z18" s="285"/>
+      <c r="AA18" s="285"/>
+      <c r="AB18" s="286"/>
+      <c r="AC18" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD18" s="288"/>
+      <c r="AE18" s="288"/>
+      <c r="AF18" s="288"/>
+      <c r="AG18" s="289"/>
+      <c r="AH18" s="290" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI18" s="291"/>
+      <c r="AJ18" s="291"/>
+      <c r="AK18" s="291"/>
+      <c r="AL18" s="291"/>
+      <c r="AM18" s="291"/>
+      <c r="AN18" s="292"/>
       <c r="AO18" s="124"/>
       <c r="AP18" s="125"/>
       <c r="AQ18" s="125"/>
@@ -15177,62 +15180,62 @@
         <v>11</v>
       </c>
       <c r="B19" s="210" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="294"/>
-      <c r="Q19" s="295">
+        <v>96</v>
+      </c>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="306"/>
+      <c r="M19" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="285"/>
+      <c r="O19" s="285"/>
+      <c r="P19" s="286"/>
+      <c r="Q19" s="307">
         <v>2</v>
       </c>
-      <c r="R19" s="296"/>
-      <c r="S19" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T19" s="293"/>
-      <c r="U19" s="292" t="s">
-        <v>115</v>
-      </c>
-      <c r="V19" s="293"/>
-      <c r="W19" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X19" s="293"/>
-      <c r="Y19" s="292" t="s">
+      <c r="R19" s="308"/>
+      <c r="S19" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" s="285"/>
+      <c r="U19" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V19" s="285"/>
+      <c r="W19" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X19" s="285"/>
+      <c r="Y19" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="Z19" s="293"/>
-      <c r="AA19" s="293"/>
-      <c r="AB19" s="294"/>
-      <c r="AC19" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD19" s="285"/>
-      <c r="AE19" s="285"/>
-      <c r="AF19" s="285"/>
-      <c r="AG19" s="286"/>
-      <c r="AH19" s="287" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI19" s="290"/>
-      <c r="AJ19" s="290"/>
-      <c r="AK19" s="290"/>
-      <c r="AL19" s="290"/>
-      <c r="AM19" s="290"/>
-      <c r="AN19" s="291"/>
+      <c r="Z19" s="285"/>
+      <c r="AA19" s="285"/>
+      <c r="AB19" s="286"/>
+      <c r="AC19" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD19" s="288"/>
+      <c r="AE19" s="288"/>
+      <c r="AF19" s="288"/>
+      <c r="AG19" s="289"/>
+      <c r="AH19" s="290" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI19" s="291"/>
+      <c r="AJ19" s="291"/>
+      <c r="AK19" s="291"/>
+      <c r="AL19" s="291"/>
+      <c r="AM19" s="291"/>
+      <c r="AN19" s="292"/>
       <c r="AO19" s="124"/>
       <c r="AP19" s="125"/>
       <c r="AQ19" s="125"/>
@@ -15267,60 +15270,60 @@
       <c r="B20" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="299"/>
-      <c r="M20" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" s="293"/>
-      <c r="O20" s="293"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="295">
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="306"/>
+      <c r="M20" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="285"/>
+      <c r="O20" s="285"/>
+      <c r="P20" s="286"/>
+      <c r="Q20" s="307">
         <v>5</v>
       </c>
-      <c r="R20" s="296"/>
-      <c r="S20" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T20" s="293"/>
-      <c r="U20" s="292" t="s">
+      <c r="R20" s="308"/>
+      <c r="S20" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="285"/>
+      <c r="U20" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="285"/>
+      <c r="W20" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20" s="285"/>
+      <c r="Y20" s="284" t="s">
         <v>115</v>
       </c>
-      <c r="V20" s="293"/>
-      <c r="W20" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X20" s="293"/>
-      <c r="Y20" s="292" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z20" s="293"/>
-      <c r="AA20" s="293"/>
-      <c r="AB20" s="294"/>
-      <c r="AC20" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD20" s="285"/>
-      <c r="AE20" s="285"/>
-      <c r="AF20" s="285"/>
-      <c r="AG20" s="286"/>
-      <c r="AH20" s="287" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI20" s="290"/>
-      <c r="AJ20" s="290"/>
-      <c r="AK20" s="290"/>
-      <c r="AL20" s="290"/>
-      <c r="AM20" s="290"/>
-      <c r="AN20" s="291"/>
+      <c r="Z20" s="285"/>
+      <c r="AA20" s="285"/>
+      <c r="AB20" s="286"/>
+      <c r="AC20" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD20" s="288"/>
+      <c r="AE20" s="288"/>
+      <c r="AF20" s="288"/>
+      <c r="AG20" s="289"/>
+      <c r="AH20" s="290" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI20" s="291"/>
+      <c r="AJ20" s="291"/>
+      <c r="AK20" s="291"/>
+      <c r="AL20" s="291"/>
+      <c r="AM20" s="291"/>
+      <c r="AN20" s="292"/>
       <c r="AO20" s="124"/>
       <c r="AP20" s="125"/>
       <c r="AQ20" s="125"/>
@@ -15355,60 +15358,60 @@
       <c r="B21" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="299"/>
-      <c r="M21" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="294"/>
-      <c r="Q21" s="295">
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="306"/>
+      <c r="M21" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="285"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="307">
         <v>5</v>
       </c>
-      <c r="R21" s="296"/>
-      <c r="S21" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="293"/>
-      <c r="U21" s="292" t="s">
+      <c r="R21" s="308"/>
+      <c r="S21" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="285"/>
+      <c r="U21" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="293"/>
-      <c r="W21" s="292" t="s">
-        <v>116</v>
-      </c>
-      <c r="X21" s="293"/>
-      <c r="Y21" s="292" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z21" s="293"/>
-      <c r="AA21" s="293"/>
-      <c r="AB21" s="294"/>
-      <c r="AC21" s="284" t="s">
+      <c r="V21" s="285"/>
+      <c r="W21" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="AD21" s="285"/>
-      <c r="AE21" s="285"/>
-      <c r="AF21" s="285"/>
-      <c r="AG21" s="286"/>
-      <c r="AH21" s="287" t="s">
+      <c r="X21" s="285"/>
+      <c r="Y21" s="284" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z21" s="285"/>
+      <c r="AA21" s="285"/>
+      <c r="AB21" s="286"/>
+      <c r="AC21" s="287" t="s">
         <v>112</v>
       </c>
-      <c r="AI21" s="290"/>
-      <c r="AJ21" s="290"/>
-      <c r="AK21" s="290"/>
-      <c r="AL21" s="290"/>
-      <c r="AM21" s="290"/>
-      <c r="AN21" s="291"/>
+      <c r="AD21" s="288"/>
+      <c r="AE21" s="288"/>
+      <c r="AF21" s="288"/>
+      <c r="AG21" s="289"/>
+      <c r="AH21" s="290" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI21" s="291"/>
+      <c r="AJ21" s="291"/>
+      <c r="AK21" s="291"/>
+      <c r="AL21" s="291"/>
+      <c r="AM21" s="291"/>
+      <c r="AN21" s="292"/>
       <c r="AO21" s="124"/>
       <c r="AP21" s="125"/>
       <c r="AQ21" s="125"/>
@@ -15441,64 +15444,64 @@
         <v>14</v>
       </c>
       <c r="B22" s="210" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="306"/>
+      <c r="M22" s="284" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="299"/>
-      <c r="M22" s="292" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" s="293"/>
-      <c r="O22" s="293"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="295">
+      <c r="N22" s="285"/>
+      <c r="O22" s="285"/>
+      <c r="P22" s="286"/>
+      <c r="Q22" s="307">
         <v>7</v>
       </c>
-      <c r="R22" s="296">
+      <c r="R22" s="308">
         <v>10</v>
       </c>
-      <c r="S22" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="T22" s="293"/>
-      <c r="U22" s="292" t="s">
+      <c r="S22" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="285"/>
+      <c r="U22" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="293"/>
-      <c r="W22" s="292" t="s">
+      <c r="V22" s="285"/>
+      <c r="W22" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="293"/>
-      <c r="Y22" s="292" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z22" s="293"/>
-      <c r="AA22" s="293"/>
-      <c r="AB22" s="294"/>
-      <c r="AC22" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD22" s="285"/>
-      <c r="AE22" s="285"/>
-      <c r="AF22" s="285"/>
-      <c r="AG22" s="286"/>
-      <c r="AH22" s="287" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI22" s="290"/>
-      <c r="AJ22" s="290"/>
-      <c r="AK22" s="290"/>
-      <c r="AL22" s="290"/>
-      <c r="AM22" s="290"/>
-      <c r="AN22" s="291"/>
+      <c r="X22" s="285"/>
+      <c r="Y22" s="284" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z22" s="285"/>
+      <c r="AA22" s="285"/>
+      <c r="AB22" s="286"/>
+      <c r="AC22" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD22" s="288"/>
+      <c r="AE22" s="288"/>
+      <c r="AF22" s="288"/>
+      <c r="AG22" s="289"/>
+      <c r="AH22" s="290" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI22" s="291"/>
+      <c r="AJ22" s="291"/>
+      <c r="AK22" s="291"/>
+      <c r="AL22" s="291"/>
+      <c r="AM22" s="291"/>
+      <c r="AN22" s="292"/>
       <c r="AO22" s="124"/>
       <c r="AP22" s="125"/>
       <c r="AQ22" s="125"/>
@@ -15529,44 +15532,44 @@
     <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="93"/>
       <c r="B23" s="210"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="299"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="293"/>
-      <c r="O23" s="293"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="295"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="292"/>
-      <c r="T23" s="293"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="293"/>
-      <c r="W23" s="292"/>
-      <c r="X23" s="293"/>
-      <c r="Y23" s="292"/>
-      <c r="Z23" s="293"/>
-      <c r="AA23" s="293"/>
-      <c r="AB23" s="294"/>
-      <c r="AC23" s="284"/>
-      <c r="AD23" s="285"/>
-      <c r="AE23" s="285"/>
-      <c r="AF23" s="285"/>
-      <c r="AG23" s="286"/>
-      <c r="AH23" s="287"/>
-      <c r="AI23" s="290"/>
-      <c r="AJ23" s="290"/>
-      <c r="AK23" s="290"/>
-      <c r="AL23" s="290"/>
-      <c r="AM23" s="290"/>
-      <c r="AN23" s="291"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="306"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="285"/>
+      <c r="O23" s="285"/>
+      <c r="P23" s="286"/>
+      <c r="Q23" s="307"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="284"/>
+      <c r="T23" s="285"/>
+      <c r="U23" s="284"/>
+      <c r="V23" s="285"/>
+      <c r="W23" s="284"/>
+      <c r="X23" s="285"/>
+      <c r="Y23" s="284"/>
+      <c r="Z23" s="285"/>
+      <c r="AA23" s="285"/>
+      <c r="AB23" s="286"/>
+      <c r="AC23" s="287"/>
+      <c r="AD23" s="288"/>
+      <c r="AE23" s="288"/>
+      <c r="AF23" s="288"/>
+      <c r="AG23" s="289"/>
+      <c r="AH23" s="290"/>
+      <c r="AI23" s="291"/>
+      <c r="AJ23" s="291"/>
+      <c r="AK23" s="291"/>
+      <c r="AL23" s="291"/>
+      <c r="AM23" s="291"/>
+      <c r="AN23" s="292"/>
       <c r="AO23" s="124"/>
       <c r="AP23" s="125"/>
       <c r="AQ23" s="125"/>
@@ -15597,44 +15600,44 @@
     <row r="24" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="93"/>
       <c r="B24" s="210"/>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="299"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="293"/>
-      <c r="O24" s="293"/>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="295"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="292"/>
-      <c r="T24" s="293"/>
-      <c r="U24" s="292"/>
-      <c r="V24" s="293"/>
-      <c r="W24" s="292"/>
-      <c r="X24" s="293"/>
-      <c r="Y24" s="292"/>
-      <c r="Z24" s="293"/>
-      <c r="AA24" s="293"/>
-      <c r="AB24" s="294"/>
-      <c r="AC24" s="284"/>
-      <c r="AD24" s="285"/>
-      <c r="AE24" s="285"/>
-      <c r="AF24" s="285"/>
-      <c r="AG24" s="286"/>
-      <c r="AH24" s="287"/>
-      <c r="AI24" s="290"/>
-      <c r="AJ24" s="290"/>
-      <c r="AK24" s="290"/>
-      <c r="AL24" s="290"/>
-      <c r="AM24" s="290"/>
-      <c r="AN24" s="291"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="306"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="285"/>
+      <c r="O24" s="285"/>
+      <c r="P24" s="286"/>
+      <c r="Q24" s="307"/>
+      <c r="R24" s="308"/>
+      <c r="S24" s="284"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="284"/>
+      <c r="V24" s="285"/>
+      <c r="W24" s="284"/>
+      <c r="X24" s="285"/>
+      <c r="Y24" s="284"/>
+      <c r="Z24" s="285"/>
+      <c r="AA24" s="285"/>
+      <c r="AB24" s="286"/>
+      <c r="AC24" s="287"/>
+      <c r="AD24" s="288"/>
+      <c r="AE24" s="288"/>
+      <c r="AF24" s="288"/>
+      <c r="AG24" s="289"/>
+      <c r="AH24" s="290"/>
+      <c r="AI24" s="291"/>
+      <c r="AJ24" s="291"/>
+      <c r="AK24" s="291"/>
+      <c r="AL24" s="291"/>
+      <c r="AM24" s="291"/>
+      <c r="AN24" s="292"/>
       <c r="AO24" s="124"/>
       <c r="AP24" s="125"/>
       <c r="AQ24" s="125"/>
@@ -15665,44 +15668,44 @@
     <row r="25" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A25" s="93"/>
       <c r="B25" s="210"/>
-      <c r="C25" s="234"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="234"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="295"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="292"/>
-      <c r="T25" s="293"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="293"/>
-      <c r="W25" s="292"/>
-      <c r="X25" s="293"/>
-      <c r="Y25" s="292"/>
-      <c r="Z25" s="293"/>
-      <c r="AA25" s="293"/>
-      <c r="AB25" s="294"/>
-      <c r="AC25" s="284"/>
-      <c r="AD25" s="285"/>
-      <c r="AE25" s="285"/>
-      <c r="AF25" s="285"/>
-      <c r="AG25" s="286"/>
-      <c r="AH25" s="287"/>
-      <c r="AI25" s="290"/>
-      <c r="AJ25" s="290"/>
-      <c r="AK25" s="290"/>
-      <c r="AL25" s="290"/>
-      <c r="AM25" s="290"/>
-      <c r="AN25" s="291"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="306"/>
+      <c r="M25" s="284"/>
+      <c r="N25" s="285"/>
+      <c r="O25" s="285"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="307"/>
+      <c r="R25" s="308"/>
+      <c r="S25" s="284"/>
+      <c r="T25" s="285"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="285"/>
+      <c r="W25" s="284"/>
+      <c r="X25" s="285"/>
+      <c r="Y25" s="284"/>
+      <c r="Z25" s="285"/>
+      <c r="AA25" s="285"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="287"/>
+      <c r="AD25" s="288"/>
+      <c r="AE25" s="288"/>
+      <c r="AF25" s="288"/>
+      <c r="AG25" s="289"/>
+      <c r="AH25" s="290"/>
+      <c r="AI25" s="291"/>
+      <c r="AJ25" s="291"/>
+      <c r="AK25" s="291"/>
+      <c r="AL25" s="291"/>
+      <c r="AM25" s="291"/>
+      <c r="AN25" s="292"/>
       <c r="AO25" s="124"/>
       <c r="AP25" s="125"/>
       <c r="AQ25" s="125"/>
@@ -15733,44 +15736,44 @@
     <row r="26" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A26" s="93"/>
       <c r="B26" s="210"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="299"/>
-      <c r="M26" s="292"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="294"/>
-      <c r="Q26" s="295"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="292"/>
-      <c r="T26" s="293"/>
-      <c r="U26" s="292"/>
-      <c r="V26" s="293"/>
-      <c r="W26" s="292"/>
-      <c r="X26" s="293"/>
-      <c r="Y26" s="292"/>
-      <c r="Z26" s="293"/>
-      <c r="AA26" s="293"/>
-      <c r="AB26" s="294"/>
-      <c r="AC26" s="284"/>
-      <c r="AD26" s="285"/>
-      <c r="AE26" s="285"/>
-      <c r="AF26" s="285"/>
-      <c r="AG26" s="286"/>
-      <c r="AH26" s="287"/>
-      <c r="AI26" s="290"/>
-      <c r="AJ26" s="290"/>
-      <c r="AK26" s="290"/>
-      <c r="AL26" s="290"/>
-      <c r="AM26" s="290"/>
-      <c r="AN26" s="291"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="223"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="306"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="285"/>
+      <c r="O26" s="285"/>
+      <c r="P26" s="286"/>
+      <c r="Q26" s="307"/>
+      <c r="R26" s="308"/>
+      <c r="S26" s="284"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="284"/>
+      <c r="V26" s="285"/>
+      <c r="W26" s="284"/>
+      <c r="X26" s="285"/>
+      <c r="Y26" s="284"/>
+      <c r="Z26" s="285"/>
+      <c r="AA26" s="285"/>
+      <c r="AB26" s="286"/>
+      <c r="AC26" s="287"/>
+      <c r="AD26" s="288"/>
+      <c r="AE26" s="288"/>
+      <c r="AF26" s="288"/>
+      <c r="AG26" s="289"/>
+      <c r="AH26" s="290"/>
+      <c r="AI26" s="291"/>
+      <c r="AJ26" s="291"/>
+      <c r="AK26" s="291"/>
+      <c r="AL26" s="291"/>
+      <c r="AM26" s="291"/>
+      <c r="AN26" s="292"/>
       <c r="AO26" s="124"/>
       <c r="AP26" s="125"/>
       <c r="AQ26" s="125"/>
@@ -15800,45 +15803,45 @@
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A27" s="123"/>
-      <c r="B27" s="300"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="301"/>
-      <c r="J27" s="301"/>
-      <c r="K27" s="301"/>
-      <c r="L27" s="302"/>
-      <c r="M27" s="356"/>
-      <c r="N27" s="358"/>
-      <c r="O27" s="358"/>
-      <c r="P27" s="358"/>
-      <c r="Q27" s="297"/>
-      <c r="R27" s="298"/>
-      <c r="S27" s="352"/>
-      <c r="T27" s="353"/>
-      <c r="U27" s="354"/>
-      <c r="V27" s="355"/>
-      <c r="W27" s="356"/>
-      <c r="X27" s="357"/>
-      <c r="Y27" s="356"/>
-      <c r="Z27" s="358"/>
-      <c r="AA27" s="358"/>
-      <c r="AB27" s="357"/>
-      <c r="AC27" s="359"/>
-      <c r="AD27" s="360"/>
-      <c r="AE27" s="360"/>
-      <c r="AF27" s="360"/>
-      <c r="AG27" s="361"/>
-      <c r="AH27" s="362"/>
-      <c r="AI27" s="363"/>
-      <c r="AJ27" s="363"/>
-      <c r="AK27" s="363"/>
-      <c r="AL27" s="363"/>
-      <c r="AM27" s="363"/>
-      <c r="AN27" s="364"/>
+      <c r="B27" s="360"/>
+      <c r="C27" s="361"/>
+      <c r="D27" s="361"/>
+      <c r="E27" s="361"/>
+      <c r="F27" s="361"/>
+      <c r="G27" s="361"/>
+      <c r="H27" s="361"/>
+      <c r="I27" s="361"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="361"/>
+      <c r="L27" s="362"/>
+      <c r="M27" s="297"/>
+      <c r="N27" s="299"/>
+      <c r="O27" s="299"/>
+      <c r="P27" s="299"/>
+      <c r="Q27" s="363"/>
+      <c r="R27" s="364"/>
+      <c r="S27" s="293"/>
+      <c r="T27" s="294"/>
+      <c r="U27" s="295"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="297"/>
+      <c r="X27" s="298"/>
+      <c r="Y27" s="297"/>
+      <c r="Z27" s="299"/>
+      <c r="AA27" s="299"/>
+      <c r="AB27" s="298"/>
+      <c r="AC27" s="300"/>
+      <c r="AD27" s="301"/>
+      <c r="AE27" s="301"/>
+      <c r="AF27" s="301"/>
+      <c r="AG27" s="302"/>
+      <c r="AH27" s="303"/>
+      <c r="AI27" s="304"/>
+      <c r="AJ27" s="304"/>
+      <c r="AK27" s="304"/>
+      <c r="AL27" s="304"/>
+      <c r="AM27" s="304"/>
+      <c r="AN27" s="305"/>
       <c r="AO27" s="126"/>
       <c r="AP27" s="127"/>
       <c r="AQ27" s="127"/>
@@ -15868,80 +15871,107 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="AH27:AN27"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AH26:AN26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="AH22:AN22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AG23"/>
-    <mergeCell ref="AH23:AN23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AG21"/>
-    <mergeCell ref="AH21:AN21"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AG20"/>
-    <mergeCell ref="AH20:AN20"/>
-    <mergeCell ref="BM7:BN8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="AH19:AN19"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:L21"/>
@@ -15965,111 +15995,84 @@
     <mergeCell ref="AH9:AN9"/>
     <mergeCell ref="AO9:BL9"/>
     <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AG25"/>
     <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AG21"/>
+    <mergeCell ref="AH21:AN21"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="AH20:AN20"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="AH22:AN22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AG23"/>
+    <mergeCell ref="AH23:AN23"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AG24"/>
+    <mergeCell ref="AH24:AN24"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="AH27:AN27"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AH26:AN26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="AH25:AN25"/>
     <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="AH19:AN19"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AC18:AG18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16294,35 +16297,35 @@
       <c r="BN1" s="97"/>
     </row>
     <row r="2" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="404" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
-      <c r="N2" s="366"/>
-      <c r="O2" s="366"/>
-      <c r="P2" s="366"/>
-      <c r="Q2" s="366"/>
-      <c r="R2" s="366"/>
-      <c r="S2" s="366"/>
-      <c r="T2" s="366"/>
-      <c r="U2" s="366"/>
-      <c r="V2" s="366"/>
-      <c r="W2" s="366"/>
-      <c r="X2" s="366"/>
-      <c r="Y2" s="366"/>
-      <c r="Z2" s="366"/>
-      <c r="AA2" s="366"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="405"/>
+      <c r="P2" s="405"/>
+      <c r="Q2" s="405"/>
+      <c r="R2" s="405"/>
+      <c r="S2" s="405"/>
+      <c r="T2" s="405"/>
+      <c r="U2" s="405"/>
+      <c r="V2" s="405"/>
+      <c r="W2" s="405"/>
+      <c r="X2" s="405"/>
+      <c r="Y2" s="405"/>
+      <c r="Z2" s="405"/>
+      <c r="AA2" s="405"/>
       <c r="AP2" s="99"/>
       <c r="AQ2" s="99"/>
       <c r="AR2" s="99"/>
@@ -16350,33 +16353,33 @@
       <c r="BN2" s="101"/>
     </row>
     <row r="3" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="A3" s="367"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="368"/>
-      <c r="I3" s="368"/>
-      <c r="J3" s="368"/>
-      <c r="K3" s="368"/>
-      <c r="L3" s="368"/>
-      <c r="M3" s="368"/>
-      <c r="N3" s="368"/>
-      <c r="O3" s="368"/>
-      <c r="P3" s="368"/>
-      <c r="Q3" s="368"/>
-      <c r="R3" s="368"/>
-      <c r="S3" s="368"/>
-      <c r="T3" s="368"/>
-      <c r="U3" s="368"/>
-      <c r="V3" s="368"/>
-      <c r="W3" s="368"/>
-      <c r="X3" s="368"/>
-      <c r="Y3" s="368"/>
-      <c r="Z3" s="368"/>
-      <c r="AA3" s="368"/>
+      <c r="A3" s="406"/>
+      <c r="B3" s="407"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="407"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="407"/>
+      <c r="I3" s="407"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
+      <c r="N3" s="407"/>
+      <c r="O3" s="407"/>
+      <c r="P3" s="407"/>
+      <c r="Q3" s="407"/>
+      <c r="R3" s="407"/>
+      <c r="S3" s="407"/>
+      <c r="T3" s="407"/>
+      <c r="U3" s="407"/>
+      <c r="V3" s="407"/>
+      <c r="W3" s="407"/>
+      <c r="X3" s="407"/>
+      <c r="Y3" s="407"/>
+      <c r="Z3" s="407"/>
+      <c r="AA3" s="407"/>
       <c r="AB3" s="102"/>
       <c r="AC3" s="102"/>
       <c r="AD3" s="102"/>
@@ -16418,167 +16421,167 @@
       <c r="BN3" s="104"/>
     </row>
     <row r="4" spans="1:66" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="372" t="s">
+      <c r="B4" s="409"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="410"/>
+      <c r="G4" s="411" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="373"/>
-      <c r="I4" s="373"/>
-      <c r="J4" s="373"/>
-      <c r="K4" s="373"/>
-      <c r="L4" s="373"/>
-      <c r="M4" s="373"/>
-      <c r="N4" s="373"/>
-      <c r="O4" s="374"/>
-      <c r="P4" s="375" t="s">
+      <c r="H4" s="412"/>
+      <c r="I4" s="412"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
+      <c r="N4" s="412"/>
+      <c r="O4" s="413"/>
+      <c r="P4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="376"/>
-      <c r="S4" s="376"/>
-      <c r="T4" s="376"/>
-      <c r="U4" s="377"/>
-      <c r="V4" s="378" t="s">
+      <c r="Q4" s="415"/>
+      <c r="R4" s="415"/>
+      <c r="S4" s="415"/>
+      <c r="T4" s="415"/>
+      <c r="U4" s="416"/>
+      <c r="V4" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="379"/>
-      <c r="X4" s="379"/>
-      <c r="Y4" s="379"/>
-      <c r="Z4" s="379"/>
-      <c r="AA4" s="379"/>
-      <c r="AB4" s="379"/>
-      <c r="AC4" s="379"/>
-      <c r="AD4" s="379"/>
-      <c r="AE4" s="379"/>
-      <c r="AF4" s="379"/>
-      <c r="AG4" s="379"/>
-      <c r="AH4" s="379"/>
-      <c r="AI4" s="379"/>
-      <c r="AJ4" s="379"/>
-      <c r="AK4" s="379"/>
-      <c r="AL4" s="379"/>
-      <c r="AM4" s="379"/>
-      <c r="AN4" s="379"/>
-      <c r="AO4" s="379"/>
-      <c r="AP4" s="379"/>
-      <c r="AQ4" s="379"/>
-      <c r="AR4" s="379"/>
-      <c r="AS4" s="379"/>
-      <c r="AT4" s="379"/>
-      <c r="AU4" s="379"/>
-      <c r="AV4" s="380"/>
-      <c r="AW4" s="381" t="s">
+      <c r="W4" s="418"/>
+      <c r="X4" s="418"/>
+      <c r="Y4" s="418"/>
+      <c r="Z4" s="418"/>
+      <c r="AA4" s="418"/>
+      <c r="AB4" s="418"/>
+      <c r="AC4" s="418"/>
+      <c r="AD4" s="418"/>
+      <c r="AE4" s="418"/>
+      <c r="AF4" s="418"/>
+      <c r="AG4" s="418"/>
+      <c r="AH4" s="418"/>
+      <c r="AI4" s="418"/>
+      <c r="AJ4" s="418"/>
+      <c r="AK4" s="418"/>
+      <c r="AL4" s="418"/>
+      <c r="AM4" s="418"/>
+      <c r="AN4" s="418"/>
+      <c r="AO4" s="418"/>
+      <c r="AP4" s="418"/>
+      <c r="AQ4" s="418"/>
+      <c r="AR4" s="418"/>
+      <c r="AS4" s="418"/>
+      <c r="AT4" s="418"/>
+      <c r="AU4" s="418"/>
+      <c r="AV4" s="419"/>
+      <c r="AW4" s="385" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="382"/>
-      <c r="AY4" s="383"/>
-      <c r="AZ4" s="384">
+      <c r="AX4" s="386"/>
+      <c r="AY4" s="387"/>
+      <c r="AZ4" s="388">
         <v>45447</v>
       </c>
-      <c r="BA4" s="385"/>
-      <c r="BB4" s="385"/>
-      <c r="BC4" s="385"/>
-      <c r="BD4" s="385"/>
-      <c r="BE4" s="385"/>
-      <c r="BF4" s="381" t="s">
+      <c r="BA4" s="389"/>
+      <c r="BB4" s="389"/>
+      <c r="BC4" s="389"/>
+      <c r="BD4" s="389"/>
+      <c r="BE4" s="389"/>
+      <c r="BF4" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="382"/>
-      <c r="BH4" s="383"/>
-      <c r="BI4" s="386" t="s">
+      <c r="BG4" s="386"/>
+      <c r="BH4" s="387"/>
+      <c r="BI4" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="387"/>
-      <c r="BK4" s="387"/>
-      <c r="BL4" s="387"/>
-      <c r="BM4" s="387"/>
-      <c r="BN4" s="388"/>
+      <c r="BJ4" s="391"/>
+      <c r="BK4" s="391"/>
+      <c r="BL4" s="391"/>
+      <c r="BM4" s="391"/>
+      <c r="BN4" s="392"/>
     </row>
     <row r="5" spans="1:66" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="389" t="s">
+      <c r="A5" s="393" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="390"/>
-      <c r="C5" s="390"/>
-      <c r="D5" s="390"/>
-      <c r="E5" s="390"/>
-      <c r="F5" s="391"/>
-      <c r="G5" s="392" t="str">
+      <c r="B5" s="394"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="396" t="str">
         <f>[1]画面レイアウト!G5</f>
         <v>P005</v>
       </c>
-      <c r="H5" s="392"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="392"/>
-      <c r="K5" s="392"/>
-      <c r="L5" s="392"/>
-      <c r="M5" s="392"/>
-      <c r="N5" s="392"/>
-      <c r="O5" s="393"/>
-      <c r="P5" s="389" t="s">
+      <c r="H5" s="396"/>
+      <c r="I5" s="396"/>
+      <c r="J5" s="396"/>
+      <c r="K5" s="396"/>
+      <c r="L5" s="396"/>
+      <c r="M5" s="396"/>
+      <c r="N5" s="396"/>
+      <c r="O5" s="397"/>
+      <c r="P5" s="393" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="390"/>
-      <c r="R5" s="390"/>
-      <c r="S5" s="390"/>
-      <c r="T5" s="390"/>
-      <c r="U5" s="391"/>
-      <c r="V5" s="394"/>
-      <c r="W5" s="395"/>
-      <c r="X5" s="395"/>
-      <c r="Y5" s="395"/>
-      <c r="Z5" s="395"/>
-      <c r="AA5" s="395"/>
-      <c r="AB5" s="395"/>
-      <c r="AC5" s="395"/>
-      <c r="AD5" s="395"/>
-      <c r="AE5" s="395"/>
-      <c r="AF5" s="395"/>
-      <c r="AG5" s="395"/>
-      <c r="AH5" s="395"/>
-      <c r="AI5" s="395"/>
-      <c r="AJ5" s="395"/>
-      <c r="AK5" s="395"/>
-      <c r="AL5" s="395"/>
-      <c r="AM5" s="395"/>
-      <c r="AN5" s="395"/>
-      <c r="AO5" s="395"/>
-      <c r="AP5" s="395"/>
-      <c r="AQ5" s="395"/>
-      <c r="AR5" s="395"/>
-      <c r="AS5" s="395"/>
-      <c r="AT5" s="395"/>
-      <c r="AU5" s="395"/>
-      <c r="AV5" s="396"/>
-      <c r="AW5" s="397" t="s">
+      <c r="Q5" s="394"/>
+      <c r="R5" s="394"/>
+      <c r="S5" s="394"/>
+      <c r="T5" s="394"/>
+      <c r="U5" s="395"/>
+      <c r="V5" s="398"/>
+      <c r="W5" s="399"/>
+      <c r="X5" s="399"/>
+      <c r="Y5" s="399"/>
+      <c r="Z5" s="399"/>
+      <c r="AA5" s="399"/>
+      <c r="AB5" s="399"/>
+      <c r="AC5" s="399"/>
+      <c r="AD5" s="399"/>
+      <c r="AE5" s="399"/>
+      <c r="AF5" s="399"/>
+      <c r="AG5" s="399"/>
+      <c r="AH5" s="399"/>
+      <c r="AI5" s="399"/>
+      <c r="AJ5" s="399"/>
+      <c r="AK5" s="399"/>
+      <c r="AL5" s="399"/>
+      <c r="AM5" s="399"/>
+      <c r="AN5" s="399"/>
+      <c r="AO5" s="399"/>
+      <c r="AP5" s="399"/>
+      <c r="AQ5" s="399"/>
+      <c r="AR5" s="399"/>
+      <c r="AS5" s="399"/>
+      <c r="AT5" s="399"/>
+      <c r="AU5" s="399"/>
+      <c r="AV5" s="400"/>
+      <c r="AW5" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="398"/>
-      <c r="AY5" s="399"/>
-      <c r="AZ5" s="398"/>
-      <c r="BA5" s="398"/>
-      <c r="BB5" s="398"/>
-      <c r="BC5" s="398"/>
-      <c r="BD5" s="398"/>
-      <c r="BE5" s="398"/>
-      <c r="BF5" s="397" t="s">
+      <c r="AX5" s="402"/>
+      <c r="AY5" s="403"/>
+      <c r="AZ5" s="402"/>
+      <c r="BA5" s="402"/>
+      <c r="BB5" s="402"/>
+      <c r="BC5" s="402"/>
+      <c r="BD5" s="402"/>
+      <c r="BE5" s="402"/>
+      <c r="BF5" s="401" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="398"/>
-      <c r="BH5" s="399"/>
-      <c r="BI5" s="394"/>
-      <c r="BJ5" s="395"/>
-      <c r="BK5" s="395"/>
-      <c r="BL5" s="395"/>
-      <c r="BM5" s="395"/>
-      <c r="BN5" s="396"/>
+      <c r="BG5" s="402"/>
+      <c r="BH5" s="403"/>
+      <c r="BI5" s="398"/>
+      <c r="BJ5" s="399"/>
+      <c r="BK5" s="399"/>
+      <c r="BL5" s="399"/>
+      <c r="BM5" s="399"/>
+      <c r="BN5" s="400"/>
     </row>
     <row r="6" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
       <c r="A6" s="105"/>
@@ -16652,238 +16655,238 @@
       <c r="A7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="400" t="s">
+      <c r="B7" s="372" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="401"/>
-      <c r="D7" s="401"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="401"/>
-      <c r="G7" s="401"/>
-      <c r="H7" s="401"/>
-      <c r="I7" s="401"/>
-      <c r="J7" s="401"/>
-      <c r="K7" s="401"/>
-      <c r="L7" s="401"/>
-      <c r="M7" s="401"/>
-      <c r="N7" s="401"/>
-      <c r="O7" s="402"/>
-      <c r="P7" s="403" t="s">
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="373"/>
+      <c r="H7" s="373"/>
+      <c r="I7" s="373"/>
+      <c r="J7" s="373"/>
+      <c r="K7" s="373"/>
+      <c r="L7" s="373"/>
+      <c r="M7" s="373"/>
+      <c r="N7" s="373"/>
+      <c r="O7" s="374"/>
+      <c r="P7" s="375" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="404"/>
-      <c r="R7" s="404"/>
-      <c r="S7" s="404"/>
-      <c r="T7" s="404"/>
-      <c r="U7" s="404"/>
-      <c r="V7" s="404"/>
-      <c r="W7" s="404"/>
-      <c r="X7" s="404"/>
-      <c r="Y7" s="404"/>
-      <c r="Z7" s="404"/>
-      <c r="AA7" s="404"/>
-      <c r="AB7" s="404"/>
-      <c r="AC7" s="404"/>
-      <c r="AD7" s="404"/>
-      <c r="AE7" s="404"/>
-      <c r="AF7" s="404"/>
-      <c r="AG7" s="404"/>
-      <c r="AH7" s="404"/>
-      <c r="AI7" s="404"/>
-      <c r="AJ7" s="404"/>
-      <c r="AK7" s="404"/>
-      <c r="AL7" s="404"/>
-      <c r="AM7" s="404"/>
-      <c r="AN7" s="404"/>
-      <c r="AO7" s="404"/>
-      <c r="AP7" s="404"/>
-      <c r="AQ7" s="404"/>
-      <c r="AR7" s="405"/>
-      <c r="AS7" s="403" t="s">
+      <c r="Q7" s="376"/>
+      <c r="R7" s="376"/>
+      <c r="S7" s="376"/>
+      <c r="T7" s="376"/>
+      <c r="U7" s="376"/>
+      <c r="V7" s="376"/>
+      <c r="W7" s="376"/>
+      <c r="X7" s="376"/>
+      <c r="Y7" s="376"/>
+      <c r="Z7" s="376"/>
+      <c r="AA7" s="376"/>
+      <c r="AB7" s="376"/>
+      <c r="AC7" s="376"/>
+      <c r="AD7" s="376"/>
+      <c r="AE7" s="376"/>
+      <c r="AF7" s="376"/>
+      <c r="AG7" s="376"/>
+      <c r="AH7" s="376"/>
+      <c r="AI7" s="376"/>
+      <c r="AJ7" s="376"/>
+      <c r="AK7" s="376"/>
+      <c r="AL7" s="376"/>
+      <c r="AM7" s="376"/>
+      <c r="AN7" s="376"/>
+      <c r="AO7" s="376"/>
+      <c r="AP7" s="376"/>
+      <c r="AQ7" s="376"/>
+      <c r="AR7" s="377"/>
+      <c r="AS7" s="375" t="s">
         <v>40</v>
       </c>
-      <c r="AT7" s="404"/>
-      <c r="AU7" s="404"/>
-      <c r="AV7" s="404"/>
-      <c r="AW7" s="404"/>
-      <c r="AX7" s="404"/>
-      <c r="AY7" s="404"/>
-      <c r="AZ7" s="404"/>
-      <c r="BA7" s="404"/>
-      <c r="BB7" s="404"/>
-      <c r="BC7" s="404"/>
-      <c r="BD7" s="404"/>
-      <c r="BE7" s="404"/>
-      <c r="BF7" s="404"/>
-      <c r="BG7" s="404"/>
-      <c r="BH7" s="404"/>
-      <c r="BI7" s="404"/>
-      <c r="BJ7" s="404"/>
-      <c r="BK7" s="404"/>
-      <c r="BL7" s="404"/>
-      <c r="BM7" s="404"/>
-      <c r="BN7" s="405"/>
+      <c r="AT7" s="376"/>
+      <c r="AU7" s="376"/>
+      <c r="AV7" s="376"/>
+      <c r="AW7" s="376"/>
+      <c r="AX7" s="376"/>
+      <c r="AY7" s="376"/>
+      <c r="AZ7" s="376"/>
+      <c r="BA7" s="376"/>
+      <c r="BB7" s="376"/>
+      <c r="BC7" s="376"/>
+      <c r="BD7" s="376"/>
+      <c r="BE7" s="376"/>
+      <c r="BF7" s="376"/>
+      <c r="BG7" s="376"/>
+      <c r="BH7" s="376"/>
+      <c r="BI7" s="376"/>
+      <c r="BJ7" s="376"/>
+      <c r="BK7" s="376"/>
+      <c r="BL7" s="376"/>
+      <c r="BM7" s="376"/>
+      <c r="BN7" s="377"/>
     </row>
     <row r="8" spans="1:66" s="111" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="110">
         <v>1</v>
       </c>
-      <c r="B8" s="406" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="407"/>
-      <c r="D8" s="407"/>
-      <c r="E8" s="407"/>
-      <c r="F8" s="407"/>
-      <c r="G8" s="407"/>
-      <c r="H8" s="407"/>
-      <c r="I8" s="407"/>
-      <c r="J8" s="407"/>
-      <c r="K8" s="407"/>
-      <c r="L8" s="407"/>
-      <c r="M8" s="407"/>
-      <c r="N8" s="407"/>
-      <c r="O8" s="408"/>
-      <c r="P8" s="409" t="s">
+      <c r="B8" s="378" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
+      <c r="G8" s="367"/>
+      <c r="H8" s="367"/>
+      <c r="I8" s="367"/>
+      <c r="J8" s="367"/>
+      <c r="K8" s="367"/>
+      <c r="L8" s="367"/>
+      <c r="M8" s="367"/>
+      <c r="N8" s="367"/>
+      <c r="O8" s="379"/>
+      <c r="P8" s="380" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="410"/>
-      <c r="R8" s="410"/>
-      <c r="S8" s="410"/>
-      <c r="T8" s="410"/>
-      <c r="U8" s="410"/>
-      <c r="V8" s="410"/>
-      <c r="W8" s="410"/>
-      <c r="X8" s="410"/>
-      <c r="Y8" s="410"/>
-      <c r="Z8" s="410"/>
-      <c r="AA8" s="410"/>
-      <c r="AB8" s="410"/>
-      <c r="AC8" s="410"/>
-      <c r="AD8" s="410"/>
-      <c r="AE8" s="410"/>
-      <c r="AF8" s="410"/>
-      <c r="AG8" s="410"/>
-      <c r="AH8" s="410"/>
-      <c r="AI8" s="410"/>
-      <c r="AJ8" s="410"/>
-      <c r="AK8" s="410"/>
-      <c r="AL8" s="410"/>
-      <c r="AM8" s="410"/>
-      <c r="AN8" s="410"/>
-      <c r="AO8" s="410"/>
-      <c r="AP8" s="410"/>
-      <c r="AQ8" s="410"/>
-      <c r="AR8" s="410"/>
-      <c r="AS8" s="411" t="s">
+      <c r="Q8" s="381"/>
+      <c r="R8" s="381"/>
+      <c r="S8" s="381"/>
+      <c r="T8" s="381"/>
+      <c r="U8" s="381"/>
+      <c r="V8" s="381"/>
+      <c r="W8" s="381"/>
+      <c r="X8" s="381"/>
+      <c r="Y8" s="381"/>
+      <c r="Z8" s="381"/>
+      <c r="AA8" s="381"/>
+      <c r="AB8" s="381"/>
+      <c r="AC8" s="381"/>
+      <c r="AD8" s="381"/>
+      <c r="AE8" s="381"/>
+      <c r="AF8" s="381"/>
+      <c r="AG8" s="381"/>
+      <c r="AH8" s="381"/>
+      <c r="AI8" s="381"/>
+      <c r="AJ8" s="381"/>
+      <c r="AK8" s="381"/>
+      <c r="AL8" s="381"/>
+      <c r="AM8" s="381"/>
+      <c r="AN8" s="381"/>
+      <c r="AO8" s="381"/>
+      <c r="AP8" s="381"/>
+      <c r="AQ8" s="381"/>
+      <c r="AR8" s="381"/>
+      <c r="AS8" s="382" t="s">
         <v>69</v>
       </c>
-      <c r="AT8" s="412"/>
-      <c r="AU8" s="412"/>
-      <c r="AV8" s="412"/>
-      <c r="AW8" s="412"/>
-      <c r="AX8" s="412"/>
-      <c r="AY8" s="412"/>
-      <c r="AZ8" s="412"/>
-      <c r="BA8" s="412"/>
-      <c r="BB8" s="412"/>
-      <c r="BC8" s="412"/>
-      <c r="BD8" s="412"/>
-      <c r="BE8" s="412"/>
-      <c r="BF8" s="412"/>
-      <c r="BG8" s="412"/>
-      <c r="BH8" s="412"/>
-      <c r="BI8" s="412"/>
-      <c r="BJ8" s="412"/>
-      <c r="BK8" s="412"/>
-      <c r="BL8" s="412"/>
-      <c r="BM8" s="412"/>
-      <c r="BN8" s="413"/>
+      <c r="AT8" s="383"/>
+      <c r="AU8" s="383"/>
+      <c r="AV8" s="383"/>
+      <c r="AW8" s="383"/>
+      <c r="AX8" s="383"/>
+      <c r="AY8" s="383"/>
+      <c r="AZ8" s="383"/>
+      <c r="BA8" s="383"/>
+      <c r="BB8" s="383"/>
+      <c r="BC8" s="383"/>
+      <c r="BD8" s="383"/>
+      <c r="BE8" s="383"/>
+      <c r="BF8" s="383"/>
+      <c r="BG8" s="383"/>
+      <c r="BH8" s="383"/>
+      <c r="BI8" s="383"/>
+      <c r="BJ8" s="383"/>
+      <c r="BK8" s="383"/>
+      <c r="BL8" s="383"/>
+      <c r="BM8" s="383"/>
+      <c r="BN8" s="384"/>
     </row>
     <row r="9" spans="1:66" s="111" customFormat="1" ht="13.2" x14ac:dyDescent="0.35">
       <c r="A9" s="112"/>
-      <c r="B9" s="414"/>
-      <c r="C9" s="415"/>
-      <c r="D9" s="415"/>
-      <c r="E9" s="415"/>
-      <c r="F9" s="415"/>
-      <c r="G9" s="415"/>
-      <c r="H9" s="415"/>
-      <c r="I9" s="415"/>
-      <c r="J9" s="415"/>
-      <c r="K9" s="415"/>
-      <c r="L9" s="415"/>
-      <c r="M9" s="415"/>
-      <c r="N9" s="415"/>
-      <c r="O9" s="407"/>
-      <c r="P9" s="416"/>
-      <c r="Q9" s="416"/>
-      <c r="R9" s="416"/>
-      <c r="S9" s="416"/>
-      <c r="T9" s="416"/>
-      <c r="U9" s="416"/>
-      <c r="V9" s="416"/>
-      <c r="W9" s="416"/>
-      <c r="X9" s="416"/>
-      <c r="Y9" s="416"/>
-      <c r="Z9" s="416"/>
-      <c r="AA9" s="416"/>
-      <c r="AB9" s="416"/>
-      <c r="AC9" s="416"/>
-      <c r="AD9" s="416"/>
-      <c r="AE9" s="416"/>
-      <c r="AF9" s="416"/>
-      <c r="AG9" s="416"/>
-      <c r="AH9" s="416"/>
-      <c r="AI9" s="416"/>
-      <c r="AJ9" s="416"/>
-      <c r="AK9" s="416"/>
-      <c r="AL9" s="416"/>
-      <c r="AM9" s="416"/>
-      <c r="AN9" s="416"/>
-      <c r="AO9" s="416"/>
-      <c r="AP9" s="416"/>
-      <c r="AQ9" s="416"/>
-      <c r="AR9" s="416"/>
-      <c r="AS9" s="417"/>
-      <c r="AT9" s="418"/>
-      <c r="AU9" s="418"/>
-      <c r="AV9" s="418"/>
-      <c r="AW9" s="418"/>
-      <c r="AX9" s="418"/>
-      <c r="AY9" s="418"/>
-      <c r="AZ9" s="418"/>
-      <c r="BA9" s="418"/>
-      <c r="BB9" s="418"/>
-      <c r="BC9" s="418"/>
-      <c r="BD9" s="418"/>
-      <c r="BE9" s="418"/>
-      <c r="BF9" s="418"/>
-      <c r="BG9" s="418"/>
-      <c r="BH9" s="418"/>
-      <c r="BI9" s="418"/>
-      <c r="BJ9" s="418"/>
-      <c r="BK9" s="418"/>
-      <c r="BL9" s="418"/>
-      <c r="BM9" s="418"/>
-      <c r="BN9" s="419"/>
+      <c r="B9" s="365"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
+      <c r="G9" s="366"/>
+      <c r="H9" s="366"/>
+      <c r="I9" s="366"/>
+      <c r="J9" s="366"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="366"/>
+      <c r="N9" s="366"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="368"/>
+      <c r="Q9" s="368"/>
+      <c r="R9" s="368"/>
+      <c r="S9" s="368"/>
+      <c r="T9" s="368"/>
+      <c r="U9" s="368"/>
+      <c r="V9" s="368"/>
+      <c r="W9" s="368"/>
+      <c r="X9" s="368"/>
+      <c r="Y9" s="368"/>
+      <c r="Z9" s="368"/>
+      <c r="AA9" s="368"/>
+      <c r="AB9" s="368"/>
+      <c r="AC9" s="368"/>
+      <c r="AD9" s="368"/>
+      <c r="AE9" s="368"/>
+      <c r="AF9" s="368"/>
+      <c r="AG9" s="368"/>
+      <c r="AH9" s="368"/>
+      <c r="AI9" s="368"/>
+      <c r="AJ9" s="368"/>
+      <c r="AK9" s="368"/>
+      <c r="AL9" s="368"/>
+      <c r="AM9" s="368"/>
+      <c r="AN9" s="368"/>
+      <c r="AO9" s="368"/>
+      <c r="AP9" s="368"/>
+      <c r="AQ9" s="368"/>
+      <c r="AR9" s="368"/>
+      <c r="AS9" s="369"/>
+      <c r="AT9" s="370"/>
+      <c r="AU9" s="370"/>
+      <c r="AV9" s="370"/>
+      <c r="AW9" s="370"/>
+      <c r="AX9" s="370"/>
+      <c r="AY9" s="370"/>
+      <c r="AZ9" s="370"/>
+      <c r="BA9" s="370"/>
+      <c r="BB9" s="370"/>
+      <c r="BC9" s="370"/>
+      <c r="BD9" s="370"/>
+      <c r="BE9" s="370"/>
+      <c r="BF9" s="370"/>
+      <c r="BG9" s="370"/>
+      <c r="BH9" s="370"/>
+      <c r="BI9" s="370"/>
+      <c r="BJ9" s="370"/>
+      <c r="BK9" s="370"/>
+      <c r="BL9" s="370"/>
+      <c r="BM9" s="370"/>
+      <c r="BN9" s="371"/>
     </row>
     <row r="10" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
       <c r="A10" s="113"/>
-      <c r="B10" s="414"/>
-      <c r="C10" s="415"/>
-      <c r="D10" s="415"/>
-      <c r="E10" s="415"/>
-      <c r="F10" s="415"/>
-      <c r="G10" s="415"/>
-      <c r="H10" s="415"/>
-      <c r="I10" s="415"/>
-      <c r="J10" s="415"/>
-      <c r="K10" s="415"/>
-      <c r="L10" s="415"/>
-      <c r="M10" s="415"/>
-      <c r="N10" s="415"/>
-      <c r="O10" s="407"/>
+      <c r="B10" s="365"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="366"/>
+      <c r="I10" s="366"/>
+      <c r="J10" s="366"/>
+      <c r="K10" s="366"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="366"/>
+      <c r="O10" s="367"/>
       <c r="P10" s="114"/>
       <c r="Q10" s="115"/>
       <c r="R10" s="115"/>
@@ -16913,28 +16916,28 @@
       <c r="AP10" s="115"/>
       <c r="AQ10" s="115"/>
       <c r="AR10" s="116"/>
-      <c r="AS10" s="417"/>
-      <c r="AT10" s="418"/>
-      <c r="AU10" s="418"/>
-      <c r="AV10" s="418"/>
-      <c r="AW10" s="418"/>
-      <c r="AX10" s="418"/>
-      <c r="AY10" s="418"/>
-      <c r="AZ10" s="418"/>
-      <c r="BA10" s="418"/>
-      <c r="BB10" s="418"/>
-      <c r="BC10" s="418"/>
-      <c r="BD10" s="418"/>
-      <c r="BE10" s="418"/>
-      <c r="BF10" s="418"/>
-      <c r="BG10" s="418"/>
-      <c r="BH10" s="418"/>
-      <c r="BI10" s="418"/>
-      <c r="BJ10" s="418"/>
-      <c r="BK10" s="418"/>
-      <c r="BL10" s="418"/>
-      <c r="BM10" s="418"/>
-      <c r="BN10" s="419"/>
+      <c r="AS10" s="369"/>
+      <c r="AT10" s="370"/>
+      <c r="AU10" s="370"/>
+      <c r="AV10" s="370"/>
+      <c r="AW10" s="370"/>
+      <c r="AX10" s="370"/>
+      <c r="AY10" s="370"/>
+      <c r="AZ10" s="370"/>
+      <c r="BA10" s="370"/>
+      <c r="BB10" s="370"/>
+      <c r="BC10" s="370"/>
+      <c r="BD10" s="370"/>
+      <c r="BE10" s="370"/>
+      <c r="BF10" s="370"/>
+      <c r="BG10" s="370"/>
+      <c r="BH10" s="370"/>
+      <c r="BI10" s="370"/>
+      <c r="BJ10" s="370"/>
+      <c r="BK10" s="370"/>
+      <c r="BL10" s="370"/>
+      <c r="BM10" s="370"/>
+      <c r="BN10" s="371"/>
     </row>
     <row r="11" spans="1:66" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BN11" s="117"/>
@@ -17012,17 +17015,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="AS10:BN10"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -17035,11 +17032,17 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="AS7:BN7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS9:BN9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="AS10:BN10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/基本設計/基本設計_emsm_自動請求.xlsx
+++ b/DOC/基本設計/基本設計_emsm_自動請求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64AEBA-7304-40F7-A80D-8EB64EA0D791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F200AA0-118A-4CB1-87FA-72E4862B877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -530,10 +531,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>aotoClaimList</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -580,6 +577,10 @@
     <rPh sb="20" eb="22">
       <t>セイセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2813,6 +2814,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2855,119 +2971,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2976,33 +3103,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3012,104 +3112,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3129,15 +3199,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3153,65 +3214,29 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3222,22 +3247,175 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="118" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3279,182 +3457,152 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="118" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3462,9 +3610,6 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3476,150 +3621,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4220,6 +4221,100 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="履歴リスト"/>
+      <sheetName val="ER"/>
+      <sheetName val="課題"/>
+      <sheetName val="有給"/>
+      <sheetName val="自動請求"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="社員情報"/>
+      <sheetName val="取引先情報"/>
+      <sheetName val="機能情報"/>
+      <sheetName val="契約情報"/>
+      <sheetName val="仕訳機能"/>
+      <sheetName val="仕訳帳の科目"/>
+      <sheetName val="請求情報"/>
+      <sheetName val="勤怠情報"/>
+      <sheetName val="交通費情報"/>
+      <sheetName val="給料明細"/>
+      <sheetName val="福祉情報（廃棄予定）"/>
+      <sheetName val="一般経費"/>
+      <sheetName val="マスタ_税区分"/>
+      <sheetName val="マスタ_勘定科目"/>
+      <sheetName val="貸借対照表（BS）詳細"/>
+      <sheetName val="貸借対照表（BS）合計"/>
+      <sheetName val="マスタ_基本給"/>
+      <sheetName val="マスタ_厚生保険料"/>
+      <sheetName val="マスタ_厚生子育徴収率"/>
+      <sheetName val="マスタ_雇用保険徴収率"/>
+      <sheetName val="所得税と住民税マスター管理"/>
+      <sheetName val="マスタ_取引先"/>
+      <sheetName val="マスタ＿部門"/>
+      <sheetName val="マスタ＿社員タイプ"/>
+      <sheetName val="Sheet4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>company</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>contract</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>workinfo</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5688,34 +5783,34 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -5742,32 +5837,32 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -5794,166 +5889,166 @@
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="158" t="s">
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161" t="s">
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="162"/>
-      <c r="AU4" s="162"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="169" t="s">
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="201"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="201"/>
+      <c r="AD4" s="201"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="201"/>
+      <c r="AG4" s="201"/>
+      <c r="AH4" s="201"/>
+      <c r="AI4" s="201"/>
+      <c r="AJ4" s="201"/>
+      <c r="AK4" s="201"/>
+      <c r="AL4" s="201"/>
+      <c r="AM4" s="201"/>
+      <c r="AN4" s="201"/>
+      <c r="AO4" s="201"/>
+      <c r="AP4" s="201"/>
+      <c r="AQ4" s="201"/>
+      <c r="AR4" s="201"/>
+      <c r="AS4" s="201"/>
+      <c r="AT4" s="201"/>
+      <c r="AU4" s="201"/>
+      <c r="AV4" s="202"/>
+      <c r="AW4" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="170"/>
-      <c r="AY4" s="171"/>
-      <c r="AZ4" s="167">
+      <c r="AX4" s="177"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="174">
         <v>45447</v>
       </c>
-      <c r="BA4" s="168"/>
-      <c r="BB4" s="168"/>
-      <c r="BC4" s="168"/>
-      <c r="BD4" s="168"/>
-      <c r="BE4" s="168"/>
-      <c r="BF4" s="169" t="s">
+      <c r="BA4" s="175"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="175"/>
+      <c r="BD4" s="175"/>
+      <c r="BE4" s="175"/>
+      <c r="BF4" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="170"/>
-      <c r="BH4" s="171"/>
-      <c r="BI4" s="172" t="s">
+      <c r="BG4" s="177"/>
+      <c r="BH4" s="178"/>
+      <c r="BI4" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="168"/>
-      <c r="BK4" s="168"/>
-      <c r="BL4" s="168"/>
-      <c r="BM4" s="168"/>
-      <c r="BN4" s="173"/>
+      <c r="BJ4" s="175"/>
+      <c r="BK4" s="175"/>
+      <c r="BL4" s="175"/>
+      <c r="BM4" s="175"/>
+      <c r="BN4" s="180"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="174" t="s">
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="166"/>
-      <c r="AW5" s="180" t="s">
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="172"/>
+      <c r="AM5" s="172"/>
+      <c r="AN5" s="172"/>
+      <c r="AO5" s="172"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="172"/>
+      <c r="AT5" s="172"/>
+      <c r="AU5" s="172"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="164"/>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="164"/>
-      <c r="BD5" s="164"/>
-      <c r="BE5" s="164"/>
-      <c r="BF5" s="180" t="s">
+      <c r="AX5" s="171"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="171"/>
+      <c r="BB5" s="171"/>
+      <c r="BC5" s="171"/>
+      <c r="BD5" s="171"/>
+      <c r="BE5" s="171"/>
+      <c r="BF5" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="164"/>
-      <c r="BH5" s="181"/>
-      <c r="BI5" s="164"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="165"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165"/>
-      <c r="BN5" s="166"/>
+      <c r="BG5" s="171"/>
+      <c r="BH5" s="188"/>
+      <c r="BI5" s="171"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="172"/>
+      <c r="BN5" s="173"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="55"/>
@@ -6004,25 +6099,25 @@
       <c r="AT6" s="58"/>
       <c r="AU6" s="58"/>
       <c r="AV6" s="58"/>
-      <c r="AW6" s="195" t="s">
+      <c r="AW6" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="AX6" s="196"/>
-      <c r="AY6" s="196"/>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="196"/>
-      <c r="BB6" s="196"/>
-      <c r="BC6" s="196"/>
-      <c r="BD6" s="196"/>
-      <c r="BE6" s="196"/>
-      <c r="BF6" s="196"/>
-      <c r="BG6" s="196"/>
-      <c r="BH6" s="196"/>
-      <c r="BI6" s="196"/>
-      <c r="BJ6" s="196"/>
-      <c r="BK6" s="196"/>
-      <c r="BL6" s="196"/>
-      <c r="BM6" s="197"/>
+      <c r="AX6" s="159"/>
+      <c r="AY6" s="159"/>
+      <c r="AZ6" s="159"/>
+      <c r="BA6" s="159"/>
+      <c r="BB6" s="159"/>
+      <c r="BC6" s="159"/>
+      <c r="BD6" s="159"/>
+      <c r="BE6" s="159"/>
+      <c r="BF6" s="159"/>
+      <c r="BG6" s="159"/>
+      <c r="BH6" s="159"/>
+      <c r="BI6" s="159"/>
+      <c r="BJ6" s="159"/>
+      <c r="BK6" s="159"/>
+      <c r="BL6" s="159"/>
+      <c r="BM6" s="160"/>
       <c r="BN6" s="57"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6074,23 +6169,23 @@
       <c r="AT7" s="58"/>
       <c r="AU7" s="58"/>
       <c r="AV7" s="58"/>
-      <c r="AW7" s="198"/>
-      <c r="AX7" s="199"/>
-      <c r="AY7" s="199"/>
-      <c r="AZ7" s="199"/>
-      <c r="BA7" s="199"/>
-      <c r="BB7" s="199"/>
-      <c r="BC7" s="199"/>
-      <c r="BD7" s="199"/>
-      <c r="BE7" s="199"/>
-      <c r="BF7" s="199"/>
-      <c r="BG7" s="199"/>
-      <c r="BH7" s="199"/>
-      <c r="BI7" s="199"/>
-      <c r="BJ7" s="199"/>
-      <c r="BK7" s="199"/>
-      <c r="BL7" s="199"/>
-      <c r="BM7" s="200"/>
+      <c r="AW7" s="161"/>
+      <c r="AX7" s="162"/>
+      <c r="AY7" s="162"/>
+      <c r="AZ7" s="162"/>
+      <c r="BA7" s="162"/>
+      <c r="BB7" s="162"/>
+      <c r="BC7" s="162"/>
+      <c r="BD7" s="162"/>
+      <c r="BE7" s="162"/>
+      <c r="BF7" s="162"/>
+      <c r="BG7" s="162"/>
+      <c r="BH7" s="162"/>
+      <c r="BI7" s="162"/>
+      <c r="BJ7" s="162"/>
+      <c r="BK7" s="162"/>
+      <c r="BL7" s="162"/>
+      <c r="BM7" s="163"/>
       <c r="BN7" s="57"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6150,15 +6245,15 @@
       <c r="BB8" s="58"/>
       <c r="BC8" s="58"/>
       <c r="BD8" s="58"/>
-      <c r="BE8" s="187"/>
-      <c r="BF8" s="182"/>
-      <c r="BG8" s="182"/>
-      <c r="BH8" s="182"/>
-      <c r="BI8" s="182"/>
-      <c r="BJ8" s="182"/>
-      <c r="BK8" s="182"/>
-      <c r="BL8" s="182"/>
-      <c r="BM8" s="183"/>
+      <c r="BE8" s="164"/>
+      <c r="BF8" s="150"/>
+      <c r="BG8" s="150"/>
+      <c r="BH8" s="150"/>
+      <c r="BI8" s="150"/>
+      <c r="BJ8" s="150"/>
+      <c r="BK8" s="150"/>
+      <c r="BL8" s="150"/>
+      <c r="BM8" s="151"/>
       <c r="BN8" s="57"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7361,15 +7456,15 @@
       <c r="BB26" s="58"/>
       <c r="BC26" s="58"/>
       <c r="BD26" s="58"/>
-      <c r="BE26" s="187"/>
-      <c r="BF26" s="182"/>
-      <c r="BG26" s="182"/>
-      <c r="BH26" s="182"/>
-      <c r="BI26" s="182"/>
-      <c r="BJ26" s="182"/>
-      <c r="BK26" s="182"/>
-      <c r="BL26" s="182"/>
-      <c r="BM26" s="183"/>
+      <c r="BE26" s="164"/>
+      <c r="BF26" s="150"/>
+      <c r="BG26" s="150"/>
+      <c r="BH26" s="150"/>
+      <c r="BI26" s="150"/>
+      <c r="BJ26" s="150"/>
+      <c r="BK26" s="150"/>
+      <c r="BL26" s="150"/>
+      <c r="BM26" s="151"/>
       <c r="BN26" s="57"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7429,15 +7524,15 @@
       <c r="BB27" s="58"/>
       <c r="BC27" s="58"/>
       <c r="BD27" s="58"/>
-      <c r="BE27" s="187"/>
-      <c r="BF27" s="182"/>
-      <c r="BG27" s="182"/>
-      <c r="BH27" s="182"/>
-      <c r="BI27" s="182"/>
-      <c r="BJ27" s="182"/>
-      <c r="BK27" s="182"/>
-      <c r="BL27" s="182"/>
-      <c r="BM27" s="183"/>
+      <c r="BE27" s="164"/>
+      <c r="BF27" s="150"/>
+      <c r="BG27" s="150"/>
+      <c r="BH27" s="150"/>
+      <c r="BI27" s="150"/>
+      <c r="BJ27" s="150"/>
+      <c r="BK27" s="150"/>
+      <c r="BL27" s="150"/>
+      <c r="BM27" s="151"/>
       <c r="BN27" s="57"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7497,15 +7592,15 @@
       <c r="BB28" s="58"/>
       <c r="BC28" s="58"/>
       <c r="BD28" s="58"/>
-      <c r="BE28" s="187"/>
-      <c r="BF28" s="182"/>
-      <c r="BG28" s="182"/>
-      <c r="BH28" s="182"/>
-      <c r="BI28" s="182"/>
-      <c r="BJ28" s="182"/>
-      <c r="BK28" s="182"/>
-      <c r="BL28" s="182"/>
-      <c r="BM28" s="183"/>
+      <c r="BE28" s="164"/>
+      <c r="BF28" s="150"/>
+      <c r="BG28" s="150"/>
+      <c r="BH28" s="150"/>
+      <c r="BI28" s="150"/>
+      <c r="BJ28" s="150"/>
+      <c r="BK28" s="150"/>
+      <c r="BL28" s="150"/>
+      <c r="BM28" s="151"/>
       <c r="BN28" s="57"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7565,15 +7660,15 @@
       <c r="BB29" s="58"/>
       <c r="BC29" s="58"/>
       <c r="BD29" s="58"/>
-      <c r="BE29" s="187"/>
-      <c r="BF29" s="182"/>
-      <c r="BG29" s="182"/>
-      <c r="BH29" s="182"/>
-      <c r="BI29" s="182"/>
-      <c r="BJ29" s="182"/>
-      <c r="BK29" s="182"/>
-      <c r="BL29" s="182"/>
-      <c r="BM29" s="183"/>
+      <c r="BE29" s="164"/>
+      <c r="BF29" s="150"/>
+      <c r="BG29" s="150"/>
+      <c r="BH29" s="150"/>
+      <c r="BI29" s="150"/>
+      <c r="BJ29" s="150"/>
+      <c r="BK29" s="150"/>
+      <c r="BL29" s="150"/>
+      <c r="BM29" s="151"/>
       <c r="BN29" s="57"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7633,15 +7728,15 @@
       <c r="BB30" s="58"/>
       <c r="BC30" s="58"/>
       <c r="BD30" s="58"/>
-      <c r="BE30" s="188"/>
-      <c r="BF30" s="182"/>
-      <c r="BG30" s="182"/>
-      <c r="BH30" s="182"/>
-      <c r="BI30" s="182"/>
-      <c r="BJ30" s="182"/>
-      <c r="BK30" s="182"/>
-      <c r="BL30" s="182"/>
-      <c r="BM30" s="183"/>
+      <c r="BE30" s="155"/>
+      <c r="BF30" s="150"/>
+      <c r="BG30" s="150"/>
+      <c r="BH30" s="150"/>
+      <c r="BI30" s="150"/>
+      <c r="BJ30" s="150"/>
+      <c r="BK30" s="150"/>
+      <c r="BL30" s="150"/>
+      <c r="BM30" s="151"/>
       <c r="BN30" s="57"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7701,15 +7796,15 @@
       <c r="BB31" s="58"/>
       <c r="BC31" s="58"/>
       <c r="BD31" s="58"/>
-      <c r="BE31" s="189"/>
-      <c r="BF31" s="190"/>
-      <c r="BG31" s="190"/>
-      <c r="BH31" s="190"/>
-      <c r="BI31" s="190"/>
-      <c r="BJ31" s="190"/>
-      <c r="BK31" s="190"/>
-      <c r="BL31" s="190"/>
-      <c r="BM31" s="191"/>
+      <c r="BE31" s="165"/>
+      <c r="BF31" s="166"/>
+      <c r="BG31" s="166"/>
+      <c r="BH31" s="166"/>
+      <c r="BI31" s="166"/>
+      <c r="BJ31" s="166"/>
+      <c r="BK31" s="166"/>
+      <c r="BL31" s="166"/>
+      <c r="BM31" s="167"/>
       <c r="BN31" s="57"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7769,15 +7864,15 @@
       <c r="BB32" s="58"/>
       <c r="BC32" s="58"/>
       <c r="BD32" s="58"/>
-      <c r="BE32" s="192"/>
-      <c r="BF32" s="193"/>
-      <c r="BG32" s="193"/>
-      <c r="BH32" s="193"/>
-      <c r="BI32" s="193"/>
-      <c r="BJ32" s="193"/>
-      <c r="BK32" s="193"/>
-      <c r="BL32" s="193"/>
-      <c r="BM32" s="194"/>
+      <c r="BE32" s="168"/>
+      <c r="BF32" s="169"/>
+      <c r="BG32" s="169"/>
+      <c r="BH32" s="169"/>
+      <c r="BI32" s="169"/>
+      <c r="BJ32" s="169"/>
+      <c r="BK32" s="169"/>
+      <c r="BL32" s="169"/>
+      <c r="BM32" s="170"/>
       <c r="BN32" s="57"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7837,15 +7932,15 @@
       <c r="BB33" s="58"/>
       <c r="BC33" s="58"/>
       <c r="BD33" s="58"/>
-      <c r="BE33" s="187"/>
-      <c r="BF33" s="182"/>
-      <c r="BG33" s="182"/>
-      <c r="BH33" s="182"/>
-      <c r="BI33" s="182"/>
-      <c r="BJ33" s="182"/>
-      <c r="BK33" s="182"/>
-      <c r="BL33" s="182"/>
-      <c r="BM33" s="183"/>
+      <c r="BE33" s="164"/>
+      <c r="BF33" s="150"/>
+      <c r="BG33" s="150"/>
+      <c r="BH33" s="150"/>
+      <c r="BI33" s="150"/>
+      <c r="BJ33" s="150"/>
+      <c r="BK33" s="150"/>
+      <c r="BL33" s="150"/>
+      <c r="BM33" s="151"/>
       <c r="BN33" s="57"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7905,15 +8000,15 @@
       <c r="BB34" s="58"/>
       <c r="BC34" s="58"/>
       <c r="BD34" s="58"/>
-      <c r="BE34" s="184"/>
-      <c r="BF34" s="185"/>
-      <c r="BG34" s="185"/>
-      <c r="BH34" s="185"/>
-      <c r="BI34" s="185"/>
-      <c r="BJ34" s="185"/>
-      <c r="BK34" s="185"/>
-      <c r="BL34" s="185"/>
-      <c r="BM34" s="186"/>
+      <c r="BE34" s="152"/>
+      <c r="BF34" s="153"/>
+      <c r="BG34" s="153"/>
+      <c r="BH34" s="153"/>
+      <c r="BI34" s="153"/>
+      <c r="BJ34" s="153"/>
+      <c r="BK34" s="153"/>
+      <c r="BL34" s="153"/>
+      <c r="BM34" s="154"/>
       <c r="BN34" s="57"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7973,15 +8068,15 @@
       <c r="BB35" s="58"/>
       <c r="BC35" s="58"/>
       <c r="BD35" s="63"/>
-      <c r="BE35" s="182"/>
-      <c r="BF35" s="182"/>
-      <c r="BG35" s="182"/>
-      <c r="BH35" s="182"/>
-      <c r="BI35" s="182"/>
-      <c r="BJ35" s="182"/>
-      <c r="BK35" s="182"/>
-      <c r="BL35" s="182"/>
-      <c r="BM35" s="183"/>
+      <c r="BE35" s="150"/>
+      <c r="BF35" s="150"/>
+      <c r="BG35" s="150"/>
+      <c r="BH35" s="150"/>
+      <c r="BI35" s="150"/>
+      <c r="BJ35" s="150"/>
+      <c r="BK35" s="150"/>
+      <c r="BL35" s="150"/>
+      <c r="BM35" s="151"/>
       <c r="BN35" s="57"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8041,15 +8136,15 @@
       <c r="BB36" s="58"/>
       <c r="BC36" s="58"/>
       <c r="BD36" s="58"/>
-      <c r="BE36" s="184"/>
-      <c r="BF36" s="185"/>
-      <c r="BG36" s="185"/>
-      <c r="BH36" s="185"/>
-      <c r="BI36" s="185"/>
-      <c r="BJ36" s="185"/>
-      <c r="BK36" s="185"/>
-      <c r="BL36" s="185"/>
-      <c r="BM36" s="186"/>
+      <c r="BE36" s="152"/>
+      <c r="BF36" s="153"/>
+      <c r="BG36" s="153"/>
+      <c r="BH36" s="153"/>
+      <c r="BI36" s="153"/>
+      <c r="BJ36" s="153"/>
+      <c r="BK36" s="153"/>
+      <c r="BL36" s="153"/>
+      <c r="BM36" s="154"/>
       <c r="BN36" s="57"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8109,15 +8204,15 @@
       <c r="BB37" s="58"/>
       <c r="BC37" s="58"/>
       <c r="BD37" s="63"/>
-      <c r="BE37" s="182"/>
-      <c r="BF37" s="182"/>
-      <c r="BG37" s="182"/>
-      <c r="BH37" s="182"/>
-      <c r="BI37" s="182"/>
-      <c r="BJ37" s="182"/>
-      <c r="BK37" s="182"/>
-      <c r="BL37" s="182"/>
-      <c r="BM37" s="183"/>
+      <c r="BE37" s="150"/>
+      <c r="BF37" s="150"/>
+      <c r="BG37" s="150"/>
+      <c r="BH37" s="150"/>
+      <c r="BI37" s="150"/>
+      <c r="BJ37" s="150"/>
+      <c r="BK37" s="150"/>
+      <c r="BL37" s="150"/>
+      <c r="BM37" s="151"/>
       <c r="BN37" s="57"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8177,15 +8272,15 @@
       <c r="BB38" s="58"/>
       <c r="BC38" s="58"/>
       <c r="BD38" s="58"/>
-      <c r="BE38" s="184"/>
-      <c r="BF38" s="185"/>
-      <c r="BG38" s="185"/>
-      <c r="BH38" s="185"/>
-      <c r="BI38" s="185"/>
-      <c r="BJ38" s="185"/>
-      <c r="BK38" s="185"/>
-      <c r="BL38" s="185"/>
-      <c r="BM38" s="186"/>
+      <c r="BE38" s="152"/>
+      <c r="BF38" s="153"/>
+      <c r="BG38" s="153"/>
+      <c r="BH38" s="153"/>
+      <c r="BI38" s="153"/>
+      <c r="BJ38" s="153"/>
+      <c r="BK38" s="153"/>
+      <c r="BL38" s="153"/>
+      <c r="BM38" s="154"/>
       <c r="BN38" s="57"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8245,15 +8340,15 @@
       <c r="BB39" s="58"/>
       <c r="BC39" s="58"/>
       <c r="BD39" s="63"/>
-      <c r="BE39" s="182"/>
-      <c r="BF39" s="182"/>
-      <c r="BG39" s="182"/>
-      <c r="BH39" s="182"/>
-      <c r="BI39" s="182"/>
-      <c r="BJ39" s="182"/>
-      <c r="BK39" s="182"/>
-      <c r="BL39" s="182"/>
-      <c r="BM39" s="183"/>
+      <c r="BE39" s="150"/>
+      <c r="BF39" s="150"/>
+      <c r="BG39" s="150"/>
+      <c r="BH39" s="150"/>
+      <c r="BI39" s="150"/>
+      <c r="BJ39" s="150"/>
+      <c r="BK39" s="150"/>
+      <c r="BL39" s="150"/>
+      <c r="BM39" s="151"/>
       <c r="BN39" s="57"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8313,15 +8408,15 @@
       <c r="BB40" s="58"/>
       <c r="BC40" s="58"/>
       <c r="BD40" s="58"/>
-      <c r="BE40" s="184"/>
-      <c r="BF40" s="185"/>
-      <c r="BG40" s="185"/>
-      <c r="BH40" s="185"/>
-      <c r="BI40" s="185"/>
-      <c r="BJ40" s="185"/>
-      <c r="BK40" s="185"/>
-      <c r="BL40" s="185"/>
-      <c r="BM40" s="186"/>
+      <c r="BE40" s="152"/>
+      <c r="BF40" s="153"/>
+      <c r="BG40" s="153"/>
+      <c r="BH40" s="153"/>
+      <c r="BI40" s="153"/>
+      <c r="BJ40" s="153"/>
+      <c r="BK40" s="153"/>
+      <c r="BL40" s="153"/>
+      <c r="BM40" s="154"/>
       <c r="BN40" s="57"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8381,15 +8476,15 @@
       <c r="BB41" s="58"/>
       <c r="BC41" s="58"/>
       <c r="BD41" s="58"/>
-      <c r="BE41" s="188"/>
-      <c r="BF41" s="182"/>
-      <c r="BG41" s="182"/>
-      <c r="BH41" s="182"/>
-      <c r="BI41" s="182"/>
-      <c r="BJ41" s="182"/>
-      <c r="BK41" s="182"/>
-      <c r="BL41" s="182"/>
-      <c r="BM41" s="183"/>
+      <c r="BE41" s="155"/>
+      <c r="BF41" s="150"/>
+      <c r="BG41" s="150"/>
+      <c r="BH41" s="150"/>
+      <c r="BI41" s="150"/>
+      <c r="BJ41" s="150"/>
+      <c r="BK41" s="150"/>
+      <c r="BL41" s="150"/>
+      <c r="BM41" s="151"/>
       <c r="BN41" s="57"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8449,15 +8544,15 @@
       <c r="BB42" s="58"/>
       <c r="BC42" s="58"/>
       <c r="BD42" s="58"/>
-      <c r="BE42" s="188"/>
-      <c r="BF42" s="182"/>
-      <c r="BG42" s="182"/>
-      <c r="BH42" s="182"/>
-      <c r="BI42" s="182"/>
-      <c r="BJ42" s="182"/>
-      <c r="BK42" s="182"/>
-      <c r="BL42" s="182"/>
-      <c r="BM42" s="183"/>
+      <c r="BE42" s="155"/>
+      <c r="BF42" s="150"/>
+      <c r="BG42" s="150"/>
+      <c r="BH42" s="150"/>
+      <c r="BI42" s="150"/>
+      <c r="BJ42" s="150"/>
+      <c r="BK42" s="150"/>
+      <c r="BL42" s="150"/>
+      <c r="BM42" s="151"/>
       <c r="BN42" s="57"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8517,15 +8612,15 @@
       <c r="BB43" s="61"/>
       <c r="BC43" s="61"/>
       <c r="BD43" s="64"/>
-      <c r="BE43" s="201"/>
-      <c r="BF43" s="201"/>
-      <c r="BG43" s="201"/>
-      <c r="BH43" s="201"/>
-      <c r="BI43" s="201"/>
-      <c r="BJ43" s="201"/>
-      <c r="BK43" s="201"/>
-      <c r="BL43" s="201"/>
-      <c r="BM43" s="202"/>
+      <c r="BE43" s="156"/>
+      <c r="BF43" s="156"/>
+      <c r="BG43" s="156"/>
+      <c r="BH43" s="156"/>
+      <c r="BI43" s="156"/>
+      <c r="BJ43" s="156"/>
+      <c r="BK43" s="156"/>
+      <c r="BL43" s="156"/>
+      <c r="BM43" s="157"/>
       <c r="BN43" s="62"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8573,26 +8668,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
-    <mergeCell ref="BE43:BM43"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="BI5:BN5"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -8605,11 +8685,26 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8891,34 +8986,34 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -8945,32 +9040,32 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -8997,166 +9092,166 @@
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="158" t="s">
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161" t="s">
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="162"/>
-      <c r="AU4" s="162"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="169" t="s">
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="201"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="201"/>
+      <c r="AD4" s="201"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="201"/>
+      <c r="AG4" s="201"/>
+      <c r="AH4" s="201"/>
+      <c r="AI4" s="201"/>
+      <c r="AJ4" s="201"/>
+      <c r="AK4" s="201"/>
+      <c r="AL4" s="201"/>
+      <c r="AM4" s="201"/>
+      <c r="AN4" s="201"/>
+      <c r="AO4" s="201"/>
+      <c r="AP4" s="201"/>
+      <c r="AQ4" s="201"/>
+      <c r="AR4" s="201"/>
+      <c r="AS4" s="201"/>
+      <c r="AT4" s="201"/>
+      <c r="AU4" s="201"/>
+      <c r="AV4" s="202"/>
+      <c r="AW4" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="170"/>
-      <c r="AY4" s="171"/>
-      <c r="AZ4" s="167">
+      <c r="AX4" s="177"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="174">
         <v>45447</v>
       </c>
-      <c r="BA4" s="168"/>
-      <c r="BB4" s="168"/>
-      <c r="BC4" s="168"/>
-      <c r="BD4" s="168"/>
-      <c r="BE4" s="168"/>
-      <c r="BF4" s="169" t="s">
+      <c r="BA4" s="175"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="175"/>
+      <c r="BD4" s="175"/>
+      <c r="BE4" s="175"/>
+      <c r="BF4" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="170"/>
-      <c r="BH4" s="171"/>
-      <c r="BI4" s="246" t="s">
+      <c r="BG4" s="177"/>
+      <c r="BH4" s="178"/>
+      <c r="BI4" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="247"/>
-      <c r="BK4" s="247"/>
-      <c r="BL4" s="247"/>
-      <c r="BM4" s="247"/>
-      <c r="BN4" s="248"/>
+      <c r="BJ4" s="205"/>
+      <c r="BK4" s="205"/>
+      <c r="BL4" s="205"/>
+      <c r="BM4" s="205"/>
+      <c r="BN4" s="206"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="174" t="s">
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="166"/>
-      <c r="AW5" s="180" t="s">
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="172"/>
+      <c r="AM5" s="172"/>
+      <c r="AN5" s="172"/>
+      <c r="AO5" s="172"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="172"/>
+      <c r="AT5" s="172"/>
+      <c r="AU5" s="172"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="164"/>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="164"/>
-      <c r="BD5" s="164"/>
-      <c r="BE5" s="164"/>
-      <c r="BF5" s="180" t="s">
+      <c r="AX5" s="171"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="171"/>
+      <c r="BB5" s="171"/>
+      <c r="BC5" s="171"/>
+      <c r="BD5" s="171"/>
+      <c r="BE5" s="171"/>
+      <c r="BF5" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="164"/>
-      <c r="BH5" s="181"/>
-      <c r="BI5" s="164"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="165"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165"/>
-      <c r="BN5" s="166"/>
+      <c r="BG5" s="171"/>
+      <c r="BH5" s="188"/>
+      <c r="BI5" s="171"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="172"/>
+      <c r="BN5" s="173"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="55"/>
@@ -9200,36 +9295,36 @@
       <c r="AM6" s="56"/>
       <c r="AN6" s="56"/>
       <c r="AO6" s="56"/>
-      <c r="AP6" s="237" t="s">
+      <c r="AP6" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="AQ6" s="238"/>
-      <c r="AR6" s="238"/>
-      <c r="AS6" s="239" t="s">
+      <c r="AQ6" s="221"/>
+      <c r="AR6" s="221"/>
+      <c r="AS6" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT6" s="240"/>
-      <c r="AU6" s="240"/>
-      <c r="AV6" s="240"/>
-      <c r="AW6" s="240"/>
-      <c r="AX6" s="240"/>
-      <c r="AY6" s="240"/>
-      <c r="AZ6" s="240"/>
-      <c r="BA6" s="240"/>
-      <c r="BB6" s="240"/>
-      <c r="BC6" s="240"/>
-      <c r="BD6" s="240"/>
-      <c r="BE6" s="239" t="s">
+      <c r="AT6" s="223"/>
+      <c r="AU6" s="223"/>
+      <c r="AV6" s="223"/>
+      <c r="AW6" s="223"/>
+      <c r="AX6" s="223"/>
+      <c r="AY6" s="223"/>
+      <c r="AZ6" s="223"/>
+      <c r="BA6" s="223"/>
+      <c r="BB6" s="223"/>
+      <c r="BC6" s="223"/>
+      <c r="BD6" s="223"/>
+      <c r="BE6" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="BF6" s="238"/>
-      <c r="BG6" s="238"/>
-      <c r="BH6" s="238"/>
-      <c r="BI6" s="238"/>
-      <c r="BJ6" s="238"/>
-      <c r="BK6" s="238"/>
-      <c r="BL6" s="238"/>
-      <c r="BM6" s="241"/>
+      <c r="BF6" s="221"/>
+      <c r="BG6" s="221"/>
+      <c r="BH6" s="221"/>
+      <c r="BI6" s="221"/>
+      <c r="BJ6" s="221"/>
+      <c r="BK6" s="221"/>
+      <c r="BL6" s="221"/>
+      <c r="BM6" s="224"/>
       <c r="BN6" s="57"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9279,31 +9374,31 @@
       </c>
       <c r="AQ7" s="208"/>
       <c r="AR7" s="209"/>
-      <c r="AS7" s="242" t="s">
+      <c r="AS7" s="225" t="s">
         <v>61</v>
       </c>
-      <c r="AT7" s="243"/>
-      <c r="AU7" s="243"/>
-      <c r="AV7" s="243"/>
-      <c r="AW7" s="243"/>
-      <c r="AX7" s="243"/>
-      <c r="AY7" s="243"/>
-      <c r="AZ7" s="243"/>
-      <c r="BA7" s="243"/>
-      <c r="BB7" s="243"/>
-      <c r="BC7" s="243"/>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="242" t="s">
+      <c r="AT7" s="226"/>
+      <c r="AU7" s="226"/>
+      <c r="AV7" s="226"/>
+      <c r="AW7" s="226"/>
+      <c r="AX7" s="226"/>
+      <c r="AY7" s="226"/>
+      <c r="AZ7" s="226"/>
+      <c r="BA7" s="226"/>
+      <c r="BB7" s="226"/>
+      <c r="BC7" s="226"/>
+      <c r="BD7" s="227"/>
+      <c r="BE7" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="BF7" s="243"/>
-      <c r="BG7" s="243"/>
-      <c r="BH7" s="243"/>
-      <c r="BI7" s="243"/>
-      <c r="BJ7" s="243"/>
-      <c r="BK7" s="243"/>
-      <c r="BL7" s="243"/>
-      <c r="BM7" s="243"/>
+      <c r="BF7" s="226"/>
+      <c r="BG7" s="226"/>
+      <c r="BH7" s="226"/>
+      <c r="BI7" s="226"/>
+      <c r="BJ7" s="226"/>
+      <c r="BK7" s="226"/>
+      <c r="BL7" s="226"/>
+      <c r="BM7" s="226"/>
       <c r="BN7" s="57"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9367,17 +9462,17 @@
       <c r="BB8" s="211"/>
       <c r="BC8" s="211"/>
       <c r="BD8" s="212"/>
-      <c r="BE8" s="245" t="s">
+      <c r="BE8" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="BF8" s="213"/>
-      <c r="BG8" s="213"/>
-      <c r="BH8" s="213"/>
-      <c r="BI8" s="213"/>
-      <c r="BJ8" s="213"/>
-      <c r="BK8" s="213"/>
-      <c r="BL8" s="213"/>
-      <c r="BM8" s="213"/>
+      <c r="BF8" s="214"/>
+      <c r="BG8" s="214"/>
+      <c r="BH8" s="214"/>
+      <c r="BI8" s="214"/>
+      <c r="BJ8" s="214"/>
+      <c r="BK8" s="214"/>
+      <c r="BL8" s="214"/>
+      <c r="BM8" s="214"/>
       <c r="BN8" s="57"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9427,31 +9522,31 @@
       </c>
       <c r="AQ9" s="208"/>
       <c r="AR9" s="209"/>
-      <c r="AS9" s="232" t="s">
+      <c r="AS9" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="AT9" s="233"/>
-      <c r="AU9" s="233"/>
-      <c r="AV9" s="233"/>
-      <c r="AW9" s="233"/>
-      <c r="AX9" s="233"/>
-      <c r="AY9" s="233"/>
-      <c r="AZ9" s="233"/>
-      <c r="BA9" s="233"/>
-      <c r="BB9" s="233"/>
-      <c r="BC9" s="233"/>
-      <c r="BD9" s="234"/>
-      <c r="BE9" s="235" t="s">
+      <c r="AT9" s="216"/>
+      <c r="AU9" s="216"/>
+      <c r="AV9" s="216"/>
+      <c r="AW9" s="216"/>
+      <c r="AX9" s="216"/>
+      <c r="AY9" s="216"/>
+      <c r="AZ9" s="216"/>
+      <c r="BA9" s="216"/>
+      <c r="BB9" s="216"/>
+      <c r="BC9" s="216"/>
+      <c r="BD9" s="217"/>
+      <c r="BE9" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="BF9" s="236"/>
-      <c r="BG9" s="236"/>
-      <c r="BH9" s="236"/>
-      <c r="BI9" s="236"/>
-      <c r="BJ9" s="236"/>
-      <c r="BK9" s="236"/>
-      <c r="BL9" s="236"/>
-      <c r="BM9" s="236"/>
+      <c r="BF9" s="219"/>
+      <c r="BG9" s="219"/>
+      <c r="BH9" s="219"/>
+      <c r="BI9" s="219"/>
+      <c r="BJ9" s="219"/>
+      <c r="BK9" s="219"/>
+      <c r="BL9" s="219"/>
+      <c r="BM9" s="219"/>
       <c r="BN9" s="57"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9501,31 +9596,31 @@
       </c>
       <c r="AQ10" s="208"/>
       <c r="AR10" s="209"/>
-      <c r="AS10" s="220" t="s">
+      <c r="AS10" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="AT10" s="221"/>
-      <c r="AU10" s="221"/>
-      <c r="AV10" s="221"/>
-      <c r="AW10" s="221"/>
-      <c r="AX10" s="221"/>
-      <c r="AY10" s="221"/>
-      <c r="AZ10" s="221"/>
-      <c r="BA10" s="221"/>
-      <c r="BB10" s="221"/>
-      <c r="BC10" s="221"/>
-      <c r="BD10" s="222"/>
+      <c r="AT10" s="236"/>
+      <c r="AU10" s="236"/>
+      <c r="AV10" s="236"/>
+      <c r="AW10" s="236"/>
+      <c r="AX10" s="236"/>
+      <c r="AY10" s="236"/>
+      <c r="AZ10" s="236"/>
+      <c r="BA10" s="236"/>
+      <c r="BB10" s="236"/>
+      <c r="BC10" s="236"/>
+      <c r="BD10" s="237"/>
       <c r="BE10" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF10" s="213"/>
-      <c r="BG10" s="213"/>
-      <c r="BH10" s="213"/>
-      <c r="BI10" s="213"/>
-      <c r="BJ10" s="213"/>
-      <c r="BK10" s="213"/>
-      <c r="BL10" s="213"/>
-      <c r="BM10" s="213"/>
+      <c r="BF10" s="214"/>
+      <c r="BG10" s="214"/>
+      <c r="BH10" s="214"/>
+      <c r="BI10" s="214"/>
+      <c r="BJ10" s="214"/>
+      <c r="BK10" s="214"/>
+      <c r="BL10" s="214"/>
+      <c r="BM10" s="214"/>
       <c r="BN10" s="57"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9544,10 +9639,10 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="80"/>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="249"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
       <c r="V11" s="80"/>
@@ -9589,17 +9684,17 @@
       <c r="BB11" s="211"/>
       <c r="BC11" s="211"/>
       <c r="BD11" s="212"/>
-      <c r="BE11" s="223" t="s">
+      <c r="BE11" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="BF11" s="213"/>
-      <c r="BG11" s="213"/>
-      <c r="BH11" s="213"/>
-      <c r="BI11" s="213"/>
-      <c r="BJ11" s="213"/>
-      <c r="BK11" s="213"/>
-      <c r="BL11" s="213"/>
-      <c r="BM11" s="213"/>
+      <c r="BF11" s="214"/>
+      <c r="BG11" s="214"/>
+      <c r="BH11" s="214"/>
+      <c r="BI11" s="214"/>
+      <c r="BJ11" s="214"/>
+      <c r="BK11" s="214"/>
+      <c r="BL11" s="214"/>
+      <c r="BM11" s="214"/>
       <c r="BN11" s="57"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9649,54 +9744,54 @@
       </c>
       <c r="AQ12" s="208"/>
       <c r="AR12" s="209"/>
-      <c r="AS12" s="224" t="s">
+      <c r="AS12" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="AT12" s="225"/>
-      <c r="AU12" s="225"/>
-      <c r="AV12" s="225"/>
-      <c r="AW12" s="225"/>
-      <c r="AX12" s="225"/>
-      <c r="AY12" s="225"/>
-      <c r="AZ12" s="225"/>
-      <c r="BA12" s="225"/>
-      <c r="BB12" s="225"/>
-      <c r="BC12" s="225"/>
-      <c r="BD12" s="226"/>
+      <c r="AT12" s="229"/>
+      <c r="AU12" s="229"/>
+      <c r="AV12" s="229"/>
+      <c r="AW12" s="229"/>
+      <c r="AX12" s="229"/>
+      <c r="AY12" s="229"/>
+      <c r="AZ12" s="229"/>
+      <c r="BA12" s="229"/>
+      <c r="BB12" s="229"/>
+      <c r="BC12" s="229"/>
+      <c r="BD12" s="230"/>
       <c r="BE12" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF12" s="213"/>
-      <c r="BG12" s="213"/>
-      <c r="BH12" s="213"/>
-      <c r="BI12" s="213"/>
-      <c r="BJ12" s="213"/>
-      <c r="BK12" s="213"/>
-      <c r="BL12" s="213"/>
-      <c r="BM12" s="213"/>
+      <c r="BF12" s="214"/>
+      <c r="BG12" s="214"/>
+      <c r="BH12" s="214"/>
+      <c r="BI12" s="214"/>
+      <c r="BJ12" s="214"/>
+      <c r="BK12" s="214"/>
+      <c r="BL12" s="214"/>
+      <c r="BM12" s="214"/>
       <c r="BN12" s="57"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="89"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="249"/>
-      <c r="N13" s="249"/>
-      <c r="O13" s="249"/>
-      <c r="P13" s="249"/>
-      <c r="Q13" s="249"/>
-      <c r="R13" s="249"/>
-      <c r="S13" s="249"/>
-      <c r="T13" s="249"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="203"/>
       <c r="U13" s="80"/>
       <c r="V13" s="80"/>
       <c r="W13" s="80"/>
@@ -9723,31 +9818,31 @@
       </c>
       <c r="AQ13" s="208"/>
       <c r="AR13" s="209"/>
-      <c r="AS13" s="229" t="s">
+      <c r="AS13" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="AT13" s="230"/>
-      <c r="AU13" s="230"/>
-      <c r="AV13" s="230"/>
-      <c r="AW13" s="230"/>
-      <c r="AX13" s="230"/>
-      <c r="AY13" s="230"/>
-      <c r="AZ13" s="230"/>
-      <c r="BA13" s="230"/>
-      <c r="BB13" s="230"/>
-      <c r="BC13" s="230"/>
-      <c r="BD13" s="231"/>
-      <c r="BE13" s="223" t="s">
+      <c r="AT13" s="232"/>
+      <c r="AU13" s="232"/>
+      <c r="AV13" s="232"/>
+      <c r="AW13" s="232"/>
+      <c r="AX13" s="232"/>
+      <c r="AY13" s="232"/>
+      <c r="AZ13" s="232"/>
+      <c r="BA13" s="232"/>
+      <c r="BB13" s="232"/>
+      <c r="BC13" s="232"/>
+      <c r="BD13" s="233"/>
+      <c r="BE13" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="BF13" s="213"/>
-      <c r="BG13" s="213"/>
-      <c r="BH13" s="213"/>
-      <c r="BI13" s="213"/>
-      <c r="BJ13" s="213"/>
-      <c r="BK13" s="213"/>
-      <c r="BL13" s="213"/>
-      <c r="BM13" s="213"/>
+      <c r="BF13" s="214"/>
+      <c r="BG13" s="214"/>
+      <c r="BH13" s="214"/>
+      <c r="BI13" s="214"/>
+      <c r="BJ13" s="214"/>
+      <c r="BK13" s="214"/>
+      <c r="BL13" s="214"/>
+      <c r="BM13" s="214"/>
       <c r="BN13" s="57"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9797,31 +9892,31 @@
       </c>
       <c r="AQ14" s="208"/>
       <c r="AR14" s="209"/>
-      <c r="AS14" s="224" t="s">
+      <c r="AS14" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="AT14" s="225"/>
-      <c r="AU14" s="225"/>
-      <c r="AV14" s="225"/>
-      <c r="AW14" s="225"/>
-      <c r="AX14" s="225"/>
-      <c r="AY14" s="225"/>
-      <c r="AZ14" s="225"/>
-      <c r="BA14" s="225"/>
-      <c r="BB14" s="225"/>
-      <c r="BC14" s="225"/>
-      <c r="BD14" s="226"/>
+      <c r="AT14" s="229"/>
+      <c r="AU14" s="229"/>
+      <c r="AV14" s="229"/>
+      <c r="AW14" s="229"/>
+      <c r="AX14" s="229"/>
+      <c r="AY14" s="229"/>
+      <c r="AZ14" s="229"/>
+      <c r="BA14" s="229"/>
+      <c r="BB14" s="229"/>
+      <c r="BC14" s="229"/>
+      <c r="BD14" s="230"/>
       <c r="BE14" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF14" s="213"/>
-      <c r="BG14" s="213"/>
-      <c r="BH14" s="213"/>
-      <c r="BI14" s="213"/>
-      <c r="BJ14" s="213"/>
-      <c r="BK14" s="213"/>
-      <c r="BL14" s="213"/>
-      <c r="BM14" s="213"/>
+      <c r="BF14" s="214"/>
+      <c r="BG14" s="214"/>
+      <c r="BH14" s="214"/>
+      <c r="BI14" s="214"/>
+      <c r="BJ14" s="214"/>
+      <c r="BK14" s="214"/>
+      <c r="BL14" s="214"/>
+      <c r="BM14" s="214"/>
       <c r="BN14" s="57"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9871,31 +9966,31 @@
       </c>
       <c r="AQ15" s="208"/>
       <c r="AR15" s="209"/>
-      <c r="AS15" s="227" t="s">
+      <c r="AS15" s="238" t="s">
         <v>78</v>
       </c>
-      <c r="AT15" s="228"/>
-      <c r="AU15" s="228"/>
-      <c r="AV15" s="228"/>
-      <c r="AW15" s="228"/>
-      <c r="AX15" s="228"/>
-      <c r="AY15" s="228"/>
-      <c r="AZ15" s="228"/>
-      <c r="BA15" s="228"/>
-      <c r="BB15" s="228"/>
-      <c r="BC15" s="228"/>
-      <c r="BD15" s="228"/>
+      <c r="AT15" s="239"/>
+      <c r="AU15" s="239"/>
+      <c r="AV15" s="239"/>
+      <c r="AW15" s="239"/>
+      <c r="AX15" s="239"/>
+      <c r="AY15" s="239"/>
+      <c r="AZ15" s="239"/>
+      <c r="BA15" s="239"/>
+      <c r="BB15" s="239"/>
+      <c r="BC15" s="239"/>
+      <c r="BD15" s="239"/>
       <c r="BE15" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF15" s="213"/>
-      <c r="BG15" s="213"/>
-      <c r="BH15" s="213"/>
-      <c r="BI15" s="213"/>
-      <c r="BJ15" s="213"/>
-      <c r="BK15" s="213"/>
-      <c r="BL15" s="213"/>
-      <c r="BM15" s="213"/>
+      <c r="BF15" s="214"/>
+      <c r="BG15" s="214"/>
+      <c r="BH15" s="214"/>
+      <c r="BI15" s="214"/>
+      <c r="BJ15" s="214"/>
+      <c r="BK15" s="214"/>
+      <c r="BL15" s="214"/>
+      <c r="BM15" s="214"/>
       <c r="BN15" s="57"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9945,54 +10040,54 @@
       </c>
       <c r="AQ16" s="208"/>
       <c r="AR16" s="209"/>
-      <c r="AS16" s="220" t="s">
+      <c r="AS16" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="AT16" s="221"/>
-      <c r="AU16" s="221"/>
-      <c r="AV16" s="221"/>
-      <c r="AW16" s="221"/>
-      <c r="AX16" s="221"/>
-      <c r="AY16" s="221"/>
-      <c r="AZ16" s="221"/>
-      <c r="BA16" s="221"/>
-      <c r="BB16" s="221"/>
-      <c r="BC16" s="221"/>
-      <c r="BD16" s="222"/>
-      <c r="BE16" s="223" t="s">
+      <c r="AT16" s="236"/>
+      <c r="AU16" s="236"/>
+      <c r="AV16" s="236"/>
+      <c r="AW16" s="236"/>
+      <c r="AX16" s="236"/>
+      <c r="AY16" s="236"/>
+      <c r="AZ16" s="236"/>
+      <c r="BA16" s="236"/>
+      <c r="BB16" s="236"/>
+      <c r="BC16" s="236"/>
+      <c r="BD16" s="237"/>
+      <c r="BE16" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="BF16" s="213"/>
-      <c r="BG16" s="213"/>
-      <c r="BH16" s="213"/>
-      <c r="BI16" s="213"/>
-      <c r="BJ16" s="213"/>
-      <c r="BK16" s="213"/>
-      <c r="BL16" s="213"/>
-      <c r="BM16" s="213"/>
+      <c r="BF16" s="214"/>
+      <c r="BG16" s="214"/>
+      <c r="BH16" s="214"/>
+      <c r="BI16" s="214"/>
+      <c r="BJ16" s="214"/>
+      <c r="BK16" s="214"/>
+      <c r="BL16" s="214"/>
+      <c r="BM16" s="214"/>
       <c r="BN16" s="57"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="80"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="249"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="249"/>
-      <c r="M17" s="249"/>
-      <c r="N17" s="249"/>
-      <c r="O17" s="249"/>
-      <c r="P17" s="249"/>
-      <c r="Q17" s="249"/>
-      <c r="R17" s="249"/>
-      <c r="S17" s="249"/>
-      <c r="T17" s="249"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="203"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="203"/>
+      <c r="S17" s="203"/>
+      <c r="T17" s="203"/>
       <c r="U17" s="80"/>
       <c r="V17" s="80"/>
       <c r="W17" s="80"/>
@@ -10036,14 +10131,14 @@
       <c r="BE17" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF17" s="213"/>
-      <c r="BG17" s="213"/>
-      <c r="BH17" s="213"/>
-      <c r="BI17" s="213"/>
-      <c r="BJ17" s="213"/>
-      <c r="BK17" s="213"/>
-      <c r="BL17" s="213"/>
-      <c r="BM17" s="213"/>
+      <c r="BF17" s="214"/>
+      <c r="BG17" s="214"/>
+      <c r="BH17" s="214"/>
+      <c r="BI17" s="214"/>
+      <c r="BJ17" s="214"/>
+      <c r="BK17" s="214"/>
+      <c r="BL17" s="214"/>
+      <c r="BM17" s="214"/>
       <c r="BN17" s="57"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10110,14 +10205,14 @@
       <c r="BE18" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF18" s="213"/>
-      <c r="BG18" s="213"/>
-      <c r="BH18" s="213"/>
-      <c r="BI18" s="213"/>
-      <c r="BJ18" s="213"/>
-      <c r="BK18" s="213"/>
-      <c r="BL18" s="213"/>
-      <c r="BM18" s="213"/>
+      <c r="BF18" s="214"/>
+      <c r="BG18" s="214"/>
+      <c r="BH18" s="214"/>
+      <c r="BI18" s="214"/>
+      <c r="BJ18" s="214"/>
+      <c r="BK18" s="214"/>
+      <c r="BL18" s="214"/>
+      <c r="BM18" s="214"/>
       <c r="BN18" s="81"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10184,14 +10279,14 @@
       <c r="BE19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF19" s="213"/>
-      <c r="BG19" s="213"/>
-      <c r="BH19" s="213"/>
-      <c r="BI19" s="213"/>
-      <c r="BJ19" s="213"/>
-      <c r="BK19" s="213"/>
-      <c r="BL19" s="213"/>
-      <c r="BM19" s="213"/>
+      <c r="BF19" s="214"/>
+      <c r="BG19" s="214"/>
+      <c r="BH19" s="214"/>
+      <c r="BI19" s="214"/>
+      <c r="BJ19" s="214"/>
+      <c r="BK19" s="214"/>
+      <c r="BL19" s="214"/>
+      <c r="BM19" s="214"/>
       <c r="BN19" s="57"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10258,14 +10353,14 @@
       <c r="BE20" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="BF20" s="213"/>
-      <c r="BG20" s="213"/>
-      <c r="BH20" s="213"/>
-      <c r="BI20" s="213"/>
-      <c r="BJ20" s="213"/>
-      <c r="BK20" s="213"/>
-      <c r="BL20" s="213"/>
-      <c r="BM20" s="213"/>
+      <c r="BF20" s="214"/>
+      <c r="BG20" s="214"/>
+      <c r="BH20" s="214"/>
+      <c r="BI20" s="214"/>
+      <c r="BJ20" s="214"/>
+      <c r="BK20" s="214"/>
+      <c r="BL20" s="214"/>
+      <c r="BM20" s="214"/>
       <c r="BN20" s="57"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10315,31 +10410,31 @@
       </c>
       <c r="AQ21" s="208"/>
       <c r="AR21" s="209"/>
-      <c r="AS21" s="217" t="s">
+      <c r="AS21" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="AT21" s="218"/>
-      <c r="AU21" s="218"/>
-      <c r="AV21" s="218"/>
-      <c r="AW21" s="218"/>
-      <c r="AX21" s="218"/>
-      <c r="AY21" s="218"/>
-      <c r="AZ21" s="218"/>
-      <c r="BA21" s="218"/>
-      <c r="BB21" s="218"/>
-      <c r="BC21" s="218"/>
-      <c r="BD21" s="219"/>
-      <c r="BE21" s="217" t="s">
+      <c r="AT21" s="241"/>
+      <c r="AU21" s="241"/>
+      <c r="AV21" s="241"/>
+      <c r="AW21" s="241"/>
+      <c r="AX21" s="241"/>
+      <c r="AY21" s="241"/>
+      <c r="AZ21" s="241"/>
+      <c r="BA21" s="241"/>
+      <c r="BB21" s="241"/>
+      <c r="BC21" s="241"/>
+      <c r="BD21" s="242"/>
+      <c r="BE21" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="BF21" s="218"/>
-      <c r="BG21" s="218"/>
-      <c r="BH21" s="218"/>
-      <c r="BI21" s="218"/>
-      <c r="BJ21" s="218"/>
-      <c r="BK21" s="218"/>
-      <c r="BL21" s="218"/>
-      <c r="BM21" s="218"/>
+      <c r="BF21" s="241"/>
+      <c r="BG21" s="241"/>
+      <c r="BH21" s="241"/>
+      <c r="BI21" s="241"/>
+      <c r="BJ21" s="241"/>
+      <c r="BK21" s="241"/>
+      <c r="BL21" s="241"/>
+      <c r="BM21" s="241"/>
       <c r="BN21" s="57"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10384,30 +10479,30 @@
       <c r="AM22" s="56"/>
       <c r="AN22" s="56"/>
       <c r="AO22" s="56"/>
-      <c r="AP22" s="215"/>
-      <c r="AQ22" s="216"/>
-      <c r="AR22" s="216"/>
-      <c r="AS22" s="205"/>
-      <c r="AT22" s="206"/>
-      <c r="AU22" s="206"/>
-      <c r="AV22" s="206"/>
-      <c r="AW22" s="206"/>
-      <c r="AX22" s="206"/>
-      <c r="AY22" s="206"/>
-      <c r="AZ22" s="206"/>
-      <c r="BA22" s="206"/>
-      <c r="BB22" s="206"/>
-      <c r="BC22" s="206"/>
-      <c r="BD22" s="206"/>
-      <c r="BE22" s="205"/>
-      <c r="BF22" s="206"/>
-      <c r="BG22" s="206"/>
-      <c r="BH22" s="206"/>
-      <c r="BI22" s="206"/>
-      <c r="BJ22" s="206"/>
-      <c r="BK22" s="206"/>
-      <c r="BL22" s="206"/>
-      <c r="BM22" s="206"/>
+      <c r="AP22" s="248"/>
+      <c r="AQ22" s="249"/>
+      <c r="AR22" s="249"/>
+      <c r="AS22" s="243"/>
+      <c r="AT22" s="244"/>
+      <c r="AU22" s="244"/>
+      <c r="AV22" s="244"/>
+      <c r="AW22" s="244"/>
+      <c r="AX22" s="244"/>
+      <c r="AY22" s="244"/>
+      <c r="AZ22" s="244"/>
+      <c r="BA22" s="244"/>
+      <c r="BB22" s="244"/>
+      <c r="BC22" s="244"/>
+      <c r="BD22" s="244"/>
+      <c r="BE22" s="243"/>
+      <c r="BF22" s="244"/>
+      <c r="BG22" s="244"/>
+      <c r="BH22" s="244"/>
+      <c r="BI22" s="244"/>
+      <c r="BJ22" s="244"/>
+      <c r="BK22" s="244"/>
+      <c r="BL22" s="244"/>
+      <c r="BM22" s="244"/>
       <c r="BN22" s="57"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10452,30 +10547,30 @@
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
       <c r="AO23" s="56"/>
-      <c r="AP23" s="203"/>
-      <c r="AQ23" s="204"/>
-      <c r="AR23" s="204"/>
-      <c r="AS23" s="205"/>
-      <c r="AT23" s="206"/>
-      <c r="AU23" s="206"/>
-      <c r="AV23" s="206"/>
-      <c r="AW23" s="206"/>
-      <c r="AX23" s="206"/>
-      <c r="AY23" s="206"/>
-      <c r="AZ23" s="206"/>
-      <c r="BA23" s="206"/>
-      <c r="BB23" s="206"/>
-      <c r="BC23" s="206"/>
-      <c r="BD23" s="206"/>
-      <c r="BE23" s="205"/>
-      <c r="BF23" s="206"/>
-      <c r="BG23" s="206"/>
-      <c r="BH23" s="206"/>
-      <c r="BI23" s="206"/>
-      <c r="BJ23" s="206"/>
-      <c r="BK23" s="206"/>
-      <c r="BL23" s="206"/>
-      <c r="BM23" s="206"/>
+      <c r="AP23" s="245"/>
+      <c r="AQ23" s="246"/>
+      <c r="AR23" s="246"/>
+      <c r="AS23" s="243"/>
+      <c r="AT23" s="244"/>
+      <c r="AU23" s="244"/>
+      <c r="AV23" s="244"/>
+      <c r="AW23" s="244"/>
+      <c r="AX23" s="244"/>
+      <c r="AY23" s="244"/>
+      <c r="AZ23" s="244"/>
+      <c r="BA23" s="244"/>
+      <c r="BB23" s="244"/>
+      <c r="BC23" s="244"/>
+      <c r="BD23" s="244"/>
+      <c r="BE23" s="243"/>
+      <c r="BF23" s="244"/>
+      <c r="BG23" s="244"/>
+      <c r="BH23" s="244"/>
+      <c r="BI23" s="244"/>
+      <c r="BJ23" s="244"/>
+      <c r="BK23" s="244"/>
+      <c r="BL23" s="244"/>
+      <c r="BM23" s="244"/>
       <c r="BN23" s="57"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10520,30 +10615,30 @@
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
-      <c r="AP24" s="203"/>
-      <c r="AQ24" s="204"/>
-      <c r="AR24" s="204"/>
-      <c r="AS24" s="205"/>
-      <c r="AT24" s="206"/>
-      <c r="AU24" s="206"/>
-      <c r="AV24" s="206"/>
-      <c r="AW24" s="206"/>
-      <c r="AX24" s="206"/>
-      <c r="AY24" s="206"/>
-      <c r="AZ24" s="206"/>
-      <c r="BA24" s="206"/>
-      <c r="BB24" s="206"/>
-      <c r="BC24" s="206"/>
-      <c r="BD24" s="206"/>
-      <c r="BE24" s="205"/>
-      <c r="BF24" s="206"/>
-      <c r="BG24" s="206"/>
-      <c r="BH24" s="206"/>
-      <c r="BI24" s="206"/>
-      <c r="BJ24" s="206"/>
-      <c r="BK24" s="206"/>
-      <c r="BL24" s="206"/>
-      <c r="BM24" s="206"/>
+      <c r="AP24" s="245"/>
+      <c r="AQ24" s="246"/>
+      <c r="AR24" s="246"/>
+      <c r="AS24" s="243"/>
+      <c r="AT24" s="244"/>
+      <c r="AU24" s="244"/>
+      <c r="AV24" s="244"/>
+      <c r="AW24" s="244"/>
+      <c r="AX24" s="244"/>
+      <c r="AY24" s="244"/>
+      <c r="AZ24" s="244"/>
+      <c r="BA24" s="244"/>
+      <c r="BB24" s="244"/>
+      <c r="BC24" s="244"/>
+      <c r="BD24" s="244"/>
+      <c r="BE24" s="243"/>
+      <c r="BF24" s="244"/>
+      <c r="BG24" s="244"/>
+      <c r="BH24" s="244"/>
+      <c r="BI24" s="244"/>
+      <c r="BJ24" s="244"/>
+      <c r="BK24" s="244"/>
+      <c r="BL24" s="244"/>
+      <c r="BM24" s="244"/>
       <c r="BN24" s="57"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10588,30 +10683,30 @@
       <c r="AM25" s="56"/>
       <c r="AN25" s="56"/>
       <c r="AO25" s="56"/>
-      <c r="AP25" s="203"/>
-      <c r="AQ25" s="204"/>
-      <c r="AR25" s="204"/>
-      <c r="AS25" s="214"/>
-      <c r="AT25" s="214"/>
-      <c r="AU25" s="214"/>
-      <c r="AV25" s="214"/>
-      <c r="AW25" s="214"/>
-      <c r="AX25" s="214"/>
-      <c r="AY25" s="214"/>
-      <c r="AZ25" s="214"/>
-      <c r="BA25" s="214"/>
-      <c r="BB25" s="214"/>
-      <c r="BC25" s="214"/>
-      <c r="BD25" s="214"/>
-      <c r="BE25" s="205"/>
-      <c r="BF25" s="206"/>
-      <c r="BG25" s="206"/>
-      <c r="BH25" s="206"/>
-      <c r="BI25" s="206"/>
-      <c r="BJ25" s="206"/>
-      <c r="BK25" s="206"/>
-      <c r="BL25" s="206"/>
-      <c r="BM25" s="206"/>
+      <c r="AP25" s="245"/>
+      <c r="AQ25" s="246"/>
+      <c r="AR25" s="246"/>
+      <c r="AS25" s="247"/>
+      <c r="AT25" s="247"/>
+      <c r="AU25" s="247"/>
+      <c r="AV25" s="247"/>
+      <c r="AW25" s="247"/>
+      <c r="AX25" s="247"/>
+      <c r="AY25" s="247"/>
+      <c r="AZ25" s="247"/>
+      <c r="BA25" s="247"/>
+      <c r="BB25" s="247"/>
+      <c r="BC25" s="247"/>
+      <c r="BD25" s="247"/>
+      <c r="BE25" s="243"/>
+      <c r="BF25" s="244"/>
+      <c r="BG25" s="244"/>
+      <c r="BH25" s="244"/>
+      <c r="BI25" s="244"/>
+      <c r="BJ25" s="244"/>
+      <c r="BK25" s="244"/>
+      <c r="BL25" s="244"/>
+      <c r="BM25" s="244"/>
       <c r="BN25" s="57"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10656,30 +10751,30 @@
       <c r="AM26" s="56"/>
       <c r="AN26" s="56"/>
       <c r="AO26" s="56"/>
-      <c r="AP26" s="203"/>
-      <c r="AQ26" s="204"/>
-      <c r="AR26" s="204"/>
-      <c r="AS26" s="214"/>
-      <c r="AT26" s="214"/>
-      <c r="AU26" s="214"/>
-      <c r="AV26" s="214"/>
-      <c r="AW26" s="214"/>
-      <c r="AX26" s="214"/>
-      <c r="AY26" s="214"/>
-      <c r="AZ26" s="214"/>
-      <c r="BA26" s="214"/>
-      <c r="BB26" s="214"/>
-      <c r="BC26" s="214"/>
-      <c r="BD26" s="214"/>
-      <c r="BE26" s="205"/>
-      <c r="BF26" s="206"/>
-      <c r="BG26" s="206"/>
-      <c r="BH26" s="206"/>
-      <c r="BI26" s="206"/>
-      <c r="BJ26" s="206"/>
-      <c r="BK26" s="206"/>
-      <c r="BL26" s="206"/>
-      <c r="BM26" s="206"/>
+      <c r="AP26" s="245"/>
+      <c r="AQ26" s="246"/>
+      <c r="AR26" s="246"/>
+      <c r="AS26" s="247"/>
+      <c r="AT26" s="247"/>
+      <c r="AU26" s="247"/>
+      <c r="AV26" s="247"/>
+      <c r="AW26" s="247"/>
+      <c r="AX26" s="247"/>
+      <c r="AY26" s="247"/>
+      <c r="AZ26" s="247"/>
+      <c r="BA26" s="247"/>
+      <c r="BB26" s="247"/>
+      <c r="BC26" s="247"/>
+      <c r="BD26" s="247"/>
+      <c r="BE26" s="243"/>
+      <c r="BF26" s="244"/>
+      <c r="BG26" s="244"/>
+      <c r="BH26" s="244"/>
+      <c r="BI26" s="244"/>
+      <c r="BJ26" s="244"/>
+      <c r="BK26" s="244"/>
+      <c r="BL26" s="244"/>
+      <c r="BM26" s="244"/>
       <c r="BN26" s="57"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10724,30 +10819,30 @@
       <c r="AM27" s="56"/>
       <c r="AN27" s="56"/>
       <c r="AO27" s="56"/>
-      <c r="AP27" s="203"/>
-      <c r="AQ27" s="204"/>
-      <c r="AR27" s="204"/>
-      <c r="AS27" s="205"/>
-      <c r="AT27" s="206"/>
-      <c r="AU27" s="206"/>
-      <c r="AV27" s="206"/>
-      <c r="AW27" s="206"/>
-      <c r="AX27" s="206"/>
-      <c r="AY27" s="206"/>
-      <c r="AZ27" s="206"/>
-      <c r="BA27" s="206"/>
-      <c r="BB27" s="206"/>
-      <c r="BC27" s="206"/>
-      <c r="BD27" s="206"/>
-      <c r="BE27" s="205"/>
-      <c r="BF27" s="206"/>
-      <c r="BG27" s="206"/>
-      <c r="BH27" s="206"/>
-      <c r="BI27" s="206"/>
-      <c r="BJ27" s="206"/>
-      <c r="BK27" s="206"/>
-      <c r="BL27" s="206"/>
-      <c r="BM27" s="206"/>
+      <c r="AP27" s="245"/>
+      <c r="AQ27" s="246"/>
+      <c r="AR27" s="246"/>
+      <c r="AS27" s="243"/>
+      <c r="AT27" s="244"/>
+      <c r="AU27" s="244"/>
+      <c r="AV27" s="244"/>
+      <c r="AW27" s="244"/>
+      <c r="AX27" s="244"/>
+      <c r="AY27" s="244"/>
+      <c r="AZ27" s="244"/>
+      <c r="BA27" s="244"/>
+      <c r="BB27" s="244"/>
+      <c r="BC27" s="244"/>
+      <c r="BD27" s="244"/>
+      <c r="BE27" s="243"/>
+      <c r="BF27" s="244"/>
+      <c r="BG27" s="244"/>
+      <c r="BH27" s="244"/>
+      <c r="BI27" s="244"/>
+      <c r="BJ27" s="244"/>
+      <c r="BK27" s="244"/>
+      <c r="BL27" s="244"/>
+      <c r="BM27" s="244"/>
       <c r="BN27" s="57"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10792,30 +10887,30 @@
       <c r="AM28" s="56"/>
       <c r="AN28" s="56"/>
       <c r="AO28" s="56"/>
-      <c r="AP28" s="203"/>
-      <c r="AQ28" s="204"/>
-      <c r="AR28" s="204"/>
-      <c r="AS28" s="205"/>
-      <c r="AT28" s="206"/>
-      <c r="AU28" s="206"/>
-      <c r="AV28" s="206"/>
-      <c r="AW28" s="206"/>
-      <c r="AX28" s="206"/>
-      <c r="AY28" s="206"/>
-      <c r="AZ28" s="206"/>
-      <c r="BA28" s="206"/>
-      <c r="BB28" s="206"/>
-      <c r="BC28" s="206"/>
-      <c r="BD28" s="206"/>
-      <c r="BE28" s="205"/>
-      <c r="BF28" s="206"/>
-      <c r="BG28" s="206"/>
-      <c r="BH28" s="206"/>
-      <c r="BI28" s="206"/>
-      <c r="BJ28" s="206"/>
-      <c r="BK28" s="206"/>
-      <c r="BL28" s="206"/>
-      <c r="BM28" s="206"/>
+      <c r="AP28" s="245"/>
+      <c r="AQ28" s="246"/>
+      <c r="AR28" s="246"/>
+      <c r="AS28" s="243"/>
+      <c r="AT28" s="244"/>
+      <c r="AU28" s="244"/>
+      <c r="AV28" s="244"/>
+      <c r="AW28" s="244"/>
+      <c r="AX28" s="244"/>
+      <c r="AY28" s="244"/>
+      <c r="AZ28" s="244"/>
+      <c r="BA28" s="244"/>
+      <c r="BB28" s="244"/>
+      <c r="BC28" s="244"/>
+      <c r="BD28" s="244"/>
+      <c r="BE28" s="243"/>
+      <c r="BF28" s="244"/>
+      <c r="BG28" s="244"/>
+      <c r="BH28" s="244"/>
+      <c r="BI28" s="244"/>
+      <c r="BJ28" s="244"/>
+      <c r="BK28" s="244"/>
+      <c r="BL28" s="244"/>
+      <c r="BM28" s="244"/>
       <c r="BN28" s="57"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10860,30 +10955,30 @@
       <c r="AM29" s="56"/>
       <c r="AN29" s="56"/>
       <c r="AO29" s="56"/>
-      <c r="AP29" s="203"/>
-      <c r="AQ29" s="204"/>
-      <c r="AR29" s="204"/>
-      <c r="AS29" s="205"/>
-      <c r="AT29" s="206"/>
-      <c r="AU29" s="206"/>
-      <c r="AV29" s="206"/>
-      <c r="AW29" s="206"/>
-      <c r="AX29" s="206"/>
-      <c r="AY29" s="206"/>
-      <c r="AZ29" s="206"/>
-      <c r="BA29" s="206"/>
-      <c r="BB29" s="206"/>
-      <c r="BC29" s="206"/>
-      <c r="BD29" s="206"/>
-      <c r="BE29" s="205"/>
-      <c r="BF29" s="206"/>
-      <c r="BG29" s="206"/>
-      <c r="BH29" s="206"/>
-      <c r="BI29" s="206"/>
-      <c r="BJ29" s="206"/>
-      <c r="BK29" s="206"/>
-      <c r="BL29" s="206"/>
-      <c r="BM29" s="206"/>
+      <c r="AP29" s="245"/>
+      <c r="AQ29" s="246"/>
+      <c r="AR29" s="246"/>
+      <c r="AS29" s="243"/>
+      <c r="AT29" s="244"/>
+      <c r="AU29" s="244"/>
+      <c r="AV29" s="244"/>
+      <c r="AW29" s="244"/>
+      <c r="AX29" s="244"/>
+      <c r="AY29" s="244"/>
+      <c r="AZ29" s="244"/>
+      <c r="BA29" s="244"/>
+      <c r="BB29" s="244"/>
+      <c r="BC29" s="244"/>
+      <c r="BD29" s="244"/>
+      <c r="BE29" s="243"/>
+      <c r="BF29" s="244"/>
+      <c r="BG29" s="244"/>
+      <c r="BH29" s="244"/>
+      <c r="BI29" s="244"/>
+      <c r="BJ29" s="244"/>
+      <c r="BK29" s="244"/>
+      <c r="BL29" s="244"/>
+      <c r="BM29" s="244"/>
       <c r="BN29" s="57"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10928,30 +11023,30 @@
       <c r="AM30" s="56"/>
       <c r="AN30" s="56"/>
       <c r="AO30" s="56"/>
-      <c r="AP30" s="203"/>
-      <c r="AQ30" s="204"/>
-      <c r="AR30" s="204"/>
-      <c r="AS30" s="205"/>
-      <c r="AT30" s="182"/>
-      <c r="AU30" s="182"/>
-      <c r="AV30" s="182"/>
-      <c r="AW30" s="182"/>
-      <c r="AX30" s="182"/>
-      <c r="AY30" s="182"/>
-      <c r="AZ30" s="182"/>
-      <c r="BA30" s="182"/>
-      <c r="BB30" s="182"/>
-      <c r="BC30" s="182"/>
-      <c r="BD30" s="182"/>
-      <c r="BE30" s="205"/>
-      <c r="BF30" s="206"/>
-      <c r="BG30" s="206"/>
-      <c r="BH30" s="206"/>
-      <c r="BI30" s="206"/>
-      <c r="BJ30" s="206"/>
-      <c r="BK30" s="206"/>
-      <c r="BL30" s="206"/>
-      <c r="BM30" s="206"/>
+      <c r="AP30" s="245"/>
+      <c r="AQ30" s="246"/>
+      <c r="AR30" s="246"/>
+      <c r="AS30" s="243"/>
+      <c r="AT30" s="150"/>
+      <c r="AU30" s="150"/>
+      <c r="AV30" s="150"/>
+      <c r="AW30" s="150"/>
+      <c r="AX30" s="150"/>
+      <c r="AY30" s="150"/>
+      <c r="AZ30" s="150"/>
+      <c r="BA30" s="150"/>
+      <c r="BB30" s="150"/>
+      <c r="BC30" s="150"/>
+      <c r="BD30" s="150"/>
+      <c r="BE30" s="243"/>
+      <c r="BF30" s="244"/>
+      <c r="BG30" s="244"/>
+      <c r="BH30" s="244"/>
+      <c r="BI30" s="244"/>
+      <c r="BJ30" s="244"/>
+      <c r="BK30" s="244"/>
+      <c r="BL30" s="244"/>
+      <c r="BM30" s="244"/>
       <c r="BN30" s="57"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10996,267 +11091,267 @@
       <c r="AM31" s="56"/>
       <c r="AN31" s="56"/>
       <c r="AO31" s="56"/>
-      <c r="AP31" s="203"/>
-      <c r="AQ31" s="204"/>
-      <c r="AR31" s="204"/>
-      <c r="AS31" s="205"/>
-      <c r="AT31" s="206"/>
-      <c r="AU31" s="206"/>
-      <c r="AV31" s="206"/>
-      <c r="AW31" s="206"/>
-      <c r="AX31" s="206"/>
-      <c r="AY31" s="206"/>
-      <c r="AZ31" s="206"/>
-      <c r="BA31" s="206"/>
-      <c r="BB31" s="206"/>
-      <c r="BC31" s="206"/>
-      <c r="BD31" s="182"/>
-      <c r="BE31" s="205"/>
-      <c r="BF31" s="206"/>
-      <c r="BG31" s="206"/>
-      <c r="BH31" s="206"/>
-      <c r="BI31" s="206"/>
-      <c r="BJ31" s="206"/>
-      <c r="BK31" s="206"/>
-      <c r="BL31" s="206"/>
-      <c r="BM31" s="206"/>
+      <c r="AP31" s="245"/>
+      <c r="AQ31" s="246"/>
+      <c r="AR31" s="246"/>
+      <c r="AS31" s="243"/>
+      <c r="AT31" s="244"/>
+      <c r="AU31" s="244"/>
+      <c r="AV31" s="244"/>
+      <c r="AW31" s="244"/>
+      <c r="AX31" s="244"/>
+      <c r="AY31" s="244"/>
+      <c r="AZ31" s="244"/>
+      <c r="BA31" s="244"/>
+      <c r="BB31" s="244"/>
+      <c r="BC31" s="244"/>
+      <c r="BD31" s="150"/>
+      <c r="BE31" s="243"/>
+      <c r="BF31" s="244"/>
+      <c r="BG31" s="244"/>
+      <c r="BH31" s="244"/>
+      <c r="BI31" s="244"/>
+      <c r="BJ31" s="244"/>
+      <c r="BK31" s="244"/>
+      <c r="BL31" s="244"/>
+      <c r="BM31" s="244"/>
       <c r="BN31" s="57"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP32" s="203"/>
-      <c r="AQ32" s="204"/>
-      <c r="AR32" s="204"/>
-      <c r="AS32" s="205"/>
-      <c r="AT32" s="206"/>
-      <c r="AU32" s="206"/>
-      <c r="AV32" s="206"/>
-      <c r="AW32" s="206"/>
-      <c r="AX32" s="206"/>
-      <c r="AY32" s="206"/>
-      <c r="AZ32" s="206"/>
-      <c r="BA32" s="206"/>
-      <c r="BB32" s="206"/>
-      <c r="BC32" s="206"/>
-      <c r="BD32" s="206"/>
-      <c r="BE32" s="205"/>
-      <c r="BF32" s="206"/>
-      <c r="BG32" s="206"/>
-      <c r="BH32" s="206"/>
-      <c r="BI32" s="206"/>
-      <c r="BJ32" s="206"/>
-      <c r="BK32" s="206"/>
-      <c r="BL32" s="206"/>
-      <c r="BM32" s="206"/>
+      <c r="AP32" s="245"/>
+      <c r="AQ32" s="246"/>
+      <c r="AR32" s="246"/>
+      <c r="AS32" s="243"/>
+      <c r="AT32" s="244"/>
+      <c r="AU32" s="244"/>
+      <c r="AV32" s="244"/>
+      <c r="AW32" s="244"/>
+      <c r="AX32" s="244"/>
+      <c r="AY32" s="244"/>
+      <c r="AZ32" s="244"/>
+      <c r="BA32" s="244"/>
+      <c r="BB32" s="244"/>
+      <c r="BC32" s="244"/>
+      <c r="BD32" s="244"/>
+      <c r="BE32" s="243"/>
+      <c r="BF32" s="244"/>
+      <c r="BG32" s="244"/>
+      <c r="BH32" s="244"/>
+      <c r="BI32" s="244"/>
+      <c r="BJ32" s="244"/>
+      <c r="BK32" s="244"/>
+      <c r="BL32" s="244"/>
+      <c r="BM32" s="244"/>
       <c r="BN32" s="57"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP33" s="203"/>
-      <c r="AQ33" s="204"/>
-      <c r="AR33" s="204"/>
-      <c r="AS33" s="205"/>
-      <c r="AT33" s="206"/>
-      <c r="AU33" s="206"/>
-      <c r="AV33" s="206"/>
-      <c r="AW33" s="206"/>
-      <c r="AX33" s="206"/>
-      <c r="AY33" s="206"/>
-      <c r="AZ33" s="206"/>
-      <c r="BA33" s="206"/>
-      <c r="BB33" s="206"/>
-      <c r="BC33" s="206"/>
-      <c r="BD33" s="206"/>
-      <c r="BE33" s="205"/>
-      <c r="BF33" s="206"/>
-      <c r="BG33" s="206"/>
-      <c r="BH33" s="206"/>
-      <c r="BI33" s="206"/>
-      <c r="BJ33" s="206"/>
-      <c r="BK33" s="206"/>
-      <c r="BL33" s="206"/>
-      <c r="BM33" s="206"/>
+      <c r="AP33" s="245"/>
+      <c r="AQ33" s="246"/>
+      <c r="AR33" s="246"/>
+      <c r="AS33" s="243"/>
+      <c r="AT33" s="244"/>
+      <c r="AU33" s="244"/>
+      <c r="AV33" s="244"/>
+      <c r="AW33" s="244"/>
+      <c r="AX33" s="244"/>
+      <c r="AY33" s="244"/>
+      <c r="AZ33" s="244"/>
+      <c r="BA33" s="244"/>
+      <c r="BB33" s="244"/>
+      <c r="BC33" s="244"/>
+      <c r="BD33" s="244"/>
+      <c r="BE33" s="243"/>
+      <c r="BF33" s="244"/>
+      <c r="BG33" s="244"/>
+      <c r="BH33" s="244"/>
+      <c r="BI33" s="244"/>
+      <c r="BJ33" s="244"/>
+      <c r="BK33" s="244"/>
+      <c r="BL33" s="244"/>
+      <c r="BM33" s="244"/>
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AP34" s="203"/>
-      <c r="AQ34" s="204"/>
-      <c r="AR34" s="204"/>
-      <c r="AS34" s="214"/>
-      <c r="AT34" s="214"/>
-      <c r="AU34" s="214"/>
-      <c r="AV34" s="214"/>
-      <c r="AW34" s="214"/>
-      <c r="AX34" s="214"/>
-      <c r="AY34" s="214"/>
-      <c r="AZ34" s="214"/>
-      <c r="BA34" s="214"/>
-      <c r="BB34" s="214"/>
-      <c r="BC34" s="214"/>
-      <c r="BD34" s="214"/>
-      <c r="BE34" s="205"/>
-      <c r="BF34" s="206"/>
-      <c r="BG34" s="206"/>
-      <c r="BH34" s="206"/>
-      <c r="BI34" s="206"/>
-      <c r="BJ34" s="206"/>
-      <c r="BK34" s="206"/>
-      <c r="BL34" s="206"/>
-      <c r="BM34" s="206"/>
+      <c r="AP34" s="245"/>
+      <c r="AQ34" s="246"/>
+      <c r="AR34" s="246"/>
+      <c r="AS34" s="247"/>
+      <c r="AT34" s="247"/>
+      <c r="AU34" s="247"/>
+      <c r="AV34" s="247"/>
+      <c r="AW34" s="247"/>
+      <c r="AX34" s="247"/>
+      <c r="AY34" s="247"/>
+      <c r="AZ34" s="247"/>
+      <c r="BA34" s="247"/>
+      <c r="BB34" s="247"/>
+      <c r="BC34" s="247"/>
+      <c r="BD34" s="247"/>
+      <c r="BE34" s="243"/>
+      <c r="BF34" s="244"/>
+      <c r="BG34" s="244"/>
+      <c r="BH34" s="244"/>
+      <c r="BI34" s="244"/>
+      <c r="BJ34" s="244"/>
+      <c r="BK34" s="244"/>
+      <c r="BL34" s="244"/>
+      <c r="BM34" s="244"/>
     </row>
     <row r="35" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP35" s="203"/>
-      <c r="AQ35" s="204"/>
-      <c r="AR35" s="204"/>
-      <c r="AS35" s="214"/>
-      <c r="AT35" s="214"/>
-      <c r="AU35" s="214"/>
-      <c r="AV35" s="214"/>
-      <c r="AW35" s="214"/>
-      <c r="AX35" s="214"/>
-      <c r="AY35" s="214"/>
-      <c r="AZ35" s="214"/>
-      <c r="BA35" s="214"/>
-      <c r="BB35" s="214"/>
-      <c r="BC35" s="214"/>
-      <c r="BD35" s="214"/>
-      <c r="BE35" s="205"/>
-      <c r="BF35" s="206"/>
-      <c r="BG35" s="206"/>
-      <c r="BH35" s="206"/>
-      <c r="BI35" s="206"/>
-      <c r="BJ35" s="206"/>
-      <c r="BK35" s="206"/>
-      <c r="BL35" s="206"/>
-      <c r="BM35" s="206"/>
+      <c r="AP35" s="245"/>
+      <c r="AQ35" s="246"/>
+      <c r="AR35" s="246"/>
+      <c r="AS35" s="247"/>
+      <c r="AT35" s="247"/>
+      <c r="AU35" s="247"/>
+      <c r="AV35" s="247"/>
+      <c r="AW35" s="247"/>
+      <c r="AX35" s="247"/>
+      <c r="AY35" s="247"/>
+      <c r="AZ35" s="247"/>
+      <c r="BA35" s="247"/>
+      <c r="BB35" s="247"/>
+      <c r="BC35" s="247"/>
+      <c r="BD35" s="247"/>
+      <c r="BE35" s="243"/>
+      <c r="BF35" s="244"/>
+      <c r="BG35" s="244"/>
+      <c r="BH35" s="244"/>
+      <c r="BI35" s="244"/>
+      <c r="BJ35" s="244"/>
+      <c r="BK35" s="244"/>
+      <c r="BL35" s="244"/>
+      <c r="BM35" s="244"/>
     </row>
     <row r="36" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP36" s="203"/>
-      <c r="AQ36" s="204"/>
-      <c r="AR36" s="204"/>
-      <c r="AS36" s="205"/>
-      <c r="AT36" s="206"/>
-      <c r="AU36" s="206"/>
-      <c r="AV36" s="206"/>
-      <c r="AW36" s="206"/>
-      <c r="AX36" s="206"/>
-      <c r="AY36" s="206"/>
-      <c r="AZ36" s="206"/>
-      <c r="BA36" s="206"/>
-      <c r="BB36" s="206"/>
-      <c r="BC36" s="206"/>
-      <c r="BD36" s="206"/>
-      <c r="BE36" s="205"/>
-      <c r="BF36" s="206"/>
-      <c r="BG36" s="206"/>
-      <c r="BH36" s="206"/>
-      <c r="BI36" s="206"/>
-      <c r="BJ36" s="206"/>
-      <c r="BK36" s="206"/>
-      <c r="BL36" s="206"/>
-      <c r="BM36" s="206"/>
+      <c r="AP36" s="245"/>
+      <c r="AQ36" s="246"/>
+      <c r="AR36" s="246"/>
+      <c r="AS36" s="243"/>
+      <c r="AT36" s="244"/>
+      <c r="AU36" s="244"/>
+      <c r="AV36" s="244"/>
+      <c r="AW36" s="244"/>
+      <c r="AX36" s="244"/>
+      <c r="AY36" s="244"/>
+      <c r="AZ36" s="244"/>
+      <c r="BA36" s="244"/>
+      <c r="BB36" s="244"/>
+      <c r="BC36" s="244"/>
+      <c r="BD36" s="244"/>
+      <c r="BE36" s="243"/>
+      <c r="BF36" s="244"/>
+      <c r="BG36" s="244"/>
+      <c r="BH36" s="244"/>
+      <c r="BI36" s="244"/>
+      <c r="BJ36" s="244"/>
+      <c r="BK36" s="244"/>
+      <c r="BL36" s="244"/>
+      <c r="BM36" s="244"/>
     </row>
     <row r="37" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP37" s="203"/>
-      <c r="AQ37" s="204"/>
-      <c r="AR37" s="204"/>
-      <c r="AS37" s="205"/>
-      <c r="AT37" s="206"/>
-      <c r="AU37" s="206"/>
-      <c r="AV37" s="206"/>
-      <c r="AW37" s="206"/>
-      <c r="AX37" s="206"/>
-      <c r="AY37" s="206"/>
-      <c r="AZ37" s="206"/>
-      <c r="BA37" s="206"/>
-      <c r="BB37" s="206"/>
-      <c r="BC37" s="206"/>
-      <c r="BD37" s="206"/>
-      <c r="BE37" s="205"/>
-      <c r="BF37" s="206"/>
-      <c r="BG37" s="206"/>
-      <c r="BH37" s="206"/>
-      <c r="BI37" s="206"/>
-      <c r="BJ37" s="206"/>
-      <c r="BK37" s="206"/>
-      <c r="BL37" s="206"/>
-      <c r="BM37" s="206"/>
+      <c r="AP37" s="245"/>
+      <c r="AQ37" s="246"/>
+      <c r="AR37" s="246"/>
+      <c r="AS37" s="243"/>
+      <c r="AT37" s="244"/>
+      <c r="AU37" s="244"/>
+      <c r="AV37" s="244"/>
+      <c r="AW37" s="244"/>
+      <c r="AX37" s="244"/>
+      <c r="AY37" s="244"/>
+      <c r="AZ37" s="244"/>
+      <c r="BA37" s="244"/>
+      <c r="BB37" s="244"/>
+      <c r="BC37" s="244"/>
+      <c r="BD37" s="244"/>
+      <c r="BE37" s="243"/>
+      <c r="BF37" s="244"/>
+      <c r="BG37" s="244"/>
+      <c r="BH37" s="244"/>
+      <c r="BI37" s="244"/>
+      <c r="BJ37" s="244"/>
+      <c r="BK37" s="244"/>
+      <c r="BL37" s="244"/>
+      <c r="BM37" s="244"/>
     </row>
     <row r="38" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP38" s="203"/>
-      <c r="AQ38" s="204"/>
-      <c r="AR38" s="204"/>
-      <c r="AS38" s="205"/>
-      <c r="AT38" s="206"/>
-      <c r="AU38" s="206"/>
-      <c r="AV38" s="206"/>
-      <c r="AW38" s="206"/>
-      <c r="AX38" s="206"/>
-      <c r="AY38" s="206"/>
-      <c r="AZ38" s="206"/>
-      <c r="BA38" s="206"/>
-      <c r="BB38" s="206"/>
-      <c r="BC38" s="206"/>
-      <c r="BD38" s="206"/>
-      <c r="BE38" s="205"/>
-      <c r="BF38" s="206"/>
-      <c r="BG38" s="206"/>
-      <c r="BH38" s="206"/>
-      <c r="BI38" s="206"/>
-      <c r="BJ38" s="206"/>
-      <c r="BK38" s="206"/>
-      <c r="BL38" s="206"/>
-      <c r="BM38" s="206"/>
+      <c r="AP38" s="245"/>
+      <c r="AQ38" s="246"/>
+      <c r="AR38" s="246"/>
+      <c r="AS38" s="243"/>
+      <c r="AT38" s="244"/>
+      <c r="AU38" s="244"/>
+      <c r="AV38" s="244"/>
+      <c r="AW38" s="244"/>
+      <c r="AX38" s="244"/>
+      <c r="AY38" s="244"/>
+      <c r="AZ38" s="244"/>
+      <c r="BA38" s="244"/>
+      <c r="BB38" s="244"/>
+      <c r="BC38" s="244"/>
+      <c r="BD38" s="244"/>
+      <c r="BE38" s="243"/>
+      <c r="BF38" s="244"/>
+      <c r="BG38" s="244"/>
+      <c r="BH38" s="244"/>
+      <c r="BI38" s="244"/>
+      <c r="BJ38" s="244"/>
+      <c r="BK38" s="244"/>
+      <c r="BL38" s="244"/>
+      <c r="BM38" s="244"/>
     </row>
     <row r="39" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP39" s="203"/>
-      <c r="AQ39" s="204"/>
-      <c r="AR39" s="204"/>
-      <c r="AS39" s="205"/>
-      <c r="AT39" s="182"/>
-      <c r="AU39" s="182"/>
-      <c r="AV39" s="182"/>
-      <c r="AW39" s="182"/>
-      <c r="AX39" s="182"/>
-      <c r="AY39" s="182"/>
-      <c r="AZ39" s="182"/>
-      <c r="BA39" s="182"/>
-      <c r="BB39" s="182"/>
-      <c r="BC39" s="182"/>
-      <c r="BD39" s="182"/>
-      <c r="BE39" s="205"/>
-      <c r="BF39" s="206"/>
-      <c r="BG39" s="206"/>
-      <c r="BH39" s="206"/>
-      <c r="BI39" s="206"/>
-      <c r="BJ39" s="206"/>
-      <c r="BK39" s="206"/>
-      <c r="BL39" s="206"/>
-      <c r="BM39" s="206"/>
+      <c r="AP39" s="245"/>
+      <c r="AQ39" s="246"/>
+      <c r="AR39" s="246"/>
+      <c r="AS39" s="243"/>
+      <c r="AT39" s="150"/>
+      <c r="AU39" s="150"/>
+      <c r="AV39" s="150"/>
+      <c r="AW39" s="150"/>
+      <c r="AX39" s="150"/>
+      <c r="AY39" s="150"/>
+      <c r="AZ39" s="150"/>
+      <c r="BA39" s="150"/>
+      <c r="BB39" s="150"/>
+      <c r="BC39" s="150"/>
+      <c r="BD39" s="150"/>
+      <c r="BE39" s="243"/>
+      <c r="BF39" s="244"/>
+      <c r="BG39" s="244"/>
+      <c r="BH39" s="244"/>
+      <c r="BI39" s="244"/>
+      <c r="BJ39" s="244"/>
+      <c r="BK39" s="244"/>
+      <c r="BL39" s="244"/>
+      <c r="BM39" s="244"/>
     </row>
     <row r="40" spans="1:66" ht="18" x14ac:dyDescent="0.15">
-      <c r="AP40" s="203"/>
-      <c r="AQ40" s="204"/>
-      <c r="AR40" s="204"/>
-      <c r="AS40" s="205"/>
-      <c r="AT40" s="206"/>
-      <c r="AU40" s="206"/>
-      <c r="AV40" s="206"/>
-      <c r="AW40" s="206"/>
-      <c r="AX40" s="206"/>
-      <c r="AY40" s="206"/>
-      <c r="AZ40" s="206"/>
-      <c r="BA40" s="206"/>
-      <c r="BB40" s="206"/>
-      <c r="BC40" s="206"/>
-      <c r="BD40" s="182"/>
-      <c r="BE40" s="205"/>
-      <c r="BF40" s="182"/>
-      <c r="BG40" s="182"/>
-      <c r="BH40" s="182"/>
-      <c r="BI40" s="182"/>
-      <c r="BJ40" s="182"/>
-      <c r="BK40" s="182"/>
-      <c r="BL40" s="182"/>
-      <c r="BM40" s="182"/>
+      <c r="AP40" s="245"/>
+      <c r="AQ40" s="246"/>
+      <c r="AR40" s="246"/>
+      <c r="AS40" s="243"/>
+      <c r="AT40" s="244"/>
+      <c r="AU40" s="244"/>
+      <c r="AV40" s="244"/>
+      <c r="AW40" s="244"/>
+      <c r="AX40" s="244"/>
+      <c r="AY40" s="244"/>
+      <c r="AZ40" s="244"/>
+      <c r="BA40" s="244"/>
+      <c r="BB40" s="244"/>
+      <c r="BC40" s="244"/>
+      <c r="BD40" s="150"/>
+      <c r="BE40" s="243"/>
+      <c r="BF40" s="150"/>
+      <c r="BG40" s="150"/>
+      <c r="BH40" s="150"/>
+      <c r="BI40" s="150"/>
+      <c r="BJ40" s="150"/>
+      <c r="BK40" s="150"/>
+      <c r="BL40" s="150"/>
+      <c r="BM40" s="150"/>
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="AP41" s="89"/>
@@ -11399,113 +11494,6 @@
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:BD12"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:BD17"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP19:AR19"/>
-    <mergeCell ref="AS19:BD19"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="AP20:AR20"/>
-    <mergeCell ref="AS20:BD20"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AS21:BD21"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BE24:BM24"/>
-    <mergeCell ref="BE25:BM25"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="AP25:AR25"/>
-    <mergeCell ref="AS25:BD25"/>
-    <mergeCell ref="AP26:AR26"/>
-    <mergeCell ref="AS26:BD26"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AS27:BD27"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AS22:BD22"/>
-    <mergeCell ref="AP23:AR23"/>
-    <mergeCell ref="AS23:BD23"/>
-    <mergeCell ref="AP24:AR24"/>
-    <mergeCell ref="AS24:BD24"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AS31:BD31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AS32:BD32"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AS33:BD33"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AS28:BD28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AS29:BD29"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AS30:BD30"/>
     <mergeCell ref="AP40:AR40"/>
     <mergeCell ref="AS40:BD40"/>
     <mergeCell ref="BE40:BM40"/>
@@ -11530,6 +11518,113 @@
     <mergeCell ref="AP35:AR35"/>
     <mergeCell ref="AS35:BD35"/>
     <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AS31:BD31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AS32:BD32"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AS33:BD33"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AS28:BD28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AS29:BD29"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AS30:BD30"/>
+    <mergeCell ref="AP25:AR25"/>
+    <mergeCell ref="AS25:BD25"/>
+    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="AS26:BD26"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AS27:BD27"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="AS22:BD22"/>
+    <mergeCell ref="AP23:AR23"/>
+    <mergeCell ref="AS23:BD23"/>
+    <mergeCell ref="AP24:AR24"/>
+    <mergeCell ref="AS24:BD24"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BE24:BM24"/>
+    <mergeCell ref="BE25:BM25"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AS19:BD19"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="AP20:AR20"/>
+    <mergeCell ref="AS20:BD20"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AS21:BD21"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:BD12"/>
+    <mergeCell ref="BE12:BM12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS13:BD13"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11542,7 +11637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -11877,34 +11972,34 @@
       <c r="BN1" s="90"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -11931,32 +12026,32 @@
       <c r="BN2" s="90"/>
     </row>
     <row r="3" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -11983,164 +12078,164 @@
       <c r="BN3" s="90"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="275" t="s">
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="278" t="s">
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="280"/>
-      <c r="U4" s="281" t="s">
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="258"/>
+      <c r="U4" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="282"/>
-      <c r="AA4" s="282"/>
-      <c r="AB4" s="282"/>
-      <c r="AC4" s="282"/>
-      <c r="AD4" s="282"/>
-      <c r="AE4" s="282"/>
-      <c r="AF4" s="282"/>
-      <c r="AG4" s="282"/>
-      <c r="AH4" s="282"/>
-      <c r="AI4" s="282"/>
-      <c r="AJ4" s="282"/>
-      <c r="AK4" s="282"/>
-      <c r="AL4" s="282"/>
-      <c r="AM4" s="282"/>
-      <c r="AN4" s="282"/>
-      <c r="AO4" s="282"/>
-      <c r="AP4" s="282"/>
-      <c r="AQ4" s="282"/>
-      <c r="AR4" s="282"/>
-      <c r="AS4" s="282"/>
-      <c r="AT4" s="282"/>
-      <c r="AU4" s="282"/>
-      <c r="AV4" s="283"/>
-      <c r="AW4" s="252" t="s">
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
+      <c r="X4" s="260"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="260"/>
+      <c r="AA4" s="260"/>
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="260"/>
+      <c r="AG4" s="260"/>
+      <c r="AH4" s="260"/>
+      <c r="AI4" s="260"/>
+      <c r="AJ4" s="260"/>
+      <c r="AK4" s="260"/>
+      <c r="AL4" s="260"/>
+      <c r="AM4" s="260"/>
+      <c r="AN4" s="260"/>
+      <c r="AO4" s="260"/>
+      <c r="AP4" s="260"/>
+      <c r="AQ4" s="260"/>
+      <c r="AR4" s="260"/>
+      <c r="AS4" s="260"/>
+      <c r="AT4" s="260"/>
+      <c r="AU4" s="260"/>
+      <c r="AV4" s="261"/>
+      <c r="AW4" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="253"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="172">
+      <c r="AX4" s="276"/>
+      <c r="AY4" s="277"/>
+      <c r="AZ4" s="179">
         <v>45447</v>
       </c>
-      <c r="BA4" s="255"/>
-      <c r="BB4" s="255"/>
-      <c r="BC4" s="255"/>
-      <c r="BD4" s="255"/>
-      <c r="BE4" s="255"/>
-      <c r="BF4" s="252" t="s">
+      <c r="BA4" s="278"/>
+      <c r="BB4" s="278"/>
+      <c r="BC4" s="278"/>
+      <c r="BD4" s="278"/>
+      <c r="BE4" s="278"/>
+      <c r="BF4" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="253"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="261" t="s">
+      <c r="BG4" s="276"/>
+      <c r="BH4" s="277"/>
+      <c r="BI4" s="281" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="262"/>
-      <c r="BK4" s="262"/>
-      <c r="BL4" s="262"/>
-      <c r="BM4" s="263"/>
+      <c r="BJ4" s="282"/>
+      <c r="BK4" s="282"/>
+      <c r="BL4" s="282"/>
+      <c r="BM4" s="283"/>
       <c r="BN4" s="90"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="267" t="s">
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="265" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="267"/>
-      <c r="N5" s="268"/>
-      <c r="O5" s="264" t="s">
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="265"/>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="265"/>
-      <c r="S5" s="265"/>
-      <c r="T5" s="266"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="270"/>
-      <c r="W5" s="270"/>
-      <c r="X5" s="270"/>
-      <c r="Y5" s="270"/>
-      <c r="Z5" s="270"/>
-      <c r="AA5" s="270"/>
-      <c r="AB5" s="270"/>
-      <c r="AC5" s="270"/>
-      <c r="AD5" s="270"/>
-      <c r="AE5" s="270"/>
-      <c r="AF5" s="270"/>
-      <c r="AG5" s="270"/>
-      <c r="AH5" s="270"/>
-      <c r="AI5" s="270"/>
-      <c r="AJ5" s="270"/>
-      <c r="AK5" s="270"/>
-      <c r="AL5" s="270"/>
-      <c r="AM5" s="270"/>
-      <c r="AN5" s="270"/>
-      <c r="AO5" s="270"/>
-      <c r="AP5" s="270"/>
-      <c r="AQ5" s="270"/>
-      <c r="AR5" s="270"/>
-      <c r="AS5" s="270"/>
-      <c r="AT5" s="270"/>
-      <c r="AU5" s="270"/>
-      <c r="AV5" s="271"/>
-      <c r="AW5" s="257" t="s">
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="264"/>
+      <c r="U5" s="267"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="268"/>
+      <c r="AA5" s="268"/>
+      <c r="AB5" s="268"/>
+      <c r="AC5" s="268"/>
+      <c r="AD5" s="268"/>
+      <c r="AE5" s="268"/>
+      <c r="AF5" s="268"/>
+      <c r="AG5" s="268"/>
+      <c r="AH5" s="268"/>
+      <c r="AI5" s="268"/>
+      <c r="AJ5" s="268"/>
+      <c r="AK5" s="268"/>
+      <c r="AL5" s="268"/>
+      <c r="AM5" s="268"/>
+      <c r="AN5" s="268"/>
+      <c r="AO5" s="268"/>
+      <c r="AP5" s="268"/>
+      <c r="AQ5" s="268"/>
+      <c r="AR5" s="268"/>
+      <c r="AS5" s="268"/>
+      <c r="AT5" s="268"/>
+      <c r="AU5" s="268"/>
+      <c r="AV5" s="269"/>
+      <c r="AW5" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="256"/>
-      <c r="AY5" s="258"/>
-      <c r="AZ5" s="256"/>
-      <c r="BA5" s="256"/>
-      <c r="BB5" s="256"/>
-      <c r="BC5" s="256"/>
-      <c r="BD5" s="256"/>
-      <c r="BE5" s="256"/>
-      <c r="BF5" s="257" t="s">
+      <c r="AX5" s="271"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="271"/>
+      <c r="BA5" s="271"/>
+      <c r="BB5" s="271"/>
+      <c r="BC5" s="271"/>
+      <c r="BD5" s="271"/>
+      <c r="BE5" s="271"/>
+      <c r="BF5" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="256"/>
-      <c r="BH5" s="258"/>
-      <c r="BI5" s="259"/>
-      <c r="BJ5" s="260"/>
-      <c r="BK5" s="260"/>
-      <c r="BL5" s="260"/>
+      <c r="BG5" s="271"/>
+      <c r="BH5" s="272"/>
+      <c r="BI5" s="279"/>
+      <c r="BJ5" s="280"/>
+      <c r="BK5" s="280"/>
+      <c r="BL5" s="280"/>
       <c r="BM5" s="91"/>
       <c r="BN5" s="90"/>
     </row>
@@ -12185,30 +12280,30 @@
       <c r="AL6" s="34"/>
       <c r="AM6" s="34"/>
       <c r="AN6" s="34"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="251"/>
-      <c r="AQ6" s="251"/>
-      <c r="AR6" s="250"/>
-      <c r="AS6" s="250"/>
-      <c r="AT6" s="250"/>
-      <c r="AU6" s="250"/>
-      <c r="AV6" s="250"/>
-      <c r="AW6" s="250"/>
-      <c r="AX6" s="250"/>
-      <c r="AY6" s="250"/>
-      <c r="AZ6" s="250"/>
-      <c r="BA6" s="250"/>
-      <c r="BB6" s="250"/>
-      <c r="BC6" s="250"/>
-      <c r="BD6" s="250"/>
-      <c r="BE6" s="251"/>
-      <c r="BF6" s="251"/>
-      <c r="BG6" s="251"/>
-      <c r="BH6" s="251"/>
-      <c r="BI6" s="251"/>
-      <c r="BJ6" s="251"/>
-      <c r="BK6" s="251"/>
-      <c r="BL6" s="251"/>
+      <c r="AO6" s="273"/>
+      <c r="AP6" s="274"/>
+      <c r="AQ6" s="274"/>
+      <c r="AR6" s="273"/>
+      <c r="AS6" s="273"/>
+      <c r="AT6" s="273"/>
+      <c r="AU6" s="273"/>
+      <c r="AV6" s="273"/>
+      <c r="AW6" s="273"/>
+      <c r="AX6" s="273"/>
+      <c r="AY6" s="273"/>
+      <c r="AZ6" s="273"/>
+      <c r="BA6" s="273"/>
+      <c r="BB6" s="273"/>
+      <c r="BC6" s="273"/>
+      <c r="BD6" s="273"/>
+      <c r="BE6" s="274"/>
+      <c r="BF6" s="274"/>
+      <c r="BG6" s="274"/>
+      <c r="BH6" s="274"/>
+      <c r="BI6" s="274"/>
+      <c r="BJ6" s="274"/>
+      <c r="BK6" s="274"/>
+      <c r="BL6" s="274"/>
       <c r="BM6" s="31"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12350,7 +12445,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="92"/>
       <c r="F9" s="39"/>
@@ -12686,7 +12781,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -13539,16 +13634,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AO6:AQ6"/>
     <mergeCell ref="AR6:BC6"/>
     <mergeCell ref="BD6:BL6"/>
@@ -13559,6 +13644,16 @@
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13569,8 +13664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19:AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13782,35 +13877,35 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="190"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -13838,33 +13933,33 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="327"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
-      <c r="T3" s="328"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="328"/>
-      <c r="W3" s="328"/>
-      <c r="X3" s="328"/>
-      <c r="Y3" s="328"/>
-      <c r="Z3" s="328"/>
-      <c r="AA3" s="328"/>
+      <c r="A3" s="303"/>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="304"/>
+      <c r="W3" s="304"/>
+      <c r="X3" s="304"/>
+      <c r="Y3" s="304"/>
+      <c r="Z3" s="304"/>
+      <c r="AA3" s="304"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
       <c r="AD3" s="50"/>
@@ -13906,164 +14001,164 @@
       <c r="BN3" s="52"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="331"/>
-      <c r="G4" s="332" t="s">
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="333"/>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="333"/>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
-      <c r="O4" s="334"/>
-      <c r="P4" s="335" t="s">
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="309"/>
+      <c r="N4" s="309"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="336"/>
-      <c r="R4" s="336"/>
-      <c r="S4" s="336"/>
-      <c r="T4" s="336"/>
-      <c r="U4" s="337"/>
-      <c r="V4" s="338" t="s">
+      <c r="Q4" s="312"/>
+      <c r="R4" s="312"/>
+      <c r="S4" s="312"/>
+      <c r="T4" s="312"/>
+      <c r="U4" s="313"/>
+      <c r="V4" s="314" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="339"/>
-      <c r="X4" s="339"/>
-      <c r="Y4" s="339"/>
-      <c r="Z4" s="339"/>
-      <c r="AA4" s="339"/>
-      <c r="AB4" s="339"/>
-      <c r="AC4" s="339"/>
-      <c r="AD4" s="339"/>
-      <c r="AE4" s="339"/>
-      <c r="AF4" s="339"/>
-      <c r="AG4" s="339"/>
-      <c r="AH4" s="339"/>
-      <c r="AI4" s="339"/>
-      <c r="AJ4" s="339"/>
-      <c r="AK4" s="339"/>
-      <c r="AL4" s="339"/>
-      <c r="AM4" s="339"/>
-      <c r="AN4" s="339"/>
-      <c r="AO4" s="339"/>
-      <c r="AP4" s="339"/>
-      <c r="AQ4" s="339"/>
-      <c r="AR4" s="339"/>
-      <c r="AS4" s="339"/>
-      <c r="AT4" s="339"/>
-      <c r="AU4" s="339"/>
-      <c r="AV4" s="340"/>
-      <c r="AW4" s="322" t="s">
+      <c r="W4" s="315"/>
+      <c r="X4" s="315"/>
+      <c r="Y4" s="315"/>
+      <c r="Z4" s="315"/>
+      <c r="AA4" s="315"/>
+      <c r="AB4" s="315"/>
+      <c r="AC4" s="315"/>
+      <c r="AD4" s="315"/>
+      <c r="AE4" s="315"/>
+      <c r="AF4" s="315"/>
+      <c r="AG4" s="315"/>
+      <c r="AH4" s="315"/>
+      <c r="AI4" s="315"/>
+      <c r="AJ4" s="315"/>
+      <c r="AK4" s="315"/>
+      <c r="AL4" s="315"/>
+      <c r="AM4" s="315"/>
+      <c r="AN4" s="315"/>
+      <c r="AO4" s="315"/>
+      <c r="AP4" s="315"/>
+      <c r="AQ4" s="315"/>
+      <c r="AR4" s="315"/>
+      <c r="AS4" s="315"/>
+      <c r="AT4" s="315"/>
+      <c r="AU4" s="315"/>
+      <c r="AV4" s="316"/>
+      <c r="AW4" s="336" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="323"/>
-      <c r="AY4" s="324"/>
-      <c r="AZ4" s="167">
+      <c r="AX4" s="337"/>
+      <c r="AY4" s="338"/>
+      <c r="AZ4" s="174">
         <v>45447</v>
       </c>
-      <c r="BA4" s="168"/>
-      <c r="BB4" s="168"/>
-      <c r="BC4" s="168"/>
-      <c r="BD4" s="168"/>
-      <c r="BE4" s="168"/>
-      <c r="BF4" s="322" t="s">
+      <c r="BA4" s="175"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="175"/>
+      <c r="BD4" s="175"/>
+      <c r="BE4" s="175"/>
+      <c r="BF4" s="336" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="323"/>
-      <c r="BH4" s="324"/>
-      <c r="BI4" s="246" t="s">
+      <c r="BG4" s="337"/>
+      <c r="BH4" s="338"/>
+      <c r="BI4" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="247"/>
-      <c r="BK4" s="247"/>
-      <c r="BL4" s="247"/>
-      <c r="BM4" s="247"/>
-      <c r="BN4" s="248"/>
+      <c r="BJ4" s="205"/>
+      <c r="BK4" s="205"/>
+      <c r="BL4" s="205"/>
+      <c r="BM4" s="205"/>
+      <c r="BN4" s="206"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="267"/>
-      <c r="N5" s="267"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="264" t="s">
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="265"/>
-      <c r="S5" s="265"/>
-      <c r="T5" s="265"/>
-      <c r="U5" s="266"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="325"/>
-      <c r="X5" s="325"/>
-      <c r="Y5" s="325"/>
-      <c r="Z5" s="325"/>
-      <c r="AA5" s="325"/>
-      <c r="AB5" s="325"/>
-      <c r="AC5" s="325"/>
-      <c r="AD5" s="325"/>
-      <c r="AE5" s="325"/>
-      <c r="AF5" s="325"/>
-      <c r="AG5" s="325"/>
-      <c r="AH5" s="325"/>
-      <c r="AI5" s="325"/>
-      <c r="AJ5" s="325"/>
-      <c r="AK5" s="325"/>
-      <c r="AL5" s="325"/>
-      <c r="AM5" s="325"/>
-      <c r="AN5" s="325"/>
-      <c r="AO5" s="325"/>
-      <c r="AP5" s="325"/>
-      <c r="AQ5" s="325"/>
-      <c r="AR5" s="325"/>
-      <c r="AS5" s="325"/>
-      <c r="AT5" s="325"/>
-      <c r="AU5" s="325"/>
-      <c r="AV5" s="326"/>
-      <c r="AW5" s="257" t="s">
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="339"/>
+      <c r="X5" s="339"/>
+      <c r="Y5" s="339"/>
+      <c r="Z5" s="339"/>
+      <c r="AA5" s="339"/>
+      <c r="AB5" s="339"/>
+      <c r="AC5" s="339"/>
+      <c r="AD5" s="339"/>
+      <c r="AE5" s="339"/>
+      <c r="AF5" s="339"/>
+      <c r="AG5" s="339"/>
+      <c r="AH5" s="339"/>
+      <c r="AI5" s="339"/>
+      <c r="AJ5" s="339"/>
+      <c r="AK5" s="339"/>
+      <c r="AL5" s="339"/>
+      <c r="AM5" s="339"/>
+      <c r="AN5" s="339"/>
+      <c r="AO5" s="339"/>
+      <c r="AP5" s="339"/>
+      <c r="AQ5" s="339"/>
+      <c r="AR5" s="339"/>
+      <c r="AS5" s="339"/>
+      <c r="AT5" s="339"/>
+      <c r="AU5" s="339"/>
+      <c r="AV5" s="340"/>
+      <c r="AW5" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="256"/>
-      <c r="AY5" s="258"/>
-      <c r="AZ5" s="256"/>
-      <c r="BA5" s="256"/>
-      <c r="BB5" s="256"/>
-      <c r="BC5" s="256"/>
-      <c r="BD5" s="256"/>
-      <c r="BE5" s="256"/>
-      <c r="BF5" s="257" t="s">
+      <c r="AX5" s="271"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="271"/>
+      <c r="BA5" s="271"/>
+      <c r="BB5" s="271"/>
+      <c r="BC5" s="271"/>
+      <c r="BD5" s="271"/>
+      <c r="BE5" s="271"/>
+      <c r="BF5" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="256"/>
-      <c r="BH5" s="258"/>
-      <c r="BI5" s="269"/>
-      <c r="BJ5" s="325"/>
-      <c r="BK5" s="325"/>
-      <c r="BL5" s="325"/>
-      <c r="BM5" s="325"/>
-      <c r="BN5" s="326"/>
+      <c r="BG5" s="271"/>
+      <c r="BH5" s="272"/>
+      <c r="BI5" s="267"/>
+      <c r="BJ5" s="339"/>
+      <c r="BK5" s="339"/>
+      <c r="BL5" s="339"/>
+      <c r="BM5" s="339"/>
+      <c r="BN5" s="340"/>
     </row>
     <row r="6" spans="1:66" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="53"/>
@@ -14134,166 +14229,166 @@
       <c r="BN6" s="65"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="342"/>
-      <c r="C7" s="342"/>
-      <c r="D7" s="342"/>
-      <c r="E7" s="342"/>
-      <c r="F7" s="342"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="342"/>
-      <c r="I7" s="342"/>
-      <c r="J7" s="342"/>
-      <c r="K7" s="342"/>
-      <c r="L7" s="342"/>
-      <c r="M7" s="342"/>
-      <c r="N7" s="342"/>
-      <c r="O7" s="342"/>
-      <c r="P7" s="342"/>
-      <c r="Q7" s="342"/>
-      <c r="R7" s="342"/>
-      <c r="S7" s="342"/>
-      <c r="T7" s="342"/>
-      <c r="U7" s="342"/>
-      <c r="V7" s="342"/>
-      <c r="W7" s="342"/>
-      <c r="X7" s="342"/>
-      <c r="Y7" s="342"/>
-      <c r="Z7" s="342"/>
-      <c r="AA7" s="342"/>
-      <c r="AB7" s="343"/>
-      <c r="AC7" s="341" t="s">
+      <c r="B7" s="318"/>
+      <c r="C7" s="318"/>
+      <c r="D7" s="318"/>
+      <c r="E7" s="318"/>
+      <c r="F7" s="318"/>
+      <c r="G7" s="318"/>
+      <c r="H7" s="318"/>
+      <c r="I7" s="318"/>
+      <c r="J7" s="318"/>
+      <c r="K7" s="318"/>
+      <c r="L7" s="318"/>
+      <c r="M7" s="318"/>
+      <c r="N7" s="318"/>
+      <c r="O7" s="318"/>
+      <c r="P7" s="318"/>
+      <c r="Q7" s="318"/>
+      <c r="R7" s="318"/>
+      <c r="S7" s="318"/>
+      <c r="T7" s="318"/>
+      <c r="U7" s="318"/>
+      <c r="V7" s="318"/>
+      <c r="W7" s="318"/>
+      <c r="X7" s="318"/>
+      <c r="Y7" s="318"/>
+      <c r="Z7" s="318"/>
+      <c r="AA7" s="318"/>
+      <c r="AB7" s="319"/>
+      <c r="AC7" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AD7" s="342"/>
-      <c r="AE7" s="342"/>
-      <c r="AF7" s="342"/>
-      <c r="AG7" s="342"/>
-      <c r="AH7" s="342"/>
-      <c r="AI7" s="342"/>
-      <c r="AJ7" s="342"/>
-      <c r="AK7" s="342"/>
-      <c r="AL7" s="342"/>
-      <c r="AM7" s="342"/>
-      <c r="AN7" s="344"/>
-      <c r="AO7" s="309" t="s">
+      <c r="AD7" s="318"/>
+      <c r="AE7" s="318"/>
+      <c r="AF7" s="318"/>
+      <c r="AG7" s="318"/>
+      <c r="AH7" s="318"/>
+      <c r="AI7" s="318"/>
+      <c r="AJ7" s="318"/>
+      <c r="AK7" s="318"/>
+      <c r="AL7" s="318"/>
+      <c r="AM7" s="318"/>
+      <c r="AN7" s="320"/>
+      <c r="AO7" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="AP7" s="345"/>
-      <c r="AQ7" s="345"/>
-      <c r="AR7" s="345"/>
-      <c r="AS7" s="345"/>
-      <c r="AT7" s="345"/>
-      <c r="AU7" s="345"/>
-      <c r="AV7" s="345"/>
-      <c r="AW7" s="345"/>
-      <c r="AX7" s="345"/>
-      <c r="AY7" s="345"/>
-      <c r="AZ7" s="345"/>
-      <c r="BA7" s="345"/>
-      <c r="BB7" s="345"/>
-      <c r="BC7" s="345"/>
-      <c r="BD7" s="345"/>
-      <c r="BE7" s="345"/>
-      <c r="BF7" s="345"/>
-      <c r="BG7" s="345"/>
-      <c r="BH7" s="345"/>
-      <c r="BI7" s="345"/>
-      <c r="BJ7" s="345"/>
-      <c r="BK7" s="345"/>
-      <c r="BL7" s="346"/>
-      <c r="BM7" s="309"/>
-      <c r="BN7" s="310"/>
+      <c r="AP7" s="322"/>
+      <c r="AQ7" s="322"/>
+      <c r="AR7" s="322"/>
+      <c r="AS7" s="322"/>
+      <c r="AT7" s="322"/>
+      <c r="AU7" s="322"/>
+      <c r="AV7" s="322"/>
+      <c r="AW7" s="322"/>
+      <c r="AX7" s="322"/>
+      <c r="AY7" s="322"/>
+      <c r="AZ7" s="322"/>
+      <c r="BA7" s="322"/>
+      <c r="BB7" s="322"/>
+      <c r="BC7" s="322"/>
+      <c r="BD7" s="322"/>
+      <c r="BE7" s="322"/>
+      <c r="BF7" s="322"/>
+      <c r="BG7" s="322"/>
+      <c r="BH7" s="322"/>
+      <c r="BI7" s="322"/>
+      <c r="BJ7" s="322"/>
+      <c r="BK7" s="322"/>
+      <c r="BL7" s="323"/>
+      <c r="BM7" s="321"/>
+      <c r="BN7" s="341"/>
     </row>
     <row r="8" spans="1:66" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="313" t="s">
+      <c r="B8" s="344" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="314"/>
-      <c r="H8" s="314"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="315"/>
-      <c r="M8" s="316" t="s">
+      <c r="C8" s="345"/>
+      <c r="D8" s="345"/>
+      <c r="E8" s="345"/>
+      <c r="F8" s="345"/>
+      <c r="G8" s="345"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="346"/>
+      <c r="M8" s="347" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="317"/>
-      <c r="O8" s="317"/>
-      <c r="P8" s="318"/>
-      <c r="Q8" s="316" t="s">
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="349"/>
+      <c r="Q8" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="318"/>
-      <c r="S8" s="316" t="s">
+      <c r="R8" s="349"/>
+      <c r="S8" s="347" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="318"/>
-      <c r="U8" s="316" t="s">
+      <c r="T8" s="349"/>
+      <c r="U8" s="347" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="318"/>
-      <c r="W8" s="316" t="s">
+      <c r="V8" s="349"/>
+      <c r="W8" s="347" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="318"/>
-      <c r="Y8" s="313" t="s">
+      <c r="X8" s="349"/>
+      <c r="Y8" s="344" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="314"/>
-      <c r="AA8" s="314"/>
-      <c r="AB8" s="319"/>
-      <c r="AC8" s="320" t="s">
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="350"/>
+      <c r="AC8" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="314"/>
-      <c r="AE8" s="314"/>
-      <c r="AF8" s="314"/>
-      <c r="AG8" s="315"/>
-      <c r="AH8" s="317" t="s">
+      <c r="AD8" s="345"/>
+      <c r="AE8" s="345"/>
+      <c r="AF8" s="345"/>
+      <c r="AG8" s="346"/>
+      <c r="AH8" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="AI8" s="317"/>
-      <c r="AJ8" s="317"/>
-      <c r="AK8" s="317"/>
-      <c r="AL8" s="317"/>
-      <c r="AM8" s="317"/>
-      <c r="AN8" s="321"/>
-      <c r="AO8" s="347"/>
-      <c r="AP8" s="348"/>
-      <c r="AQ8" s="348"/>
-      <c r="AR8" s="348"/>
-      <c r="AS8" s="348"/>
-      <c r="AT8" s="348"/>
-      <c r="AU8" s="348"/>
-      <c r="AV8" s="348"/>
-      <c r="AW8" s="348"/>
-      <c r="AX8" s="348"/>
-      <c r="AY8" s="348"/>
-      <c r="AZ8" s="348"/>
-      <c r="BA8" s="348"/>
-      <c r="BB8" s="348"/>
-      <c r="BC8" s="348"/>
-      <c r="BD8" s="348"/>
-      <c r="BE8" s="348"/>
-      <c r="BF8" s="348"/>
-      <c r="BG8" s="348"/>
-      <c r="BH8" s="348"/>
-      <c r="BI8" s="348"/>
-      <c r="BJ8" s="348"/>
-      <c r="BK8" s="348"/>
-      <c r="BL8" s="321"/>
-      <c r="BM8" s="311"/>
-      <c r="BN8" s="312"/>
+      <c r="AI8" s="348"/>
+      <c r="AJ8" s="348"/>
+      <c r="AK8" s="348"/>
+      <c r="AL8" s="348"/>
+      <c r="AM8" s="348"/>
+      <c r="AN8" s="326"/>
+      <c r="AO8" s="324"/>
+      <c r="AP8" s="325"/>
+      <c r="AQ8" s="325"/>
+      <c r="AR8" s="325"/>
+      <c r="AS8" s="325"/>
+      <c r="AT8" s="325"/>
+      <c r="AU8" s="325"/>
+      <c r="AV8" s="325"/>
+      <c r="AW8" s="325"/>
+      <c r="AX8" s="325"/>
+      <c r="AY8" s="325"/>
+      <c r="AZ8" s="325"/>
+      <c r="BA8" s="325"/>
+      <c r="BB8" s="325"/>
+      <c r="BC8" s="325"/>
+      <c r="BD8" s="325"/>
+      <c r="BE8" s="325"/>
+      <c r="BF8" s="325"/>
+      <c r="BG8" s="325"/>
+      <c r="BH8" s="325"/>
+      <c r="BI8" s="325"/>
+      <c r="BJ8" s="325"/>
+      <c r="BK8" s="325"/>
+      <c r="BL8" s="326"/>
+      <c r="BM8" s="342"/>
+      <c r="BN8" s="343"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93">
@@ -14302,84 +14397,84 @@
       <c r="B9" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="284" t="s">
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="297"/>
+      <c r="M9" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="349" t="s">
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="327" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="350"/>
-      <c r="S9" s="351" t="s">
+      <c r="R9" s="328"/>
+      <c r="S9" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="352"/>
-      <c r="U9" s="353" t="s">
+      <c r="T9" s="330"/>
+      <c r="U9" s="331" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="354"/>
-      <c r="W9" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" s="355"/>
-      <c r="Y9" s="284" t="s">
+      <c r="V9" s="332"/>
+      <c r="W9" s="292" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" s="333"/>
+      <c r="Y9" s="292" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="285"/>
-      <c r="AA9" s="285"/>
-      <c r="AB9" s="355"/>
-      <c r="AC9" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD9" s="288"/>
-      <c r="AE9" s="288"/>
-      <c r="AF9" s="288"/>
-      <c r="AG9" s="289"/>
-      <c r="AH9" s="290" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI9" s="356"/>
-      <c r="AJ9" s="356"/>
-      <c r="AK9" s="356"/>
-      <c r="AL9" s="356"/>
-      <c r="AM9" s="356"/>
-      <c r="AN9" s="357"/>
-      <c r="AO9" s="358"/>
-      <c r="AP9" s="359"/>
-      <c r="AQ9" s="359"/>
-      <c r="AR9" s="359"/>
-      <c r="AS9" s="359"/>
-      <c r="AT9" s="359"/>
-      <c r="AU9" s="359"/>
-      <c r="AV9" s="359"/>
-      <c r="AW9" s="359"/>
-      <c r="AX9" s="359"/>
-      <c r="AY9" s="359"/>
-      <c r="AZ9" s="359"/>
-      <c r="BA9" s="359"/>
-      <c r="BB9" s="359"/>
-      <c r="BC9" s="359"/>
-      <c r="BD9" s="359"/>
-      <c r="BE9" s="359"/>
-      <c r="BF9" s="359"/>
-      <c r="BG9" s="359"/>
-      <c r="BH9" s="359"/>
-      <c r="BI9" s="359"/>
-      <c r="BJ9" s="359"/>
-      <c r="BK9" s="359"/>
-      <c r="BL9" s="359"/>
+      <c r="Z9" s="293"/>
+      <c r="AA9" s="293"/>
+      <c r="AB9" s="333"/>
+      <c r="AC9" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="285"/>
+      <c r="AF9" s="285"/>
+      <c r="AG9" s="286"/>
+      <c r="AH9" s="287" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI9" s="288"/>
+      <c r="AJ9" s="288"/>
+      <c r="AK9" s="288"/>
+      <c r="AL9" s="288"/>
+      <c r="AM9" s="288"/>
+      <c r="AN9" s="289"/>
+      <c r="AO9" s="334"/>
+      <c r="AP9" s="335"/>
+      <c r="AQ9" s="335"/>
+      <c r="AR9" s="335"/>
+      <c r="AS9" s="335"/>
+      <c r="AT9" s="335"/>
+      <c r="AU9" s="335"/>
+      <c r="AV9" s="335"/>
+      <c r="AW9" s="335"/>
+      <c r="AX9" s="335"/>
+      <c r="AY9" s="335"/>
+      <c r="AZ9" s="335"/>
+      <c r="BA9" s="335"/>
+      <c r="BB9" s="335"/>
+      <c r="BC9" s="335"/>
+      <c r="BD9" s="335"/>
+      <c r="BE9" s="335"/>
+      <c r="BF9" s="335"/>
+      <c r="BG9" s="335"/>
+      <c r="BH9" s="335"/>
+      <c r="BI9" s="335"/>
+      <c r="BJ9" s="335"/>
+      <c r="BK9" s="335"/>
+      <c r="BL9" s="335"/>
       <c r="BM9" s="66"/>
       <c r="BN9" s="67"/>
     </row>
@@ -14390,60 +14485,60 @@
       <c r="B10" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="306"/>
-      <c r="M10" s="284" t="s">
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="297"/>
+      <c r="M10" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="285"/>
-      <c r="O10" s="285"/>
-      <c r="P10" s="286"/>
-      <c r="Q10" s="307" t="s">
+      <c r="N10" s="293"/>
+      <c r="O10" s="293"/>
+      <c r="P10" s="294"/>
+      <c r="Q10" s="295" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="308"/>
-      <c r="S10" s="284" t="s">
+      <c r="R10" s="296"/>
+      <c r="S10" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T10" s="285"/>
-      <c r="U10" s="284" t="s">
+      <c r="T10" s="293"/>
+      <c r="U10" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" s="293"/>
+      <c r="W10" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="285"/>
-      <c r="W10" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" s="285"/>
-      <c r="Y10" s="284" t="s">
+      <c r="X10" s="293"/>
+      <c r="Y10" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z10" s="285"/>
-      <c r="AA10" s="285"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="287" t="s">
+      <c r="Z10" s="293"/>
+      <c r="AA10" s="293"/>
+      <c r="AB10" s="294"/>
+      <c r="AC10" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="AD10" s="288"/>
-      <c r="AE10" s="288"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="289"/>
-      <c r="AH10" s="290" t="s">
+      <c r="AD10" s="285"/>
+      <c r="AE10" s="285"/>
+      <c r="AF10" s="285"/>
+      <c r="AG10" s="286"/>
+      <c r="AH10" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="AI10" s="356"/>
-      <c r="AJ10" s="356"/>
-      <c r="AK10" s="356"/>
-      <c r="AL10" s="356"/>
-      <c r="AM10" s="356"/>
-      <c r="AN10" s="357"/>
+      <c r="AI10" s="288"/>
+      <c r="AJ10" s="288"/>
+      <c r="AK10" s="288"/>
+      <c r="AL10" s="288"/>
+      <c r="AM10" s="288"/>
+      <c r="AN10" s="289"/>
       <c r="AO10" s="124"/>
       <c r="AP10" s="125"/>
       <c r="AQ10" s="125"/>
@@ -14478,60 +14573,61 @@
       <c r="B11" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="306"/>
-      <c r="M11" s="284" t="s">
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="234"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="297"/>
+      <c r="M11" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="285"/>
-      <c r="O11" s="285"/>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="307">
+      <c r="N11" s="293"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="295">
         <v>6</v>
       </c>
-      <c r="R11" s="308"/>
-      <c r="S11" s="284" t="s">
+      <c r="R11" s="296"/>
+      <c r="S11" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="285"/>
-      <c r="U11" s="284" t="s">
+      <c r="T11" s="293"/>
+      <c r="U11" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" s="293"/>
+      <c r="W11" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="285"/>
-      <c r="W11" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X11" s="285"/>
-      <c r="Y11" s="284" t="s">
+      <c r="X11" s="293"/>
+      <c r="Y11" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="285"/>
-      <c r="AB11" s="286"/>
-      <c r="AC11" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD11" s="288"/>
-      <c r="AE11" s="288"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="289"/>
-      <c r="AH11" s="290" t="s">
+      <c r="Z11" s="293"/>
+      <c r="AA11" s="293"/>
+      <c r="AB11" s="294"/>
+      <c r="AC11" s="284" t="str">
+        <f>[2]勤怠情報!$F$2</f>
+        <v>workinfo</v>
+      </c>
+      <c r="AD11" s="285"/>
+      <c r="AE11" s="285"/>
+      <c r="AF11" s="285"/>
+      <c r="AG11" s="286"/>
+      <c r="AH11" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="AI11" s="291"/>
-      <c r="AJ11" s="291"/>
-      <c r="AK11" s="291"/>
-      <c r="AL11" s="291"/>
-      <c r="AM11" s="291"/>
-      <c r="AN11" s="292"/>
+      <c r="AI11" s="290"/>
+      <c r="AJ11" s="290"/>
+      <c r="AK11" s="290"/>
+      <c r="AL11" s="290"/>
+      <c r="AM11" s="290"/>
+      <c r="AN11" s="291"/>
       <c r="AO11" s="124"/>
       <c r="AP11" s="125"/>
       <c r="AQ11" s="125"/>
@@ -14566,60 +14662,61 @@
       <c r="B12" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="306"/>
-      <c r="M12" s="284" t="s">
+      <c r="C12" s="234"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="297"/>
+      <c r="M12" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="285"/>
-      <c r="O12" s="285"/>
-      <c r="P12" s="286"/>
-      <c r="Q12" s="307">
+      <c r="N12" s="293"/>
+      <c r="O12" s="293"/>
+      <c r="P12" s="294"/>
+      <c r="Q12" s="295">
         <v>15</v>
       </c>
-      <c r="R12" s="308"/>
-      <c r="S12" s="284" t="s">
+      <c r="R12" s="296"/>
+      <c r="S12" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="285"/>
-      <c r="U12" s="284" t="s">
+      <c r="T12" s="293"/>
+      <c r="U12" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="293"/>
+      <c r="W12" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V12" s="285"/>
-      <c r="W12" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X12" s="285"/>
-      <c r="Y12" s="284" t="s">
+      <c r="X12" s="293"/>
+      <c r="Y12" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z12" s="285"/>
-      <c r="AA12" s="285"/>
-      <c r="AB12" s="286"/>
-      <c r="AC12" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD12" s="288"/>
-      <c r="AE12" s="288"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="289"/>
-      <c r="AH12" s="290" t="s">
+      <c r="Z12" s="293"/>
+      <c r="AA12" s="293"/>
+      <c r="AB12" s="294"/>
+      <c r="AC12" s="284" t="str">
+        <f>[2]取引先情報!$F$2</f>
+        <v>company</v>
+      </c>
+      <c r="AD12" s="285"/>
+      <c r="AE12" s="285"/>
+      <c r="AF12" s="285"/>
+      <c r="AG12" s="286"/>
+      <c r="AH12" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="AI12" s="291"/>
-      <c r="AJ12" s="291"/>
-      <c r="AK12" s="291"/>
-      <c r="AL12" s="291"/>
-      <c r="AM12" s="291"/>
-      <c r="AN12" s="292"/>
+      <c r="AI12" s="290"/>
+      <c r="AJ12" s="290"/>
+      <c r="AK12" s="290"/>
+      <c r="AL12" s="290"/>
+      <c r="AM12" s="290"/>
+      <c r="AN12" s="291"/>
       <c r="AO12" s="124"/>
       <c r="AP12" s="125"/>
       <c r="AQ12" s="125"/>
@@ -14654,60 +14751,61 @@
       <c r="B13" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="306"/>
-      <c r="M13" s="284" t="s">
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="234"/>
+      <c r="K13" s="234"/>
+      <c r="L13" s="297"/>
+      <c r="M13" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="285"/>
-      <c r="O13" s="285"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="307">
+      <c r="N13" s="293"/>
+      <c r="O13" s="293"/>
+      <c r="P13" s="294"/>
+      <c r="Q13" s="295">
         <v>3</v>
       </c>
-      <c r="R13" s="308"/>
-      <c r="S13" s="284" t="s">
+      <c r="R13" s="296"/>
+      <c r="S13" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T13" s="285"/>
-      <c r="U13" s="284" t="s">
+      <c r="T13" s="293"/>
+      <c r="U13" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="293"/>
+      <c r="W13" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V13" s="285"/>
-      <c r="W13" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X13" s="285"/>
-      <c r="Y13" s="284" t="s">
+      <c r="X13" s="293"/>
+      <c r="Y13" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="285"/>
-      <c r="AA13" s="285"/>
-      <c r="AB13" s="286"/>
-      <c r="AC13" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD13" s="288"/>
-      <c r="AE13" s="288"/>
-      <c r="AF13" s="288"/>
-      <c r="AG13" s="289"/>
-      <c r="AH13" s="290" t="s">
+      <c r="Z13" s="293"/>
+      <c r="AA13" s="293"/>
+      <c r="AB13" s="294"/>
+      <c r="AC13" s="284" t="str">
+        <f>[2]契約情報!$F$2</f>
+        <v>contract</v>
+      </c>
+      <c r="AD13" s="285"/>
+      <c r="AE13" s="285"/>
+      <c r="AF13" s="285"/>
+      <c r="AG13" s="286"/>
+      <c r="AH13" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="AI13" s="291"/>
-      <c r="AJ13" s="291"/>
-      <c r="AK13" s="291"/>
-      <c r="AL13" s="291"/>
-      <c r="AM13" s="291"/>
-      <c r="AN13" s="292"/>
+      <c r="AI13" s="290"/>
+      <c r="AJ13" s="290"/>
+      <c r="AK13" s="290"/>
+      <c r="AL13" s="290"/>
+      <c r="AM13" s="290"/>
+      <c r="AN13" s="291"/>
       <c r="AO13" s="124"/>
       <c r="AP13" s="125"/>
       <c r="AQ13" s="125"/>
@@ -14742,60 +14840,61 @@
       <c r="B14" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="223"/>
-      <c r="L14" s="306"/>
-      <c r="M14" s="284" t="s">
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="234"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="297"/>
+      <c r="M14" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="285"/>
-      <c r="O14" s="285"/>
-      <c r="P14" s="286"/>
-      <c r="Q14" s="307">
+      <c r="N14" s="293"/>
+      <c r="O14" s="293"/>
+      <c r="P14" s="294"/>
+      <c r="Q14" s="295">
         <v>7</v>
       </c>
-      <c r="R14" s="308"/>
-      <c r="S14" s="284" t="s">
+      <c r="R14" s="296"/>
+      <c r="S14" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="285"/>
-      <c r="U14" s="284" t="s">
+      <c r="T14" s="293"/>
+      <c r="U14" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V14" s="293"/>
+      <c r="W14" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V14" s="285"/>
-      <c r="W14" s="284" t="s">
+      <c r="X14" s="293"/>
+      <c r="Y14" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="X14" s="285"/>
-      <c r="Y14" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z14" s="285"/>
-      <c r="AA14" s="285"/>
-      <c r="AB14" s="286"/>
-      <c r="AC14" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD14" s="288"/>
-      <c r="AE14" s="288"/>
-      <c r="AF14" s="288"/>
-      <c r="AG14" s="289"/>
-      <c r="AH14" s="290" t="s">
+      <c r="Z14" s="293"/>
+      <c r="AA14" s="293"/>
+      <c r="AB14" s="294"/>
+      <c r="AC14" s="284" t="str">
+        <f>[2]契約情報!$F$2</f>
+        <v>contract</v>
+      </c>
+      <c r="AD14" s="285"/>
+      <c r="AE14" s="285"/>
+      <c r="AF14" s="285"/>
+      <c r="AG14" s="286"/>
+      <c r="AH14" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="AI14" s="291"/>
-      <c r="AJ14" s="291"/>
-      <c r="AK14" s="291"/>
-      <c r="AL14" s="291"/>
-      <c r="AM14" s="291"/>
-      <c r="AN14" s="292"/>
+      <c r="AI14" s="290"/>
+      <c r="AJ14" s="290"/>
+      <c r="AK14" s="290"/>
+      <c r="AL14" s="290"/>
+      <c r="AM14" s="290"/>
+      <c r="AN14" s="291"/>
       <c r="AO14" s="124"/>
       <c r="AP14" s="125"/>
       <c r="AQ14" s="125"/>
@@ -14830,60 +14929,60 @@
       <c r="B15" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="223"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="223"/>
-      <c r="L15" s="306"/>
-      <c r="M15" s="284" t="s">
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="297"/>
+      <c r="M15" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="285"/>
-      <c r="O15" s="285"/>
-      <c r="P15" s="286"/>
-      <c r="Q15" s="307">
+      <c r="N15" s="293"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="294"/>
+      <c r="Q15" s="295">
         <v>4</v>
       </c>
-      <c r="R15" s="308"/>
-      <c r="S15" s="284" t="s">
+      <c r="R15" s="296"/>
+      <c r="S15" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T15" s="285"/>
-      <c r="U15" s="284" t="s">
+      <c r="T15" s="293"/>
+      <c r="U15" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="293"/>
+      <c r="W15" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="285"/>
-      <c r="W15" s="284" t="s">
+      <c r="X15" s="293"/>
+      <c r="Y15" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="X15" s="285"/>
-      <c r="Y15" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z15" s="285"/>
-      <c r="AA15" s="285"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD15" s="288"/>
-      <c r="AE15" s="288"/>
-      <c r="AF15" s="288"/>
-      <c r="AG15" s="289"/>
-      <c r="AH15" s="290" t="s">
+      <c r="Z15" s="293"/>
+      <c r="AA15" s="293"/>
+      <c r="AB15" s="294"/>
+      <c r="AC15" s="284" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD15" s="285"/>
+      <c r="AE15" s="285"/>
+      <c r="AF15" s="285"/>
+      <c r="AG15" s="286"/>
+      <c r="AH15" s="287" t="s">
         <v>104</v>
       </c>
-      <c r="AI15" s="291"/>
-      <c r="AJ15" s="291"/>
-      <c r="AK15" s="291"/>
-      <c r="AL15" s="291"/>
-      <c r="AM15" s="291"/>
-      <c r="AN15" s="292"/>
+      <c r="AI15" s="290"/>
+      <c r="AJ15" s="290"/>
+      <c r="AK15" s="290"/>
+      <c r="AL15" s="290"/>
+      <c r="AM15" s="290"/>
+      <c r="AN15" s="291"/>
       <c r="AO15" s="124"/>
       <c r="AP15" s="125"/>
       <c r="AQ15" s="125"/>
@@ -14918,60 +15017,60 @@
       <c r="B16" s="210" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="306"/>
-      <c r="M16" s="284" t="s">
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="297"/>
+      <c r="M16" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="285"/>
-      <c r="O16" s="285"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="307">
+      <c r="N16" s="293"/>
+      <c r="O16" s="293"/>
+      <c r="P16" s="294"/>
+      <c r="Q16" s="295">
         <v>4</v>
       </c>
-      <c r="R16" s="308"/>
-      <c r="S16" s="284" t="s">
+      <c r="R16" s="296"/>
+      <c r="S16" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T16" s="285"/>
-      <c r="U16" s="284" t="s">
+      <c r="T16" s="293"/>
+      <c r="U16" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" s="293"/>
+      <c r="W16" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V16" s="285"/>
-      <c r="W16" s="284" t="s">
+      <c r="X16" s="293"/>
+      <c r="Y16" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="X16" s="285"/>
-      <c r="Y16" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="285"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD16" s="288"/>
-      <c r="AE16" s="288"/>
-      <c r="AF16" s="288"/>
-      <c r="AG16" s="289"/>
-      <c r="AH16" s="290" t="s">
+      <c r="Z16" s="293"/>
+      <c r="AA16" s="293"/>
+      <c r="AB16" s="294"/>
+      <c r="AC16" s="284" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD16" s="285"/>
+      <c r="AE16" s="285"/>
+      <c r="AF16" s="285"/>
+      <c r="AG16" s="286"/>
+      <c r="AH16" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="AI16" s="291"/>
-      <c r="AJ16" s="291"/>
-      <c r="AK16" s="291"/>
-      <c r="AL16" s="291"/>
-      <c r="AM16" s="291"/>
-      <c r="AN16" s="292"/>
+      <c r="AI16" s="290"/>
+      <c r="AJ16" s="290"/>
+      <c r="AK16" s="290"/>
+      <c r="AL16" s="290"/>
+      <c r="AM16" s="290"/>
+      <c r="AN16" s="291"/>
       <c r="AO16" s="124"/>
       <c r="AP16" s="125"/>
       <c r="AQ16" s="125"/>
@@ -15006,60 +15105,61 @@
       <c r="B17" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="306"/>
-      <c r="M17" s="284" t="s">
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="297"/>
+      <c r="M17" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N17" s="285"/>
-      <c r="O17" s="285"/>
-      <c r="P17" s="286"/>
-      <c r="Q17" s="307">
+      <c r="N17" s="293"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="295">
         <v>3</v>
       </c>
-      <c r="R17" s="308"/>
-      <c r="S17" s="284" t="s">
+      <c r="R17" s="296"/>
+      <c r="S17" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T17" s="285"/>
-      <c r="U17" s="284" t="s">
+      <c r="T17" s="293"/>
+      <c r="U17" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="293"/>
+      <c r="W17" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V17" s="285"/>
-      <c r="W17" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X17" s="285"/>
-      <c r="Y17" s="284" t="s">
+      <c r="X17" s="293"/>
+      <c r="Y17" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="286"/>
-      <c r="AC17" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD17" s="288"/>
-      <c r="AE17" s="288"/>
-      <c r="AF17" s="288"/>
-      <c r="AG17" s="289"/>
-      <c r="AH17" s="290" t="s">
+      <c r="Z17" s="293"/>
+      <c r="AA17" s="293"/>
+      <c r="AB17" s="294"/>
+      <c r="AC17" s="284" t="str">
+        <f>[2]勤怠情報!$F$2</f>
+        <v>workinfo</v>
+      </c>
+      <c r="AD17" s="285"/>
+      <c r="AE17" s="285"/>
+      <c r="AF17" s="285"/>
+      <c r="AG17" s="286"/>
+      <c r="AH17" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="AI17" s="291"/>
-      <c r="AJ17" s="291"/>
-      <c r="AK17" s="291"/>
-      <c r="AL17" s="291"/>
-      <c r="AM17" s="291"/>
-      <c r="AN17" s="292"/>
+      <c r="AI17" s="290"/>
+      <c r="AJ17" s="290"/>
+      <c r="AK17" s="290"/>
+      <c r="AL17" s="290"/>
+      <c r="AM17" s="290"/>
+      <c r="AN17" s="291"/>
       <c r="AO17" s="124"/>
       <c r="AP17" s="125"/>
       <c r="AQ17" s="125"/>
@@ -15094,60 +15194,60 @@
       <c r="B18" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="306"/>
-      <c r="M18" s="284" t="s">
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="297"/>
+      <c r="M18" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="285"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="286"/>
-      <c r="Q18" s="307">
+      <c r="N18" s="293"/>
+      <c r="O18" s="293"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="295">
         <v>2</v>
       </c>
-      <c r="R18" s="308"/>
-      <c r="S18" s="284" t="s">
+      <c r="R18" s="296"/>
+      <c r="S18" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T18" s="285"/>
-      <c r="U18" s="284" t="s">
+      <c r="T18" s="293"/>
+      <c r="U18" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V18" s="293"/>
+      <c r="W18" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V18" s="285"/>
-      <c r="W18" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X18" s="285"/>
-      <c r="Y18" s="284" t="s">
+      <c r="X18" s="293"/>
+      <c r="Y18" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z18" s="285"/>
-      <c r="AA18" s="285"/>
-      <c r="AB18" s="286"/>
-      <c r="AC18" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="289"/>
-      <c r="AH18" s="290" t="s">
+      <c r="Z18" s="293"/>
+      <c r="AA18" s="293"/>
+      <c r="AB18" s="294"/>
+      <c r="AC18" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD18" s="285"/>
+      <c r="AE18" s="285"/>
+      <c r="AF18" s="285"/>
+      <c r="AG18" s="286"/>
+      <c r="AH18" s="287" t="s">
         <v>107</v>
       </c>
-      <c r="AI18" s="291"/>
-      <c r="AJ18" s="291"/>
-      <c r="AK18" s="291"/>
-      <c r="AL18" s="291"/>
-      <c r="AM18" s="291"/>
-      <c r="AN18" s="292"/>
+      <c r="AI18" s="290"/>
+      <c r="AJ18" s="290"/>
+      <c r="AK18" s="290"/>
+      <c r="AL18" s="290"/>
+      <c r="AM18" s="290"/>
+      <c r="AN18" s="291"/>
       <c r="AO18" s="124"/>
       <c r="AP18" s="125"/>
       <c r="AQ18" s="125"/>
@@ -15182,60 +15282,60 @@
       <c r="B19" s="210" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="306"/>
-      <c r="M19" s="284" t="s">
+      <c r="C19" s="234"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="285"/>
-      <c r="O19" s="285"/>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="307">
+      <c r="N19" s="293"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="294"/>
+      <c r="Q19" s="295">
         <v>2</v>
       </c>
-      <c r="R19" s="308"/>
-      <c r="S19" s="284" t="s">
+      <c r="R19" s="296"/>
+      <c r="S19" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T19" s="285"/>
-      <c r="U19" s="284" t="s">
+      <c r="T19" s="293"/>
+      <c r="U19" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V19" s="293"/>
+      <c r="W19" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V19" s="285"/>
-      <c r="W19" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="X19" s="285"/>
-      <c r="Y19" s="284" t="s">
+      <c r="X19" s="293"/>
+      <c r="Y19" s="292" t="s">
         <v>64</v>
       </c>
-      <c r="Z19" s="285"/>
-      <c r="AA19" s="285"/>
-      <c r="AB19" s="286"/>
-      <c r="AC19" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD19" s="288"/>
-      <c r="AE19" s="288"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="289"/>
-      <c r="AH19" s="290" t="s">
+      <c r="Z19" s="293"/>
+      <c r="AA19" s="293"/>
+      <c r="AB19" s="294"/>
+      <c r="AC19" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD19" s="285"/>
+      <c r="AE19" s="285"/>
+      <c r="AF19" s="285"/>
+      <c r="AG19" s="286"/>
+      <c r="AH19" s="287" t="s">
         <v>108</v>
       </c>
-      <c r="AI19" s="291"/>
-      <c r="AJ19" s="291"/>
-      <c r="AK19" s="291"/>
-      <c r="AL19" s="291"/>
-      <c r="AM19" s="291"/>
-      <c r="AN19" s="292"/>
+      <c r="AI19" s="290"/>
+      <c r="AJ19" s="290"/>
+      <c r="AK19" s="290"/>
+      <c r="AL19" s="290"/>
+      <c r="AM19" s="290"/>
+      <c r="AN19" s="291"/>
       <c r="AO19" s="124"/>
       <c r="AP19" s="125"/>
       <c r="AQ19" s="125"/>
@@ -15270,60 +15370,60 @@
       <c r="B20" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="223"/>
-      <c r="L20" s="306"/>
-      <c r="M20" s="284" t="s">
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="297"/>
+      <c r="M20" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="285"/>
-      <c r="O20" s="285"/>
-      <c r="P20" s="286"/>
-      <c r="Q20" s="307">
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="295">
         <v>5</v>
       </c>
-      <c r="R20" s="308"/>
-      <c r="S20" s="284" t="s">
+      <c r="R20" s="296"/>
+      <c r="S20" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T20" s="285"/>
-      <c r="U20" s="284" t="s">
+      <c r="T20" s="293"/>
+      <c r="U20" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" s="293"/>
+      <c r="W20" s="292" t="s">
         <v>113</v>
       </c>
-      <c r="V20" s="285"/>
-      <c r="W20" s="284" t="s">
+      <c r="X20" s="293"/>
+      <c r="Y20" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="X20" s="285"/>
-      <c r="Y20" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z20" s="285"/>
-      <c r="AA20" s="285"/>
-      <c r="AB20" s="286"/>
-      <c r="AC20" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD20" s="288"/>
-      <c r="AE20" s="288"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="289"/>
-      <c r="AH20" s="290" t="s">
+      <c r="Z20" s="293"/>
+      <c r="AA20" s="293"/>
+      <c r="AB20" s="294"/>
+      <c r="AC20" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD20" s="285"/>
+      <c r="AE20" s="285"/>
+      <c r="AF20" s="285"/>
+      <c r="AG20" s="286"/>
+      <c r="AH20" s="287" t="s">
         <v>109</v>
       </c>
-      <c r="AI20" s="291"/>
-      <c r="AJ20" s="291"/>
-      <c r="AK20" s="291"/>
-      <c r="AL20" s="291"/>
-      <c r="AM20" s="291"/>
-      <c r="AN20" s="292"/>
+      <c r="AI20" s="290"/>
+      <c r="AJ20" s="290"/>
+      <c r="AK20" s="290"/>
+      <c r="AL20" s="290"/>
+      <c r="AM20" s="290"/>
+      <c r="AN20" s="291"/>
       <c r="AO20" s="124"/>
       <c r="AP20" s="125"/>
       <c r="AQ20" s="125"/>
@@ -15358,60 +15458,60 @@
       <c r="B21" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="306"/>
-      <c r="M21" s="284" t="s">
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="297"/>
+      <c r="M21" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="307">
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
+      <c r="P21" s="294"/>
+      <c r="Q21" s="295">
         <v>5</v>
       </c>
-      <c r="R21" s="308"/>
-      <c r="S21" s="284" t="s">
+      <c r="R21" s="296"/>
+      <c r="S21" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T21" s="285"/>
-      <c r="U21" s="284" t="s">
+      <c r="T21" s="293"/>
+      <c r="U21" s="292" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="285"/>
-      <c r="W21" s="284" t="s">
+      <c r="V21" s="293"/>
+      <c r="W21" s="292" t="s">
+        <v>113</v>
+      </c>
+      <c r="X21" s="293"/>
+      <c r="Y21" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="X21" s="285"/>
-      <c r="Y21" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z21" s="285"/>
-      <c r="AA21" s="285"/>
-      <c r="AB21" s="286"/>
-      <c r="AC21" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD21" s="288"/>
-      <c r="AE21" s="288"/>
-      <c r="AF21" s="288"/>
-      <c r="AG21" s="289"/>
-      <c r="AH21" s="290" t="s">
+      <c r="Z21" s="293"/>
+      <c r="AA21" s="293"/>
+      <c r="AB21" s="294"/>
+      <c r="AC21" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD21" s="285"/>
+      <c r="AE21" s="285"/>
+      <c r="AF21" s="285"/>
+      <c r="AG21" s="286"/>
+      <c r="AH21" s="287" t="s">
         <v>110</v>
       </c>
-      <c r="AI21" s="291"/>
-      <c r="AJ21" s="291"/>
-      <c r="AK21" s="291"/>
-      <c r="AL21" s="291"/>
-      <c r="AM21" s="291"/>
-      <c r="AN21" s="292"/>
+      <c r="AI21" s="290"/>
+      <c r="AJ21" s="290"/>
+      <c r="AK21" s="290"/>
+      <c r="AL21" s="290"/>
+      <c r="AM21" s="290"/>
+      <c r="AN21" s="291"/>
       <c r="AO21" s="124"/>
       <c r="AP21" s="125"/>
       <c r="AQ21" s="125"/>
@@ -15446,62 +15546,62 @@
       <c r="B22" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="306"/>
-      <c r="M22" s="284" t="s">
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="297"/>
+      <c r="M22" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="N22" s="285"/>
-      <c r="O22" s="285"/>
-      <c r="P22" s="286"/>
-      <c r="Q22" s="307">
+      <c r="N22" s="293"/>
+      <c r="O22" s="293"/>
+      <c r="P22" s="294"/>
+      <c r="Q22" s="295">
         <v>7</v>
       </c>
-      <c r="R22" s="308">
+      <c r="R22" s="296">
         <v>10</v>
       </c>
-      <c r="S22" s="284" t="s">
+      <c r="S22" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="T22" s="285"/>
-      <c r="U22" s="284" t="s">
+      <c r="T22" s="293"/>
+      <c r="U22" s="292" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="285"/>
-      <c r="W22" s="284" t="s">
+      <c r="V22" s="293"/>
+      <c r="W22" s="292" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="285"/>
-      <c r="Y22" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z22" s="285"/>
-      <c r="AA22" s="285"/>
-      <c r="AB22" s="286"/>
-      <c r="AC22" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD22" s="288"/>
-      <c r="AE22" s="288"/>
-      <c r="AF22" s="288"/>
-      <c r="AG22" s="289"/>
-      <c r="AH22" s="290" t="s">
+      <c r="X22" s="293"/>
+      <c r="Y22" s="292" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z22" s="293"/>
+      <c r="AA22" s="293"/>
+      <c r="AB22" s="294"/>
+      <c r="AC22" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD22" s="285"/>
+      <c r="AE22" s="285"/>
+      <c r="AF22" s="285"/>
+      <c r="AG22" s="286"/>
+      <c r="AH22" s="287" t="s">
         <v>111</v>
       </c>
-      <c r="AI22" s="291"/>
-      <c r="AJ22" s="291"/>
-      <c r="AK22" s="291"/>
-      <c r="AL22" s="291"/>
-      <c r="AM22" s="291"/>
-      <c r="AN22" s="292"/>
+      <c r="AI22" s="290"/>
+      <c r="AJ22" s="290"/>
+      <c r="AK22" s="290"/>
+      <c r="AL22" s="290"/>
+      <c r="AM22" s="290"/>
+      <c r="AN22" s="291"/>
       <c r="AO22" s="124"/>
       <c r="AP22" s="125"/>
       <c r="AQ22" s="125"/>
@@ -15532,44 +15632,44 @@
     <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="93"/>
       <c r="B23" s="210"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="306"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="285"/>
-      <c r="O23" s="285"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="307"/>
-      <c r="R23" s="308"/>
-      <c r="S23" s="284"/>
-      <c r="T23" s="285"/>
-      <c r="U23" s="284"/>
-      <c r="V23" s="285"/>
-      <c r="W23" s="284"/>
-      <c r="X23" s="285"/>
-      <c r="Y23" s="284"/>
-      <c r="Z23" s="285"/>
-      <c r="AA23" s="285"/>
-      <c r="AB23" s="286"/>
-      <c r="AC23" s="287"/>
-      <c r="AD23" s="288"/>
-      <c r="AE23" s="288"/>
-      <c r="AF23" s="288"/>
-      <c r="AG23" s="289"/>
-      <c r="AH23" s="290"/>
-      <c r="AI23" s="291"/>
-      <c r="AJ23" s="291"/>
-      <c r="AK23" s="291"/>
-      <c r="AL23" s="291"/>
-      <c r="AM23" s="291"/>
-      <c r="AN23" s="292"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="234"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="297"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="293"/>
+      <c r="O23" s="293"/>
+      <c r="P23" s="294"/>
+      <c r="Q23" s="295"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="292"/>
+      <c r="T23" s="293"/>
+      <c r="U23" s="292"/>
+      <c r="V23" s="293"/>
+      <c r="W23" s="292"/>
+      <c r="X23" s="293"/>
+      <c r="Y23" s="292"/>
+      <c r="Z23" s="293"/>
+      <c r="AA23" s="293"/>
+      <c r="AB23" s="294"/>
+      <c r="AC23" s="284"/>
+      <c r="AD23" s="285"/>
+      <c r="AE23" s="285"/>
+      <c r="AF23" s="285"/>
+      <c r="AG23" s="286"/>
+      <c r="AH23" s="287"/>
+      <c r="AI23" s="290"/>
+      <c r="AJ23" s="290"/>
+      <c r="AK23" s="290"/>
+      <c r="AL23" s="290"/>
+      <c r="AM23" s="290"/>
+      <c r="AN23" s="291"/>
       <c r="AO23" s="124"/>
       <c r="AP23" s="125"/>
       <c r="AQ23" s="125"/>
@@ -15600,44 +15700,44 @@
     <row r="24" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="93"/>
       <c r="B24" s="210"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="306"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="285"/>
-      <c r="O24" s="285"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="307"/>
-      <c r="R24" s="308"/>
-      <c r="S24" s="284"/>
-      <c r="T24" s="285"/>
-      <c r="U24" s="284"/>
-      <c r="V24" s="285"/>
-      <c r="W24" s="284"/>
-      <c r="X24" s="285"/>
-      <c r="Y24" s="284"/>
-      <c r="Z24" s="285"/>
-      <c r="AA24" s="285"/>
-      <c r="AB24" s="286"/>
-      <c r="AC24" s="287"/>
-      <c r="AD24" s="288"/>
-      <c r="AE24" s="288"/>
-      <c r="AF24" s="288"/>
-      <c r="AG24" s="289"/>
-      <c r="AH24" s="290"/>
-      <c r="AI24" s="291"/>
-      <c r="AJ24" s="291"/>
-      <c r="AK24" s="291"/>
-      <c r="AL24" s="291"/>
-      <c r="AM24" s="291"/>
-      <c r="AN24" s="292"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="297"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="293"/>
+      <c r="O24" s="293"/>
+      <c r="P24" s="294"/>
+      <c r="Q24" s="295"/>
+      <c r="R24" s="296"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="293"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="293"/>
+      <c r="W24" s="292"/>
+      <c r="X24" s="293"/>
+      <c r="Y24" s="292"/>
+      <c r="Z24" s="293"/>
+      <c r="AA24" s="293"/>
+      <c r="AB24" s="294"/>
+      <c r="AC24" s="284"/>
+      <c r="AD24" s="285"/>
+      <c r="AE24" s="285"/>
+      <c r="AF24" s="285"/>
+      <c r="AG24" s="286"/>
+      <c r="AH24" s="287"/>
+      <c r="AI24" s="290"/>
+      <c r="AJ24" s="290"/>
+      <c r="AK24" s="290"/>
+      <c r="AL24" s="290"/>
+      <c r="AM24" s="290"/>
+      <c r="AN24" s="291"/>
       <c r="AO24" s="124"/>
       <c r="AP24" s="125"/>
       <c r="AQ24" s="125"/>
@@ -15668,44 +15768,44 @@
     <row r="25" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A25" s="93"/>
       <c r="B25" s="210"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="306"/>
-      <c r="M25" s="284"/>
-      <c r="N25" s="285"/>
-      <c r="O25" s="285"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="307"/>
-      <c r="R25" s="308"/>
-      <c r="S25" s="284"/>
-      <c r="T25" s="285"/>
-      <c r="U25" s="284"/>
-      <c r="V25" s="285"/>
-      <c r="W25" s="284"/>
-      <c r="X25" s="285"/>
-      <c r="Y25" s="284"/>
-      <c r="Z25" s="285"/>
-      <c r="AA25" s="285"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="287"/>
-      <c r="AD25" s="288"/>
-      <c r="AE25" s="288"/>
-      <c r="AF25" s="288"/>
-      <c r="AG25" s="289"/>
-      <c r="AH25" s="290"/>
-      <c r="AI25" s="291"/>
-      <c r="AJ25" s="291"/>
-      <c r="AK25" s="291"/>
-      <c r="AL25" s="291"/>
-      <c r="AM25" s="291"/>
-      <c r="AN25" s="292"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="234"/>
+      <c r="H25" s="234"/>
+      <c r="I25" s="234"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="297"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="294"/>
+      <c r="Q25" s="295"/>
+      <c r="R25" s="296"/>
+      <c r="S25" s="292"/>
+      <c r="T25" s="293"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="293"/>
+      <c r="W25" s="292"/>
+      <c r="X25" s="293"/>
+      <c r="Y25" s="292"/>
+      <c r="Z25" s="293"/>
+      <c r="AA25" s="293"/>
+      <c r="AB25" s="294"/>
+      <c r="AC25" s="284"/>
+      <c r="AD25" s="285"/>
+      <c r="AE25" s="285"/>
+      <c r="AF25" s="285"/>
+      <c r="AG25" s="286"/>
+      <c r="AH25" s="287"/>
+      <c r="AI25" s="290"/>
+      <c r="AJ25" s="290"/>
+      <c r="AK25" s="290"/>
+      <c r="AL25" s="290"/>
+      <c r="AM25" s="290"/>
+      <c r="AN25" s="291"/>
       <c r="AO25" s="124"/>
       <c r="AP25" s="125"/>
       <c r="AQ25" s="125"/>
@@ -15736,44 +15836,44 @@
     <row r="26" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A26" s="93"/>
       <c r="B26" s="210"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="306"/>
-      <c r="M26" s="284"/>
-      <c r="N26" s="285"/>
-      <c r="O26" s="285"/>
-      <c r="P26" s="286"/>
-      <c r="Q26" s="307"/>
-      <c r="R26" s="308"/>
-      <c r="S26" s="284"/>
-      <c r="T26" s="285"/>
-      <c r="U26" s="284"/>
-      <c r="V26" s="285"/>
-      <c r="W26" s="284"/>
-      <c r="X26" s="285"/>
-      <c r="Y26" s="284"/>
-      <c r="Z26" s="285"/>
-      <c r="AA26" s="285"/>
-      <c r="AB26" s="286"/>
-      <c r="AC26" s="287"/>
-      <c r="AD26" s="288"/>
-      <c r="AE26" s="288"/>
-      <c r="AF26" s="288"/>
-      <c r="AG26" s="289"/>
-      <c r="AH26" s="290"/>
-      <c r="AI26" s="291"/>
-      <c r="AJ26" s="291"/>
-      <c r="AK26" s="291"/>
-      <c r="AL26" s="291"/>
-      <c r="AM26" s="291"/>
-      <c r="AN26" s="292"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="297"/>
+      <c r="M26" s="292"/>
+      <c r="N26" s="293"/>
+      <c r="O26" s="293"/>
+      <c r="P26" s="294"/>
+      <c r="Q26" s="295"/>
+      <c r="R26" s="296"/>
+      <c r="S26" s="292"/>
+      <c r="T26" s="293"/>
+      <c r="U26" s="292"/>
+      <c r="V26" s="293"/>
+      <c r="W26" s="292"/>
+      <c r="X26" s="293"/>
+      <c r="Y26" s="292"/>
+      <c r="Z26" s="293"/>
+      <c r="AA26" s="293"/>
+      <c r="AB26" s="294"/>
+      <c r="AC26" s="284"/>
+      <c r="AD26" s="285"/>
+      <c r="AE26" s="285"/>
+      <c r="AF26" s="285"/>
+      <c r="AG26" s="286"/>
+      <c r="AH26" s="287"/>
+      <c r="AI26" s="290"/>
+      <c r="AJ26" s="290"/>
+      <c r="AK26" s="290"/>
+      <c r="AL26" s="290"/>
+      <c r="AM26" s="290"/>
+      <c r="AN26" s="291"/>
       <c r="AO26" s="124"/>
       <c r="AP26" s="125"/>
       <c r="AQ26" s="125"/>
@@ -15803,45 +15903,45 @@
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A27" s="123"/>
-      <c r="B27" s="360"/>
-      <c r="C27" s="361"/>
-      <c r="D27" s="361"/>
-      <c r="E27" s="361"/>
-      <c r="F27" s="361"/>
-      <c r="G27" s="361"/>
-      <c r="H27" s="361"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="361"/>
-      <c r="K27" s="361"/>
-      <c r="L27" s="362"/>
-      <c r="M27" s="297"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="299"/>
-      <c r="P27" s="299"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="364"/>
-      <c r="S27" s="293"/>
-      <c r="T27" s="294"/>
-      <c r="U27" s="295"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="297"/>
-      <c r="X27" s="298"/>
-      <c r="Y27" s="297"/>
-      <c r="Z27" s="299"/>
-      <c r="AA27" s="299"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="300"/>
-      <c r="AD27" s="301"/>
-      <c r="AE27" s="301"/>
-      <c r="AF27" s="301"/>
-      <c r="AG27" s="302"/>
-      <c r="AH27" s="303"/>
-      <c r="AI27" s="304"/>
-      <c r="AJ27" s="304"/>
-      <c r="AK27" s="304"/>
-      <c r="AL27" s="304"/>
-      <c r="AM27" s="304"/>
-      <c r="AN27" s="305"/>
+      <c r="B27" s="298"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="299"/>
+      <c r="F27" s="299"/>
+      <c r="G27" s="299"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="299"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
+      <c r="L27" s="300"/>
+      <c r="M27" s="356"/>
+      <c r="N27" s="358"/>
+      <c r="O27" s="358"/>
+      <c r="P27" s="358"/>
+      <c r="Q27" s="301"/>
+      <c r="R27" s="302"/>
+      <c r="S27" s="352"/>
+      <c r="T27" s="353"/>
+      <c r="U27" s="354"/>
+      <c r="V27" s="355"/>
+      <c r="W27" s="356"/>
+      <c r="X27" s="357"/>
+      <c r="Y27" s="356"/>
+      <c r="Z27" s="358"/>
+      <c r="AA27" s="358"/>
+      <c r="AB27" s="357"/>
+      <c r="AC27" s="359"/>
+      <c r="AD27" s="360"/>
+      <c r="AE27" s="360"/>
+      <c r="AF27" s="360"/>
+      <c r="AG27" s="361"/>
+      <c r="AH27" s="362"/>
+      <c r="AI27" s="363"/>
+      <c r="AJ27" s="363"/>
+      <c r="AK27" s="363"/>
+      <c r="AL27" s="363"/>
+      <c r="AM27" s="363"/>
+      <c r="AN27" s="364"/>
       <c r="AO27" s="126"/>
       <c r="AP27" s="127"/>
       <c r="AQ27" s="127"/>
@@ -15871,107 +15971,83 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="AH19:AN19"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AG24"/>
+    <mergeCell ref="AH24:AN24"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="AH27:AN27"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AH26:AN26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="AH22:AN22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AG23"/>
+    <mergeCell ref="AH23:AN23"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AG21"/>
+    <mergeCell ref="AH21:AN21"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="AH20:AN20"/>
+    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:L21"/>
@@ -15996,83 +16072,107 @@
     <mergeCell ref="AO9:BL9"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="B10:L10"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="BM7:BN8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AG21"/>
-    <mergeCell ref="AH21:AN21"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AG20"/>
-    <mergeCell ref="AH20:AN20"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="AH22:AN22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AG23"/>
-    <mergeCell ref="AH23:AN23"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="AH27:AN27"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AH26:AN26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="AH25:AN25"/>
-    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="AH19:AN19"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AC18:AG18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16297,35 +16397,35 @@
       <c r="BN1" s="97"/>
     </row>
     <row r="2" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="365" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="405"/>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="405"/>
-      <c r="J2" s="405"/>
-      <c r="K2" s="405"/>
-      <c r="L2" s="405"/>
-      <c r="M2" s="405"/>
-      <c r="N2" s="405"/>
-      <c r="O2" s="405"/>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="405"/>
-      <c r="R2" s="405"/>
-      <c r="S2" s="405"/>
-      <c r="T2" s="405"/>
-      <c r="U2" s="405"/>
-      <c r="V2" s="405"/>
-      <c r="W2" s="405"/>
-      <c r="X2" s="405"/>
-      <c r="Y2" s="405"/>
-      <c r="Z2" s="405"/>
-      <c r="AA2" s="405"/>
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="366"/>
+      <c r="I2" s="366"/>
+      <c r="J2" s="366"/>
+      <c r="K2" s="366"/>
+      <c r="L2" s="366"/>
+      <c r="M2" s="366"/>
+      <c r="N2" s="366"/>
+      <c r="O2" s="366"/>
+      <c r="P2" s="366"/>
+      <c r="Q2" s="366"/>
+      <c r="R2" s="366"/>
+      <c r="S2" s="366"/>
+      <c r="T2" s="366"/>
+      <c r="U2" s="366"/>
+      <c r="V2" s="366"/>
+      <c r="W2" s="366"/>
+      <c r="X2" s="366"/>
+      <c r="Y2" s="366"/>
+      <c r="Z2" s="366"/>
+      <c r="AA2" s="366"/>
       <c r="AP2" s="99"/>
       <c r="AQ2" s="99"/>
       <c r="AR2" s="99"/>
@@ -16353,33 +16453,33 @@
       <c r="BN2" s="101"/>
     </row>
     <row r="3" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="A3" s="406"/>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="407"/>
-      <c r="H3" s="407"/>
-      <c r="I3" s="407"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
-      <c r="N3" s="407"/>
-      <c r="O3" s="407"/>
-      <c r="P3" s="407"/>
-      <c r="Q3" s="407"/>
-      <c r="R3" s="407"/>
-      <c r="S3" s="407"/>
-      <c r="T3" s="407"/>
-      <c r="U3" s="407"/>
-      <c r="V3" s="407"/>
-      <c r="W3" s="407"/>
-      <c r="X3" s="407"/>
-      <c r="Y3" s="407"/>
-      <c r="Z3" s="407"/>
-      <c r="AA3" s="407"/>
+      <c r="A3" s="367"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="368"/>
+      <c r="F3" s="368"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="368"/>
+      <c r="J3" s="368"/>
+      <c r="K3" s="368"/>
+      <c r="L3" s="368"/>
+      <c r="M3" s="368"/>
+      <c r="N3" s="368"/>
+      <c r="O3" s="368"/>
+      <c r="P3" s="368"/>
+      <c r="Q3" s="368"/>
+      <c r="R3" s="368"/>
+      <c r="S3" s="368"/>
+      <c r="T3" s="368"/>
+      <c r="U3" s="368"/>
+      <c r="V3" s="368"/>
+      <c r="W3" s="368"/>
+      <c r="X3" s="368"/>
+      <c r="Y3" s="368"/>
+      <c r="Z3" s="368"/>
+      <c r="AA3" s="368"/>
       <c r="AB3" s="102"/>
       <c r="AC3" s="102"/>
       <c r="AD3" s="102"/>
@@ -16421,167 +16521,167 @@
       <c r="BN3" s="104"/>
     </row>
     <row r="4" spans="1:66" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="408" t="s">
+      <c r="A4" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="409"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="411" t="s">
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="372" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="412"/>
-      <c r="I4" s="412"/>
-      <c r="J4" s="412"/>
-      <c r="K4" s="412"/>
-      <c r="L4" s="412"/>
-      <c r="M4" s="412"/>
-      <c r="N4" s="412"/>
-      <c r="O4" s="413"/>
-      <c r="P4" s="414" t="s">
+      <c r="H4" s="373"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="373"/>
+      <c r="L4" s="373"/>
+      <c r="M4" s="373"/>
+      <c r="N4" s="373"/>
+      <c r="O4" s="374"/>
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="415"/>
-      <c r="S4" s="415"/>
-      <c r="T4" s="415"/>
-      <c r="U4" s="416"/>
-      <c r="V4" s="417" t="s">
+      <c r="Q4" s="376"/>
+      <c r="R4" s="376"/>
+      <c r="S4" s="376"/>
+      <c r="T4" s="376"/>
+      <c r="U4" s="377"/>
+      <c r="V4" s="378" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="418"/>
-      <c r="X4" s="418"/>
-      <c r="Y4" s="418"/>
-      <c r="Z4" s="418"/>
-      <c r="AA4" s="418"/>
-      <c r="AB4" s="418"/>
-      <c r="AC4" s="418"/>
-      <c r="AD4" s="418"/>
-      <c r="AE4" s="418"/>
-      <c r="AF4" s="418"/>
-      <c r="AG4" s="418"/>
-      <c r="AH4" s="418"/>
-      <c r="AI4" s="418"/>
-      <c r="AJ4" s="418"/>
-      <c r="AK4" s="418"/>
-      <c r="AL4" s="418"/>
-      <c r="AM4" s="418"/>
-      <c r="AN4" s="418"/>
-      <c r="AO4" s="418"/>
-      <c r="AP4" s="418"/>
-      <c r="AQ4" s="418"/>
-      <c r="AR4" s="418"/>
-      <c r="AS4" s="418"/>
-      <c r="AT4" s="418"/>
-      <c r="AU4" s="418"/>
-      <c r="AV4" s="419"/>
-      <c r="AW4" s="385" t="s">
+      <c r="W4" s="379"/>
+      <c r="X4" s="379"/>
+      <c r="Y4" s="379"/>
+      <c r="Z4" s="379"/>
+      <c r="AA4" s="379"/>
+      <c r="AB4" s="379"/>
+      <c r="AC4" s="379"/>
+      <c r="AD4" s="379"/>
+      <c r="AE4" s="379"/>
+      <c r="AF4" s="379"/>
+      <c r="AG4" s="379"/>
+      <c r="AH4" s="379"/>
+      <c r="AI4" s="379"/>
+      <c r="AJ4" s="379"/>
+      <c r="AK4" s="379"/>
+      <c r="AL4" s="379"/>
+      <c r="AM4" s="379"/>
+      <c r="AN4" s="379"/>
+      <c r="AO4" s="379"/>
+      <c r="AP4" s="379"/>
+      <c r="AQ4" s="379"/>
+      <c r="AR4" s="379"/>
+      <c r="AS4" s="379"/>
+      <c r="AT4" s="379"/>
+      <c r="AU4" s="379"/>
+      <c r="AV4" s="380"/>
+      <c r="AW4" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="386"/>
-      <c r="AY4" s="387"/>
-      <c r="AZ4" s="388">
+      <c r="AX4" s="382"/>
+      <c r="AY4" s="383"/>
+      <c r="AZ4" s="384">
         <v>45447</v>
       </c>
-      <c r="BA4" s="389"/>
-      <c r="BB4" s="389"/>
-      <c r="BC4" s="389"/>
-      <c r="BD4" s="389"/>
-      <c r="BE4" s="389"/>
-      <c r="BF4" s="385" t="s">
+      <c r="BA4" s="385"/>
+      <c r="BB4" s="385"/>
+      <c r="BC4" s="385"/>
+      <c r="BD4" s="385"/>
+      <c r="BE4" s="385"/>
+      <c r="BF4" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="386"/>
-      <c r="BH4" s="387"/>
-      <c r="BI4" s="390" t="s">
+      <c r="BG4" s="382"/>
+      <c r="BH4" s="383"/>
+      <c r="BI4" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="391"/>
-      <c r="BK4" s="391"/>
-      <c r="BL4" s="391"/>
-      <c r="BM4" s="391"/>
-      <c r="BN4" s="392"/>
+      <c r="BJ4" s="387"/>
+      <c r="BK4" s="387"/>
+      <c r="BL4" s="387"/>
+      <c r="BM4" s="387"/>
+      <c r="BN4" s="388"/>
     </row>
     <row r="5" spans="1:66" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="389" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="394"/>
-      <c r="D5" s="394"/>
-      <c r="E5" s="394"/>
-      <c r="F5" s="395"/>
-      <c r="G5" s="396" t="str">
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
+      <c r="D5" s="390"/>
+      <c r="E5" s="390"/>
+      <c r="F5" s="391"/>
+      <c r="G5" s="392" t="str">
         <f>[1]画面レイアウト!G5</f>
         <v>P005</v>
       </c>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="396"/>
-      <c r="M5" s="396"/>
-      <c r="N5" s="396"/>
-      <c r="O5" s="397"/>
-      <c r="P5" s="393" t="s">
+      <c r="H5" s="392"/>
+      <c r="I5" s="392"/>
+      <c r="J5" s="392"/>
+      <c r="K5" s="392"/>
+      <c r="L5" s="392"/>
+      <c r="M5" s="392"/>
+      <c r="N5" s="392"/>
+      <c r="O5" s="393"/>
+      <c r="P5" s="389" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="394"/>
-      <c r="S5" s="394"/>
-      <c r="T5" s="394"/>
-      <c r="U5" s="395"/>
-      <c r="V5" s="398"/>
-      <c r="W5" s="399"/>
-      <c r="X5" s="399"/>
-      <c r="Y5" s="399"/>
-      <c r="Z5" s="399"/>
-      <c r="AA5" s="399"/>
-      <c r="AB5" s="399"/>
-      <c r="AC5" s="399"/>
-      <c r="AD5" s="399"/>
-      <c r="AE5" s="399"/>
-      <c r="AF5" s="399"/>
-      <c r="AG5" s="399"/>
-      <c r="AH5" s="399"/>
-      <c r="AI5" s="399"/>
-      <c r="AJ5" s="399"/>
-      <c r="AK5" s="399"/>
-      <c r="AL5" s="399"/>
-      <c r="AM5" s="399"/>
-      <c r="AN5" s="399"/>
-      <c r="AO5" s="399"/>
-      <c r="AP5" s="399"/>
-      <c r="AQ5" s="399"/>
-      <c r="AR5" s="399"/>
-      <c r="AS5" s="399"/>
-      <c r="AT5" s="399"/>
-      <c r="AU5" s="399"/>
-      <c r="AV5" s="400"/>
-      <c r="AW5" s="401" t="s">
+      <c r="Q5" s="390"/>
+      <c r="R5" s="390"/>
+      <c r="S5" s="390"/>
+      <c r="T5" s="390"/>
+      <c r="U5" s="391"/>
+      <c r="V5" s="394"/>
+      <c r="W5" s="395"/>
+      <c r="X5" s="395"/>
+      <c r="Y5" s="395"/>
+      <c r="Z5" s="395"/>
+      <c r="AA5" s="395"/>
+      <c r="AB5" s="395"/>
+      <c r="AC5" s="395"/>
+      <c r="AD5" s="395"/>
+      <c r="AE5" s="395"/>
+      <c r="AF5" s="395"/>
+      <c r="AG5" s="395"/>
+      <c r="AH5" s="395"/>
+      <c r="AI5" s="395"/>
+      <c r="AJ5" s="395"/>
+      <c r="AK5" s="395"/>
+      <c r="AL5" s="395"/>
+      <c r="AM5" s="395"/>
+      <c r="AN5" s="395"/>
+      <c r="AO5" s="395"/>
+      <c r="AP5" s="395"/>
+      <c r="AQ5" s="395"/>
+      <c r="AR5" s="395"/>
+      <c r="AS5" s="395"/>
+      <c r="AT5" s="395"/>
+      <c r="AU5" s="395"/>
+      <c r="AV5" s="396"/>
+      <c r="AW5" s="397" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="402"/>
-      <c r="AY5" s="403"/>
-      <c r="AZ5" s="402"/>
-      <c r="BA5" s="402"/>
-      <c r="BB5" s="402"/>
-      <c r="BC5" s="402"/>
-      <c r="BD5" s="402"/>
-      <c r="BE5" s="402"/>
-      <c r="BF5" s="401" t="s">
+      <c r="AX5" s="398"/>
+      <c r="AY5" s="399"/>
+      <c r="AZ5" s="398"/>
+      <c r="BA5" s="398"/>
+      <c r="BB5" s="398"/>
+      <c r="BC5" s="398"/>
+      <c r="BD5" s="398"/>
+      <c r="BE5" s="398"/>
+      <c r="BF5" s="397" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="402"/>
-      <c r="BH5" s="403"/>
-      <c r="BI5" s="398"/>
-      <c r="BJ5" s="399"/>
-      <c r="BK5" s="399"/>
-      <c r="BL5" s="399"/>
-      <c r="BM5" s="399"/>
-      <c r="BN5" s="400"/>
+      <c r="BG5" s="398"/>
+      <c r="BH5" s="399"/>
+      <c r="BI5" s="394"/>
+      <c r="BJ5" s="395"/>
+      <c r="BK5" s="395"/>
+      <c r="BL5" s="395"/>
+      <c r="BM5" s="395"/>
+      <c r="BN5" s="396"/>
     </row>
     <row r="6" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
       <c r="A6" s="105"/>
@@ -16655,238 +16755,238 @@
       <c r="A7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="372" t="s">
+      <c r="B7" s="400" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="373"/>
-      <c r="D7" s="373"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="373"/>
-      <c r="G7" s="373"/>
-      <c r="H7" s="373"/>
-      <c r="I7" s="373"/>
-      <c r="J7" s="373"/>
-      <c r="K7" s="373"/>
-      <c r="L7" s="373"/>
-      <c r="M7" s="373"/>
-      <c r="N7" s="373"/>
-      <c r="O7" s="374"/>
-      <c r="P7" s="375" t="s">
+      <c r="C7" s="401"/>
+      <c r="D7" s="401"/>
+      <c r="E7" s="401"/>
+      <c r="F7" s="401"/>
+      <c r="G7" s="401"/>
+      <c r="H7" s="401"/>
+      <c r="I7" s="401"/>
+      <c r="J7" s="401"/>
+      <c r="K7" s="401"/>
+      <c r="L7" s="401"/>
+      <c r="M7" s="401"/>
+      <c r="N7" s="401"/>
+      <c r="O7" s="402"/>
+      <c r="P7" s="403" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="376"/>
-      <c r="R7" s="376"/>
-      <c r="S7" s="376"/>
-      <c r="T7" s="376"/>
-      <c r="U7" s="376"/>
-      <c r="V7" s="376"/>
-      <c r="W7" s="376"/>
-      <c r="X7" s="376"/>
-      <c r="Y7" s="376"/>
-      <c r="Z7" s="376"/>
-      <c r="AA7" s="376"/>
-      <c r="AB7" s="376"/>
-      <c r="AC7" s="376"/>
-      <c r="AD7" s="376"/>
-      <c r="AE7" s="376"/>
-      <c r="AF7" s="376"/>
-      <c r="AG7" s="376"/>
-      <c r="AH7" s="376"/>
-      <c r="AI7" s="376"/>
-      <c r="AJ7" s="376"/>
-      <c r="AK7" s="376"/>
-      <c r="AL7" s="376"/>
-      <c r="AM7" s="376"/>
-      <c r="AN7" s="376"/>
-      <c r="AO7" s="376"/>
-      <c r="AP7" s="376"/>
-      <c r="AQ7" s="376"/>
-      <c r="AR7" s="377"/>
-      <c r="AS7" s="375" t="s">
+      <c r="Q7" s="404"/>
+      <c r="R7" s="404"/>
+      <c r="S7" s="404"/>
+      <c r="T7" s="404"/>
+      <c r="U7" s="404"/>
+      <c r="V7" s="404"/>
+      <c r="W7" s="404"/>
+      <c r="X7" s="404"/>
+      <c r="Y7" s="404"/>
+      <c r="Z7" s="404"/>
+      <c r="AA7" s="404"/>
+      <c r="AB7" s="404"/>
+      <c r="AC7" s="404"/>
+      <c r="AD7" s="404"/>
+      <c r="AE7" s="404"/>
+      <c r="AF7" s="404"/>
+      <c r="AG7" s="404"/>
+      <c r="AH7" s="404"/>
+      <c r="AI7" s="404"/>
+      <c r="AJ7" s="404"/>
+      <c r="AK7" s="404"/>
+      <c r="AL7" s="404"/>
+      <c r="AM7" s="404"/>
+      <c r="AN7" s="404"/>
+      <c r="AO7" s="404"/>
+      <c r="AP7" s="404"/>
+      <c r="AQ7" s="404"/>
+      <c r="AR7" s="405"/>
+      <c r="AS7" s="403" t="s">
         <v>40</v>
       </c>
-      <c r="AT7" s="376"/>
-      <c r="AU7" s="376"/>
-      <c r="AV7" s="376"/>
-      <c r="AW7" s="376"/>
-      <c r="AX7" s="376"/>
-      <c r="AY7" s="376"/>
-      <c r="AZ7" s="376"/>
-      <c r="BA7" s="376"/>
-      <c r="BB7" s="376"/>
-      <c r="BC7" s="376"/>
-      <c r="BD7" s="376"/>
-      <c r="BE7" s="376"/>
-      <c r="BF7" s="376"/>
-      <c r="BG7" s="376"/>
-      <c r="BH7" s="376"/>
-      <c r="BI7" s="376"/>
-      <c r="BJ7" s="376"/>
-      <c r="BK7" s="376"/>
-      <c r="BL7" s="376"/>
-      <c r="BM7" s="376"/>
-      <c r="BN7" s="377"/>
+      <c r="AT7" s="404"/>
+      <c r="AU7" s="404"/>
+      <c r="AV7" s="404"/>
+      <c r="AW7" s="404"/>
+      <c r="AX7" s="404"/>
+      <c r="AY7" s="404"/>
+      <c r="AZ7" s="404"/>
+      <c r="BA7" s="404"/>
+      <c r="BB7" s="404"/>
+      <c r="BC7" s="404"/>
+      <c r="BD7" s="404"/>
+      <c r="BE7" s="404"/>
+      <c r="BF7" s="404"/>
+      <c r="BG7" s="404"/>
+      <c r="BH7" s="404"/>
+      <c r="BI7" s="404"/>
+      <c r="BJ7" s="404"/>
+      <c r="BK7" s="404"/>
+      <c r="BL7" s="404"/>
+      <c r="BM7" s="404"/>
+      <c r="BN7" s="405"/>
     </row>
     <row r="8" spans="1:66" s="111" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="110">
         <v>1</v>
       </c>
-      <c r="B8" s="378" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
-      <c r="G8" s="367"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="367"/>
-      <c r="J8" s="367"/>
-      <c r="K8" s="367"/>
-      <c r="L8" s="367"/>
-      <c r="M8" s="367"/>
-      <c r="N8" s="367"/>
-      <c r="O8" s="379"/>
-      <c r="P8" s="380" t="s">
+      <c r="B8" s="406" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="407"/>
+      <c r="D8" s="407"/>
+      <c r="E8" s="407"/>
+      <c r="F8" s="407"/>
+      <c r="G8" s="407"/>
+      <c r="H8" s="407"/>
+      <c r="I8" s="407"/>
+      <c r="J8" s="407"/>
+      <c r="K8" s="407"/>
+      <c r="L8" s="407"/>
+      <c r="M8" s="407"/>
+      <c r="N8" s="407"/>
+      <c r="O8" s="408"/>
+      <c r="P8" s="409" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="381"/>
-      <c r="R8" s="381"/>
-      <c r="S8" s="381"/>
-      <c r="T8" s="381"/>
-      <c r="U8" s="381"/>
-      <c r="V8" s="381"/>
-      <c r="W8" s="381"/>
-      <c r="X8" s="381"/>
-      <c r="Y8" s="381"/>
-      <c r="Z8" s="381"/>
-      <c r="AA8" s="381"/>
-      <c r="AB8" s="381"/>
-      <c r="AC8" s="381"/>
-      <c r="AD8" s="381"/>
-      <c r="AE8" s="381"/>
-      <c r="AF8" s="381"/>
-      <c r="AG8" s="381"/>
-      <c r="AH8" s="381"/>
-      <c r="AI8" s="381"/>
-      <c r="AJ8" s="381"/>
-      <c r="AK8" s="381"/>
-      <c r="AL8" s="381"/>
-      <c r="AM8" s="381"/>
-      <c r="AN8" s="381"/>
-      <c r="AO8" s="381"/>
-      <c r="AP8" s="381"/>
-      <c r="AQ8" s="381"/>
-      <c r="AR8" s="381"/>
-      <c r="AS8" s="382" t="s">
+      <c r="Q8" s="410"/>
+      <c r="R8" s="410"/>
+      <c r="S8" s="410"/>
+      <c r="T8" s="410"/>
+      <c r="U8" s="410"/>
+      <c r="V8" s="410"/>
+      <c r="W8" s="410"/>
+      <c r="X8" s="410"/>
+      <c r="Y8" s="410"/>
+      <c r="Z8" s="410"/>
+      <c r="AA8" s="410"/>
+      <c r="AB8" s="410"/>
+      <c r="AC8" s="410"/>
+      <c r="AD8" s="410"/>
+      <c r="AE8" s="410"/>
+      <c r="AF8" s="410"/>
+      <c r="AG8" s="410"/>
+      <c r="AH8" s="410"/>
+      <c r="AI8" s="410"/>
+      <c r="AJ8" s="410"/>
+      <c r="AK8" s="410"/>
+      <c r="AL8" s="410"/>
+      <c r="AM8" s="410"/>
+      <c r="AN8" s="410"/>
+      <c r="AO8" s="410"/>
+      <c r="AP8" s="410"/>
+      <c r="AQ8" s="410"/>
+      <c r="AR8" s="410"/>
+      <c r="AS8" s="411" t="s">
         <v>69</v>
       </c>
-      <c r="AT8" s="383"/>
-      <c r="AU8" s="383"/>
-      <c r="AV8" s="383"/>
-      <c r="AW8" s="383"/>
-      <c r="AX8" s="383"/>
-      <c r="AY8" s="383"/>
-      <c r="AZ8" s="383"/>
-      <c r="BA8" s="383"/>
-      <c r="BB8" s="383"/>
-      <c r="BC8" s="383"/>
-      <c r="BD8" s="383"/>
-      <c r="BE8" s="383"/>
-      <c r="BF8" s="383"/>
-      <c r="BG8" s="383"/>
-      <c r="BH8" s="383"/>
-      <c r="BI8" s="383"/>
-      <c r="BJ8" s="383"/>
-      <c r="BK8" s="383"/>
-      <c r="BL8" s="383"/>
-      <c r="BM8" s="383"/>
-      <c r="BN8" s="384"/>
+      <c r="AT8" s="412"/>
+      <c r="AU8" s="412"/>
+      <c r="AV8" s="412"/>
+      <c r="AW8" s="412"/>
+      <c r="AX8" s="412"/>
+      <c r="AY8" s="412"/>
+      <c r="AZ8" s="412"/>
+      <c r="BA8" s="412"/>
+      <c r="BB8" s="412"/>
+      <c r="BC8" s="412"/>
+      <c r="BD8" s="412"/>
+      <c r="BE8" s="412"/>
+      <c r="BF8" s="412"/>
+      <c r="BG8" s="412"/>
+      <c r="BH8" s="412"/>
+      <c r="BI8" s="412"/>
+      <c r="BJ8" s="412"/>
+      <c r="BK8" s="412"/>
+      <c r="BL8" s="412"/>
+      <c r="BM8" s="412"/>
+      <c r="BN8" s="413"/>
     </row>
     <row r="9" spans="1:66" s="111" customFormat="1" ht="13.2" x14ac:dyDescent="0.35">
       <c r="A9" s="112"/>
-      <c r="B9" s="365"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
-      <c r="G9" s="366"/>
-      <c r="H9" s="366"/>
-      <c r="I9" s="366"/>
-      <c r="J9" s="366"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366"/>
-      <c r="M9" s="366"/>
-      <c r="N9" s="366"/>
-      <c r="O9" s="367"/>
-      <c r="P9" s="368"/>
-      <c r="Q9" s="368"/>
-      <c r="R9" s="368"/>
-      <c r="S9" s="368"/>
-      <c r="T9" s="368"/>
-      <c r="U9" s="368"/>
-      <c r="V9" s="368"/>
-      <c r="W9" s="368"/>
-      <c r="X9" s="368"/>
-      <c r="Y9" s="368"/>
-      <c r="Z9" s="368"/>
-      <c r="AA9" s="368"/>
-      <c r="AB9" s="368"/>
-      <c r="AC9" s="368"/>
-      <c r="AD9" s="368"/>
-      <c r="AE9" s="368"/>
-      <c r="AF9" s="368"/>
-      <c r="AG9" s="368"/>
-      <c r="AH9" s="368"/>
-      <c r="AI9" s="368"/>
-      <c r="AJ9" s="368"/>
-      <c r="AK9" s="368"/>
-      <c r="AL9" s="368"/>
-      <c r="AM9" s="368"/>
-      <c r="AN9" s="368"/>
-      <c r="AO9" s="368"/>
-      <c r="AP9" s="368"/>
-      <c r="AQ9" s="368"/>
-      <c r="AR9" s="368"/>
-      <c r="AS9" s="369"/>
-      <c r="AT9" s="370"/>
-      <c r="AU9" s="370"/>
-      <c r="AV9" s="370"/>
-      <c r="AW9" s="370"/>
-      <c r="AX9" s="370"/>
-      <c r="AY9" s="370"/>
-      <c r="AZ9" s="370"/>
-      <c r="BA9" s="370"/>
-      <c r="BB9" s="370"/>
-      <c r="BC9" s="370"/>
-      <c r="BD9" s="370"/>
-      <c r="BE9" s="370"/>
-      <c r="BF9" s="370"/>
-      <c r="BG9" s="370"/>
-      <c r="BH9" s="370"/>
-      <c r="BI9" s="370"/>
-      <c r="BJ9" s="370"/>
-      <c r="BK9" s="370"/>
-      <c r="BL9" s="370"/>
-      <c r="BM9" s="370"/>
-      <c r="BN9" s="371"/>
+      <c r="B9" s="414"/>
+      <c r="C9" s="415"/>
+      <c r="D9" s="415"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="415"/>
+      <c r="G9" s="415"/>
+      <c r="H9" s="415"/>
+      <c r="I9" s="415"/>
+      <c r="J9" s="415"/>
+      <c r="K9" s="415"/>
+      <c r="L9" s="415"/>
+      <c r="M9" s="415"/>
+      <c r="N9" s="415"/>
+      <c r="O9" s="407"/>
+      <c r="P9" s="416"/>
+      <c r="Q9" s="416"/>
+      <c r="R9" s="416"/>
+      <c r="S9" s="416"/>
+      <c r="T9" s="416"/>
+      <c r="U9" s="416"/>
+      <c r="V9" s="416"/>
+      <c r="W9" s="416"/>
+      <c r="X9" s="416"/>
+      <c r="Y9" s="416"/>
+      <c r="Z9" s="416"/>
+      <c r="AA9" s="416"/>
+      <c r="AB9" s="416"/>
+      <c r="AC9" s="416"/>
+      <c r="AD9" s="416"/>
+      <c r="AE9" s="416"/>
+      <c r="AF9" s="416"/>
+      <c r="AG9" s="416"/>
+      <c r="AH9" s="416"/>
+      <c r="AI9" s="416"/>
+      <c r="AJ9" s="416"/>
+      <c r="AK9" s="416"/>
+      <c r="AL9" s="416"/>
+      <c r="AM9" s="416"/>
+      <c r="AN9" s="416"/>
+      <c r="AO9" s="416"/>
+      <c r="AP9" s="416"/>
+      <c r="AQ9" s="416"/>
+      <c r="AR9" s="416"/>
+      <c r="AS9" s="417"/>
+      <c r="AT9" s="418"/>
+      <c r="AU9" s="418"/>
+      <c r="AV9" s="418"/>
+      <c r="AW9" s="418"/>
+      <c r="AX9" s="418"/>
+      <c r="AY9" s="418"/>
+      <c r="AZ9" s="418"/>
+      <c r="BA9" s="418"/>
+      <c r="BB9" s="418"/>
+      <c r="BC9" s="418"/>
+      <c r="BD9" s="418"/>
+      <c r="BE9" s="418"/>
+      <c r="BF9" s="418"/>
+      <c r="BG9" s="418"/>
+      <c r="BH9" s="418"/>
+      <c r="BI9" s="418"/>
+      <c r="BJ9" s="418"/>
+      <c r="BK9" s="418"/>
+      <c r="BL9" s="418"/>
+      <c r="BM9" s="418"/>
+      <c r="BN9" s="419"/>
     </row>
     <row r="10" spans="1:66" ht="14.4" x14ac:dyDescent="0.35">
       <c r="A10" s="113"/>
-      <c r="B10" s="365"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
-      <c r="G10" s="366"/>
-      <c r="H10" s="366"/>
-      <c r="I10" s="366"/>
-      <c r="J10" s="366"/>
-      <c r="K10" s="366"/>
-      <c r="L10" s="366"/>
-      <c r="M10" s="366"/>
-      <c r="N10" s="366"/>
-      <c r="O10" s="367"/>
+      <c r="B10" s="414"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="415"/>
+      <c r="K10" s="415"/>
+      <c r="L10" s="415"/>
+      <c r="M10" s="415"/>
+      <c r="N10" s="415"/>
+      <c r="O10" s="407"/>
       <c r="P10" s="114"/>
       <c r="Q10" s="115"/>
       <c r="R10" s="115"/>
@@ -16916,28 +17016,28 @@
       <c r="AP10" s="115"/>
       <c r="AQ10" s="115"/>
       <c r="AR10" s="116"/>
-      <c r="AS10" s="369"/>
-      <c r="AT10" s="370"/>
-      <c r="AU10" s="370"/>
-      <c r="AV10" s="370"/>
-      <c r="AW10" s="370"/>
-      <c r="AX10" s="370"/>
-      <c r="AY10" s="370"/>
-      <c r="AZ10" s="370"/>
-      <c r="BA10" s="370"/>
-      <c r="BB10" s="370"/>
-      <c r="BC10" s="370"/>
-      <c r="BD10" s="370"/>
-      <c r="BE10" s="370"/>
-      <c r="BF10" s="370"/>
-      <c r="BG10" s="370"/>
-      <c r="BH10" s="370"/>
-      <c r="BI10" s="370"/>
-      <c r="BJ10" s="370"/>
-      <c r="BK10" s="370"/>
-      <c r="BL10" s="370"/>
-      <c r="BM10" s="370"/>
-      <c r="BN10" s="371"/>
+      <c r="AS10" s="417"/>
+      <c r="AT10" s="418"/>
+      <c r="AU10" s="418"/>
+      <c r="AV10" s="418"/>
+      <c r="AW10" s="418"/>
+      <c r="AX10" s="418"/>
+      <c r="AY10" s="418"/>
+      <c r="AZ10" s="418"/>
+      <c r="BA10" s="418"/>
+      <c r="BB10" s="418"/>
+      <c r="BC10" s="418"/>
+      <c r="BD10" s="418"/>
+      <c r="BE10" s="418"/>
+      <c r="BF10" s="418"/>
+      <c r="BG10" s="418"/>
+      <c r="BH10" s="418"/>
+      <c r="BI10" s="418"/>
+      <c r="BJ10" s="418"/>
+      <c r="BK10" s="418"/>
+      <c r="BL10" s="418"/>
+      <c r="BM10" s="418"/>
+      <c r="BN10" s="419"/>
     </row>
     <row r="11" spans="1:66" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BN11" s="117"/>
@@ -17015,11 +17115,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS9:BN9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="AS10:BN10"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="AS7:BN7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="AS8:BN8"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -17032,17 +17138,11 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="AS10:BN10"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
